--- a/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
+++ b/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="1780">
   <si>
     <t>JOSEPH BLUE METAL</t>
   </si>
@@ -5128,6 +5128,234 @@
   </si>
   <si>
     <t>TSPS02570428</t>
+  </si>
+  <si>
+    <t>KKM000000156283/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577052</t>
+  </si>
+  <si>
+    <t>KKM000000156288/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577053</t>
+  </si>
+  <si>
+    <t>KKM000000156295/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577054</t>
+  </si>
+  <si>
+    <t>KKM000000156301/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577055</t>
+  </si>
+  <si>
+    <t>KKM000000156378/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577056</t>
+  </si>
+  <si>
+    <t>KKM000000156381/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577057</t>
+  </si>
+  <si>
+    <t>KKM000000156384/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577058</t>
+  </si>
+  <si>
+    <t>KKM000000156388/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577059</t>
+  </si>
+  <si>
+    <t>KKM000000156421/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577060</t>
+  </si>
+  <si>
+    <t>KKM000000156425/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577061</t>
+  </si>
+  <si>
+    <t>KKM000000156487/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577062</t>
+  </si>
+  <si>
+    <t>KKM000000156494/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577063</t>
+  </si>
+  <si>
+    <t>KKM000000156502/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577064</t>
+  </si>
+  <si>
+    <t>KKM000000156507/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577065</t>
+  </si>
+  <si>
+    <t>KKM000000156537/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577066</t>
+  </si>
+  <si>
+    <t>KKM000000156541/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577067</t>
+  </si>
+  <si>
+    <t>KKM000000156544/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577068</t>
+  </si>
+  <si>
+    <t>KKM000000156547/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577069</t>
+  </si>
+  <si>
+    <t>KKM000000156549/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577070</t>
+  </si>
+  <si>
+    <t>KKM000000156566/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577071</t>
+  </si>
+  <si>
+    <t>KKM000000156574/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577072</t>
+  </si>
+  <si>
+    <t>KKM000000156575/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577073</t>
+  </si>
+  <si>
+    <t>KKM000000156583/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577074</t>
+  </si>
+  <si>
+    <t>KKM000000156585/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577075</t>
+  </si>
+  <si>
+    <t>KKM000000156592/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577076</t>
+  </si>
+  <si>
+    <t>KKM000000156594/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577077</t>
+  </si>
+  <si>
+    <t>KKM000000156596/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577078</t>
+  </si>
+  <si>
+    <t>KKM000000156608/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577079</t>
+  </si>
+  <si>
+    <t>KKM000000156611/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577080</t>
+  </si>
+  <si>
+    <t>KKM000000156653/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577081</t>
+  </si>
+  <si>
+    <t>KKM000000156657/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577083</t>
+  </si>
+  <si>
+    <t>KKM000000156658/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577084</t>
+  </si>
+  <si>
+    <t>KKM000000156660/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577085</t>
+  </si>
+  <si>
+    <t>KKM000000156661/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577086</t>
+  </si>
+  <si>
+    <t>KKM000000156662/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577087</t>
+  </si>
+  <si>
+    <t>KKM000000156666/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577088</t>
+  </si>
+  <si>
+    <t>KKM000000156667/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577089</t>
+  </si>
+  <si>
+    <t>KKM000000156668/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577090</t>
   </si>
 </sst>
 </file>
@@ -5809,10 +6037,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I901"/>
+  <dimension ref="A1:I939"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A838" workbookViewId="0">
-      <selection activeCell="G855" sqref="G855"/>
+    <sheetView tabSelected="1" topLeftCell="A869" workbookViewId="0">
+      <selection activeCell="K838" sqref="K838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28512,454 +28740,1480 @@
         <v>32</v>
       </c>
       <c r="H839" s="11">
-        <f t="shared" ref="H839" si="13">G839+H838</f>
+        <f t="shared" ref="H839:H877" si="13">G839+H838</f>
         <v>26705</v>
       </c>
     </row>
-    <row r="840" spans="1:8" s="26" customFormat="1">
-      <c r="A840" s="55" t="s">
+    <row r="840" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A840" s="7">
+        <v>835</v>
+      </c>
+      <c r="B840" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C840" s="7" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D840" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E840" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F840" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G840" s="7">
+        <v>32</v>
+      </c>
+      <c r="H840" s="11">
+        <f t="shared" si="13"/>
+        <v>26737</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A841" s="7">
+        <v>836</v>
+      </c>
+      <c r="B841" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C841" s="7" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D841" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E841" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F841" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G841" s="7">
+        <v>32</v>
+      </c>
+      <c r="H841" s="11">
+        <f t="shared" si="13"/>
+        <v>26769</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A842" s="7">
+        <v>837</v>
+      </c>
+      <c r="B842" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C842" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D842" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E842" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F842" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G842" s="7">
+        <v>32</v>
+      </c>
+      <c r="H842" s="11">
+        <f t="shared" si="13"/>
+        <v>26801</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A843" s="7">
+        <v>838</v>
+      </c>
+      <c r="B843" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C843" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D843" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E843" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F843" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G843" s="7">
+        <v>32</v>
+      </c>
+      <c r="H843" s="11">
+        <f t="shared" si="13"/>
+        <v>26833</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A844" s="7">
+        <v>839</v>
+      </c>
+      <c r="B844" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C844" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D844" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E844" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F844" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G844" s="7">
+        <v>32</v>
+      </c>
+      <c r="H844" s="11">
+        <f t="shared" si="13"/>
+        <v>26865</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A845" s="7">
+        <v>840</v>
+      </c>
+      <c r="B845" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C845" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D845" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E845" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F845" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G845" s="7">
+        <v>32</v>
+      </c>
+      <c r="H845" s="11">
+        <f t="shared" si="13"/>
+        <v>26897</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A846" s="7">
+        <v>841</v>
+      </c>
+      <c r="B846" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C846" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D846" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E846" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F846" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G846" s="7">
+        <v>32</v>
+      </c>
+      <c r="H846" s="11">
+        <f t="shared" si="13"/>
+        <v>26929</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A847" s="7">
+        <v>842</v>
+      </c>
+      <c r="B847" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C847" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D847" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E847" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F847" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G847" s="7">
+        <v>32</v>
+      </c>
+      <c r="H847" s="11">
+        <f t="shared" si="13"/>
+        <v>26961</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A848" s="7">
+        <v>843</v>
+      </c>
+      <c r="B848" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C848" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D848" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E848" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F848" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G848" s="7">
+        <v>32</v>
+      </c>
+      <c r="H848" s="11">
+        <f t="shared" si="13"/>
+        <v>26993</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A849" s="7">
+        <v>844</v>
+      </c>
+      <c r="B849" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C849" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D849" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E849" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F849" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G849" s="7">
+        <v>32</v>
+      </c>
+      <c r="H849" s="11">
+        <f t="shared" si="13"/>
+        <v>27025</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A850" s="7">
+        <v>845</v>
+      </c>
+      <c r="B850" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C850" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D850" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E850" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F850" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G850" s="7">
+        <v>32</v>
+      </c>
+      <c r="H850" s="11">
+        <f t="shared" si="13"/>
+        <v>27057</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A851" s="7">
+        <v>846</v>
+      </c>
+      <c r="B851" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C851" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D851" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E851" s="7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F851" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G851" s="7">
+        <v>32</v>
+      </c>
+      <c r="H851" s="11">
+        <f t="shared" si="13"/>
+        <v>27089</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A852" s="7">
+        <v>847</v>
+      </c>
+      <c r="B852" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C852" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D852" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E852" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F852" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G852" s="7">
+        <v>32</v>
+      </c>
+      <c r="H852" s="11">
+        <f t="shared" si="13"/>
+        <v>27121</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A853" s="7">
+        <v>848</v>
+      </c>
+      <c r="B853" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C853" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D853" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E853" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F853" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G853" s="7">
+        <v>32</v>
+      </c>
+      <c r="H853" s="11">
+        <f t="shared" si="13"/>
+        <v>27153</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A854" s="7">
+        <v>849</v>
+      </c>
+      <c r="B854" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C854" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D854" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E854" s="7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F854" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G854" s="7">
+        <v>32</v>
+      </c>
+      <c r="H854" s="11">
+        <f t="shared" si="13"/>
+        <v>27185</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A855" s="7">
+        <v>850</v>
+      </c>
+      <c r="B855" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C855" s="7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D855" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E855" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F855" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G855" s="7">
+        <v>32</v>
+      </c>
+      <c r="H855" s="11">
+        <f t="shared" si="13"/>
+        <v>27217</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A856" s="7">
+        <v>851</v>
+      </c>
+      <c r="B856" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C856" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D856" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E856" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F856" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G856" s="7">
+        <v>32</v>
+      </c>
+      <c r="H856" s="11">
+        <f t="shared" si="13"/>
+        <v>27249</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A857" s="7">
+        <v>852</v>
+      </c>
+      <c r="B857" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C857" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D857" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E857" s="7" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F857" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G857" s="7">
+        <v>32</v>
+      </c>
+      <c r="H857" s="11">
+        <f t="shared" si="13"/>
+        <v>27281</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A858" s="7">
+        <v>853</v>
+      </c>
+      <c r="B858" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C858" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D858" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E858" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F858" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G858" s="7">
+        <v>32</v>
+      </c>
+      <c r="H858" s="11">
+        <f t="shared" si="13"/>
+        <v>27313</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A859" s="7">
+        <v>854</v>
+      </c>
+      <c r="B859" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C859" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D859" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E859" s="7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F859" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G859" s="7">
+        <v>32</v>
+      </c>
+      <c r="H859" s="11">
+        <f t="shared" si="13"/>
+        <v>27345</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A860" s="7">
+        <v>855</v>
+      </c>
+      <c r="B860" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C860" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D860" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E860" s="7" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F860" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G860" s="7">
+        <v>32</v>
+      </c>
+      <c r="H860" s="11">
+        <f t="shared" si="13"/>
+        <v>27377</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A861" s="7">
+        <v>856</v>
+      </c>
+      <c r="B861" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C861" s="7" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D861" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E861" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F861" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G861" s="7">
+        <v>32</v>
+      </c>
+      <c r="H861" s="11">
+        <f t="shared" si="13"/>
+        <v>27409</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A862" s="7">
+        <v>857</v>
+      </c>
+      <c r="B862" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C862" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D862" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E862" s="7" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F862" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G862" s="7">
+        <v>32</v>
+      </c>
+      <c r="H862" s="11">
+        <f t="shared" si="13"/>
+        <v>27441</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A863" s="7">
+        <v>858</v>
+      </c>
+      <c r="B863" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C863" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D863" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E863" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F863" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G863" s="7">
+        <v>32</v>
+      </c>
+      <c r="H863" s="11">
+        <f t="shared" si="13"/>
+        <v>27473</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A864" s="7">
+        <v>859</v>
+      </c>
+      <c r="B864" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C864" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D864" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E864" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F864" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G864" s="7">
+        <v>32</v>
+      </c>
+      <c r="H864" s="11">
+        <f t="shared" si="13"/>
+        <v>27505</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A865" s="7">
+        <v>860</v>
+      </c>
+      <c r="B865" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C865" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D865" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E865" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F865" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G865" s="7">
+        <v>32</v>
+      </c>
+      <c r="H865" s="11">
+        <f t="shared" si="13"/>
+        <v>27537</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A866" s="7">
+        <v>861</v>
+      </c>
+      <c r="B866" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C866" s="7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D866" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E866" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F866" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G866" s="7">
+        <v>32</v>
+      </c>
+      <c r="H866" s="11">
+        <f t="shared" si="13"/>
+        <v>27569</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A867" s="7">
+        <v>862</v>
+      </c>
+      <c r="B867" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C867" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D867" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E867" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F867" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G867" s="7">
+        <v>32</v>
+      </c>
+      <c r="H867" s="11">
+        <f t="shared" si="13"/>
+        <v>27601</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A868" s="7">
+        <v>863</v>
+      </c>
+      <c r="B868" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C868" s="7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D868" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E868" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F868" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G868" s="7">
+        <v>32</v>
+      </c>
+      <c r="H868" s="11">
+        <f t="shared" si="13"/>
+        <v>27633</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A869" s="7">
+        <v>864</v>
+      </c>
+      <c r="B869" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C869" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D869" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E869" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F869" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G869" s="7">
+        <v>32</v>
+      </c>
+      <c r="H869" s="11">
+        <f t="shared" si="13"/>
+        <v>27665</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A870" s="7">
+        <v>865</v>
+      </c>
+      <c r="B870" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C870" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D870" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E870" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F870" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G870" s="7">
+        <v>32</v>
+      </c>
+      <c r="H870" s="11">
+        <f t="shared" si="13"/>
+        <v>27697</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A871" s="7">
+        <v>866</v>
+      </c>
+      <c r="B871" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C871" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D871" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E871" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F871" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G871" s="7">
+        <v>32</v>
+      </c>
+      <c r="H871" s="11">
+        <f t="shared" si="13"/>
+        <v>27729</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A872" s="7">
+        <v>867</v>
+      </c>
+      <c r="B872" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C872" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D872" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E872" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F872" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G872" s="7">
+        <v>32</v>
+      </c>
+      <c r="H872" s="11">
+        <f t="shared" si="13"/>
+        <v>27761</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A873" s="7">
+        <v>868</v>
+      </c>
+      <c r="B873" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C873" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D873" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E873" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F873" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G873" s="7">
+        <v>32</v>
+      </c>
+      <c r="H873" s="11">
+        <f t="shared" si="13"/>
+        <v>27793</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A874" s="7">
+        <v>869</v>
+      </c>
+      <c r="B874" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C874" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D874" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E874" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F874" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G874" s="7">
+        <v>32</v>
+      </c>
+      <c r="H874" s="11">
+        <f t="shared" si="13"/>
+        <v>27825</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A875" s="7">
+        <v>870</v>
+      </c>
+      <c r="B875" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C875" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D875" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E875" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F875" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G875" s="7">
+        <v>32</v>
+      </c>
+      <c r="H875" s="11">
+        <f t="shared" si="13"/>
+        <v>27857</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A876" s="7">
+        <v>871</v>
+      </c>
+      <c r="B876" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C876" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D876" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E876" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F876" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G876" s="7">
+        <v>32</v>
+      </c>
+      <c r="H876" s="11">
+        <f t="shared" si="13"/>
+        <v>27889</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A877" s="7">
+        <v>872</v>
+      </c>
+      <c r="B877" s="24">
+        <v>45789</v>
+      </c>
+      <c r="C877" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D877" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E877" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F877" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G877" s="7">
+        <v>32</v>
+      </c>
+      <c r="H877" s="11">
+        <f t="shared" si="13"/>
+        <v>27921</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8" s="26" customFormat="1">
+      <c r="A878" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="B840" s="56"/>
-      <c r="C840" s="56"/>
-      <c r="D840" s="56"/>
-      <c r="E840" s="56"/>
-      <c r="F840" s="57"/>
-      <c r="G840" s="58">
-        <f>150*H839</f>
-        <v>4005750</v>
-      </c>
-      <c r="H840" s="59"/>
-    </row>
-    <row r="841" spans="1:8" s="26" customFormat="1">
-      <c r="A841" s="37"/>
-      <c r="B841" s="37"/>
-      <c r="C841" s="37"/>
-      <c r="D841" s="37"/>
-      <c r="E841" s="37"/>
-      <c r="F841" s="37"/>
-      <c r="G841" s="38"/>
-      <c r="H841" s="38"/>
-    </row>
-    <row r="842" spans="1:8" s="26" customFormat="1">
-      <c r="A842" s="37"/>
-      <c r="B842" s="37"/>
-      <c r="C842" s="37"/>
-      <c r="D842" s="37"/>
-      <c r="E842" s="37"/>
-      <c r="F842" s="37"/>
-      <c r="G842" s="38"/>
-      <c r="H842" s="38"/>
-    </row>
-    <row r="843" spans="1:8" s="26" customFormat="1">
-      <c r="A843" s="40"/>
-      <c r="B843" s="41"/>
-      <c r="C843" s="41"/>
-      <c r="D843" s="41"/>
-      <c r="E843" s="41"/>
-      <c r="F843" s="42"/>
-      <c r="G843"/>
-      <c r="H843"/>
-    </row>
-    <row r="844" spans="1:8" s="26" customFormat="1">
-      <c r="A844" s="43"/>
-      <c r="B844" s="44"/>
-      <c r="C844" s="44"/>
-      <c r="D844" s="44"/>
-      <c r="E844" s="44"/>
-      <c r="F844" s="45"/>
-    </row>
-    <row r="845" spans="1:8" s="26" customFormat="1">
-      <c r="A845" s="43"/>
-      <c r="B845" s="44"/>
-      <c r="C845" s="44"/>
-      <c r="D845" s="49" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E845" s="49"/>
-      <c r="F845" s="45"/>
-    </row>
-    <row r="846" spans="1:8" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="A846" s="43"/>
-      <c r="B846" s="44"/>
-      <c r="C846" s="44"/>
-      <c r="D846" s="50">
-        <f>G840-D849</f>
-        <v>3088950</v>
-      </c>
-      <c r="E846" s="51"/>
-      <c r="F846" s="45"/>
-    </row>
-    <row r="847" spans="1:8" s="26" customFormat="1">
-      <c r="A847" s="43"/>
-      <c r="B847" s="44"/>
-      <c r="C847" s="44"/>
-      <c r="D847" s="44"/>
-      <c r="E847" s="44"/>
-      <c r="F847" s="45"/>
-    </row>
-    <row r="848" spans="1:8" s="26" customFormat="1">
-      <c r="A848" s="43"/>
-      <c r="B848" s="44"/>
-      <c r="C848" s="44"/>
-      <c r="D848" s="49" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E848" s="49"/>
-      <c r="F848" s="45"/>
-    </row>
-    <row r="849" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A849" s="43"/>
-      <c r="B849" s="44"/>
-      <c r="C849" s="44"/>
-      <c r="D849" s="50">
-        <f>SUM(D852:D865)</f>
-        <v>916800</v>
-      </c>
-      <c r="E849" s="51"/>
-      <c r="F849" s="45"/>
-    </row>
-    <row r="850" spans="1:8" s="26" customFormat="1">
-      <c r="A850" s="43"/>
-      <c r="B850" s="44"/>
-      <c r="C850" s="44"/>
-      <c r="D850" s="39"/>
-      <c r="E850" s="39"/>
-      <c r="F850" s="45"/>
-    </row>
-    <row r="851" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1">
-      <c r="A851" s="43"/>
-      <c r="B851" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C851" s="36" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D851" s="36" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E851" s="36" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F851" s="45"/>
-    </row>
-    <row r="852" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A852" s="43"/>
-      <c r="B852" s="27"/>
-      <c r="C852" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="D852" s="27"/>
-      <c r="E852" s="35">
-        <f>G840</f>
-        <v>4005750</v>
-      </c>
-      <c r="F852" s="45"/>
-      <c r="G852"/>
-      <c r="H852"/>
-    </row>
-    <row r="853" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A853" s="43"/>
-      <c r="B853" s="32" t="s">
-        <v>918</v>
-      </c>
-      <c r="C853" s="29" t="s">
-        <v>917</v>
-      </c>
-      <c r="D853" s="34">
-        <v>466800</v>
-      </c>
-      <c r="E853" s="7">
-        <f>ABS(D853-E852)</f>
-        <v>3538950</v>
-      </c>
-      <c r="F853" s="45"/>
-      <c r="G853"/>
-    </row>
-    <row r="854" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A854" s="43"/>
-      <c r="B854" s="27" t="s">
-        <v>942</v>
-      </c>
-      <c r="C854" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D854" s="28">
-        <v>150000</v>
-      </c>
-      <c r="E854" s="7">
-        <f>ABS(D854-E853)</f>
-        <v>3388950</v>
-      </c>
-      <c r="F854" s="45"/>
-      <c r="G854"/>
-      <c r="H854"/>
-    </row>
-    <row r="855" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A855" s="43"/>
-      <c r="B855" s="7" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C855" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D855" s="7">
-        <v>150000</v>
-      </c>
-      <c r="E855" s="7">
-        <f>ABS(D855-E854)</f>
-        <v>3238950</v>
-      </c>
-      <c r="F855" s="45"/>
-      <c r="G855"/>
-      <c r="H855"/>
-    </row>
-    <row r="856" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A856" s="43"/>
-      <c r="B856" s="7" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C856" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D856" s="7">
-        <v>150000</v>
-      </c>
-      <c r="E856" s="7">
-        <f>ABS(D856-E855)</f>
-        <v>3088950</v>
-      </c>
-      <c r="F856" s="45"/>
-      <c r="G856"/>
-      <c r="H856"/>
-    </row>
-    <row r="857" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A857" s="43"/>
-      <c r="B857" s="7"/>
-      <c r="C857" s="7"/>
-      <c r="D857" s="7"/>
-      <c r="E857" s="7"/>
-      <c r="F857" s="45"/>
-    </row>
-    <row r="858" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A858" s="43"/>
-      <c r="B858" s="7"/>
-      <c r="C858" s="7"/>
-      <c r="D858" s="7"/>
-      <c r="E858" s="7"/>
-      <c r="F858" s="45"/>
-    </row>
-    <row r="859" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A859" s="43"/>
-      <c r="B859" s="7"/>
-      <c r="C859" s="7"/>
-      <c r="D859" s="7"/>
-      <c r="E859" s="7"/>
-      <c r="F859" s="45"/>
-    </row>
-    <row r="860" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A860" s="43"/>
-      <c r="B860" s="7"/>
-      <c r="C860" s="7"/>
-      <c r="D860" s="7"/>
-      <c r="E860" s="7"/>
-      <c r="F860" s="45"/>
-    </row>
-    <row r="861" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A861" s="43"/>
-      <c r="B861" s="7"/>
-      <c r="C861" s="7"/>
-      <c r="D861" s="7"/>
-      <c r="E861" s="7"/>
-      <c r="F861" s="45"/>
-      <c r="G861"/>
-      <c r="H861"/>
-    </row>
-    <row r="862" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A862" s="43"/>
-      <c r="B862" s="7"/>
-      <c r="C862" s="7"/>
-      <c r="D862" s="7"/>
-      <c r="E862" s="7"/>
-      <c r="F862" s="45"/>
-      <c r="G862"/>
-      <c r="H862"/>
-    </row>
-    <row r="863" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A863" s="43"/>
-      <c r="B863" s="7"/>
-      <c r="C863" s="7"/>
-      <c r="D863" s="7"/>
-      <c r="E863" s="7"/>
-      <c r="F863" s="45"/>
-      <c r="G863"/>
-      <c r="H863"/>
-    </row>
-    <row r="864" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A864" s="43"/>
-      <c r="B864" s="7"/>
-      <c r="C864" s="7"/>
-      <c r="D864" s="7"/>
-      <c r="E864" s="7"/>
-      <c r="F864" s="45"/>
-      <c r="G864"/>
-      <c r="H864"/>
-    </row>
-    <row r="865" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A865" s="43"/>
-      <c r="B865" s="7"/>
-      <c r="C865" s="7"/>
-      <c r="D865" s="7"/>
-      <c r="E865" s="7"/>
-      <c r="F865" s="45"/>
-      <c r="G865"/>
-      <c r="H865"/>
-    </row>
-    <row r="866" spans="1:8" s="26" customFormat="1">
-      <c r="A866" s="43"/>
-      <c r="B866" s="44"/>
-      <c r="C866" s="44"/>
-      <c r="D866" s="44"/>
-      <c r="E866" s="44"/>
-      <c r="F866" s="45"/>
-      <c r="G866"/>
-      <c r="H866"/>
-    </row>
-    <row r="867" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A867" s="46"/>
-      <c r="B867" s="47"/>
-      <c r="C867" s="47"/>
-      <c r="D867" s="47"/>
-      <c r="E867" s="47"/>
-      <c r="F867" s="48"/>
-    </row>
-    <row r="868" spans="1:8" s="26" customFormat="1"/>
-    <row r="869" spans="1:8" s="26" customFormat="1"/>
-    <row r="870" spans="1:8" s="26" customFormat="1"/>
-    <row r="871" spans="1:8" s="26" customFormat="1"/>
-    <row r="872" spans="1:8" s="26" customFormat="1">
-      <c r="G872"/>
-      <c r="H872"/>
-    </row>
-    <row r="873" spans="1:8" s="26" customFormat="1">
-      <c r="G873"/>
-      <c r="H873"/>
-    </row>
-    <row r="874" spans="1:8" s="26" customFormat="1">
-      <c r="G874"/>
-      <c r="H874"/>
-    </row>
-    <row r="875" spans="1:8" s="26" customFormat="1">
-      <c r="G875"/>
-      <c r="H875"/>
-    </row>
-    <row r="876" spans="1:8" s="26" customFormat="1">
-      <c r="G876"/>
-      <c r="H876"/>
-    </row>
-    <row r="877" spans="1:8" s="26" customFormat="1">
-      <c r="G877"/>
-      <c r="H877"/>
-    </row>
-    <row r="878" spans="1:8" s="26" customFormat="1">
-      <c r="G878"/>
-      <c r="H878"/>
+      <c r="B878" s="56"/>
+      <c r="C878" s="56"/>
+      <c r="D878" s="56"/>
+      <c r="E878" s="56"/>
+      <c r="F878" s="57"/>
+      <c r="G878" s="58">
+        <f>150*H877</f>
+        <v>4188150</v>
+      </c>
+      <c r="H878" s="59"/>
     </row>
     <row r="879" spans="1:8" s="26" customFormat="1">
-      <c r="G879"/>
-      <c r="H879"/>
+      <c r="A879" s="37"/>
+      <c r="B879" s="37"/>
+      <c r="C879" s="37"/>
+      <c r="D879" s="37"/>
+      <c r="E879" s="37"/>
+      <c r="F879" s="37"/>
+      <c r="G879" s="38"/>
+      <c r="H879" s="38"/>
     </row>
     <row r="880" spans="1:8" s="26" customFormat="1">
-      <c r="G880"/>
-      <c r="H880"/>
-    </row>
-    <row r="881" spans="6:8" s="26" customFormat="1">
+      <c r="A880" s="37"/>
+      <c r="B880" s="37"/>
+      <c r="C880" s="37"/>
+      <c r="D880" s="37"/>
+      <c r="E880" s="37"/>
+      <c r="F880" s="37"/>
+      <c r="G880" s="38"/>
+      <c r="H880" s="38"/>
+    </row>
+    <row r="881" spans="1:8" s="26" customFormat="1">
+      <c r="A881" s="40"/>
+      <c r="B881" s="41"/>
+      <c r="C881" s="41"/>
+      <c r="D881" s="41"/>
+      <c r="E881" s="41"/>
+      <c r="F881" s="42"/>
       <c r="G881"/>
       <c r="H881"/>
     </row>
-    <row r="882" spans="6:8" s="26" customFormat="1">
-      <c r="G882"/>
-      <c r="H882"/>
-    </row>
-    <row r="883" spans="6:8" s="26" customFormat="1">
-      <c r="G883"/>
-      <c r="H883"/>
-    </row>
-    <row r="884" spans="6:8" s="26" customFormat="1">
-      <c r="G884"/>
-      <c r="H884"/>
-    </row>
-    <row r="885" spans="6:8" s="26" customFormat="1">
-      <c r="G885"/>
-      <c r="H885"/>
-    </row>
-    <row r="886" spans="6:8" s="26" customFormat="1">
-      <c r="G886"/>
-      <c r="H886"/>
-    </row>
-    <row r="887" spans="6:8" s="26" customFormat="1">
-      <c r="G887"/>
-      <c r="H887"/>
-    </row>
-    <row r="888" spans="6:8" s="26" customFormat="1">
-      <c r="G888"/>
-      <c r="H888"/>
-    </row>
-    <row r="889" spans="6:8" s="26" customFormat="1">
-      <c r="G889"/>
-      <c r="H889"/>
-    </row>
-    <row r="890" spans="6:8" s="26" customFormat="1">
+    <row r="882" spans="1:8" s="26" customFormat="1">
+      <c r="A882" s="43"/>
+      <c r="B882" s="44"/>
+      <c r="C882" s="44"/>
+      <c r="D882" s="44"/>
+      <c r="E882" s="44"/>
+      <c r="F882" s="45"/>
+    </row>
+    <row r="883" spans="1:8" s="26" customFormat="1">
+      <c r="A883" s="43"/>
+      <c r="B883" s="44"/>
+      <c r="C883" s="44"/>
+      <c r="D883" s="49" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E883" s="49"/>
+      <c r="F883" s="45"/>
+    </row>
+    <row r="884" spans="1:8" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A884" s="43"/>
+      <c r="B884" s="44"/>
+      <c r="C884" s="44"/>
+      <c r="D884" s="50">
+        <f>G878-D887</f>
+        <v>3271350</v>
+      </c>
+      <c r="E884" s="51"/>
+      <c r="F884" s="45"/>
+    </row>
+    <row r="885" spans="1:8" s="26" customFormat="1">
+      <c r="A885" s="43"/>
+      <c r="B885" s="44"/>
+      <c r="C885" s="44"/>
+      <c r="D885" s="44"/>
+      <c r="E885" s="44"/>
+      <c r="F885" s="45"/>
+    </row>
+    <row r="886" spans="1:8" s="26" customFormat="1">
+      <c r="A886" s="43"/>
+      <c r="B886" s="44"/>
+      <c r="C886" s="44"/>
+      <c r="D886" s="49" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E886" s="49"/>
+      <c r="F886" s="45"/>
+    </row>
+    <row r="887" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A887" s="43"/>
+      <c r="B887" s="44"/>
+      <c r="C887" s="44"/>
+      <c r="D887" s="50">
+        <f>SUM(D890:D903)</f>
+        <v>916800</v>
+      </c>
+      <c r="E887" s="51"/>
+      <c r="F887" s="45"/>
+    </row>
+    <row r="888" spans="1:8" s="26" customFormat="1">
+      <c r="A888" s="43"/>
+      <c r="B888" s="44"/>
+      <c r="C888" s="44"/>
+      <c r="D888" s="39"/>
+      <c r="E888" s="39"/>
+      <c r="F888" s="45"/>
+    </row>
+    <row r="889" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1">
+      <c r="A889" s="43"/>
+      <c r="B889" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C889" s="36" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D889" s="36" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E889" s="36" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F889" s="45"/>
+    </row>
+    <row r="890" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A890" s="43"/>
+      <c r="B890" s="27"/>
+      <c r="C890" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="D890" s="27"/>
+      <c r="E890" s="35">
+        <f>G878</f>
+        <v>4188150</v>
+      </c>
+      <c r="F890" s="45"/>
       <c r="G890"/>
       <c r="H890"/>
     </row>
-    <row r="891" spans="6:8" s="26" customFormat="1">
+    <row r="891" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A891" s="43"/>
+      <c r="B891" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="C891" s="29" t="s">
+        <v>917</v>
+      </c>
+      <c r="D891" s="34">
+        <v>466800</v>
+      </c>
+      <c r="E891" s="7">
+        <f>ABS(D891-E890)</f>
+        <v>3721350</v>
+      </c>
+      <c r="F891" s="45"/>
       <c r="G891"/>
-      <c r="H891"/>
-    </row>
-    <row r="892" spans="6:8" s="26" customFormat="1">
+    </row>
+    <row r="892" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A892" s="43"/>
+      <c r="B892" s="27" t="s">
+        <v>942</v>
+      </c>
+      <c r="C892" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D892" s="28">
+        <v>150000</v>
+      </c>
+      <c r="E892" s="7">
+        <f>ABS(D892-E891)</f>
+        <v>3571350</v>
+      </c>
+      <c r="F892" s="45"/>
       <c r="G892"/>
       <c r="H892"/>
     </row>
-    <row r="893" spans="6:8" s="26" customFormat="1">
+    <row r="893" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A893" s="43"/>
+      <c r="B893" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C893" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D893" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E893" s="7">
+        <f>ABS(D893-E892)</f>
+        <v>3421350</v>
+      </c>
+      <c r="F893" s="45"/>
       <c r="G893"/>
       <c r="H893"/>
     </row>
-    <row r="894" spans="6:8" s="26" customFormat="1">
+    <row r="894" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A894" s="43"/>
+      <c r="B894" s="7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C894" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D894" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E894" s="7">
+        <f>ABS(D894-E893)</f>
+        <v>3271350</v>
+      </c>
+      <c r="F894" s="45"/>
       <c r="G894"/>
       <c r="H894"/>
     </row>
-    <row r="895" spans="6:8">
-      <c r="F895" s="26"/>
-    </row>
-    <row r="896" spans="6:8">
-      <c r="F896" s="26"/>
-    </row>
-    <row r="897" spans="6:6">
-      <c r="F897" s="26"/>
-    </row>
-    <row r="898" spans="6:6">
-      <c r="F898" s="26"/>
-    </row>
-    <row r="899" spans="6:6">
-      <c r="F899" s="26"/>
-    </row>
-    <row r="900" spans="6:6">
-      <c r="F900" s="26"/>
-    </row>
-    <row r="901" spans="6:6">
-      <c r="F901" s="26"/>
+    <row r="895" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A895" s="43"/>
+      <c r="B895" s="7"/>
+      <c r="C895" s="7"/>
+      <c r="D895" s="7"/>
+      <c r="E895" s="7"/>
+      <c r="F895" s="45"/>
+    </row>
+    <row r="896" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A896" s="43"/>
+      <c r="B896" s="7"/>
+      <c r="C896" s="7"/>
+      <c r="D896" s="7"/>
+      <c r="E896" s="7"/>
+      <c r="F896" s="45"/>
+    </row>
+    <row r="897" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A897" s="43"/>
+      <c r="B897" s="7"/>
+      <c r="C897" s="7"/>
+      <c r="D897" s="7"/>
+      <c r="E897" s="7"/>
+      <c r="F897" s="45"/>
+    </row>
+    <row r="898" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A898" s="43"/>
+      <c r="B898" s="7"/>
+      <c r="C898" s="7"/>
+      <c r="D898" s="7"/>
+      <c r="E898" s="7"/>
+      <c r="F898" s="45"/>
+    </row>
+    <row r="899" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A899" s="43"/>
+      <c r="B899" s="7"/>
+      <c r="C899" s="7"/>
+      <c r="D899" s="7"/>
+      <c r="E899" s="7"/>
+      <c r="F899" s="45"/>
+      <c r="G899"/>
+      <c r="H899"/>
+    </row>
+    <row r="900" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A900" s="43"/>
+      <c r="B900" s="7"/>
+      <c r="C900" s="7"/>
+      <c r="D900" s="7"/>
+      <c r="E900" s="7"/>
+      <c r="F900" s="45"/>
+      <c r="G900"/>
+      <c r="H900"/>
+    </row>
+    <row r="901" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A901" s="43"/>
+      <c r="B901" s="7"/>
+      <c r="C901" s="7"/>
+      <c r="D901" s="7"/>
+      <c r="E901" s="7"/>
+      <c r="F901" s="45"/>
+      <c r="G901"/>
+      <c r="H901"/>
+    </row>
+    <row r="902" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A902" s="43"/>
+      <c r="B902" s="7"/>
+      <c r="C902" s="7"/>
+      <c r="D902" s="7"/>
+      <c r="E902" s="7"/>
+      <c r="F902" s="45"/>
+      <c r="G902"/>
+      <c r="H902"/>
+    </row>
+    <row r="903" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A903" s="43"/>
+      <c r="B903" s="7"/>
+      <c r="C903" s="7"/>
+      <c r="D903" s="7"/>
+      <c r="E903" s="7"/>
+      <c r="F903" s="45"/>
+      <c r="G903"/>
+      <c r="H903"/>
+    </row>
+    <row r="904" spans="1:8" s="26" customFormat="1">
+      <c r="A904" s="43"/>
+      <c r="B904" s="44"/>
+      <c r="C904" s="44"/>
+      <c r="D904" s="44"/>
+      <c r="E904" s="44"/>
+      <c r="F904" s="45"/>
+      <c r="G904"/>
+      <c r="H904"/>
+    </row>
+    <row r="905" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A905" s="46"/>
+      <c r="B905" s="47"/>
+      <c r="C905" s="47"/>
+      <c r="D905" s="47"/>
+      <c r="E905" s="47"/>
+      <c r="F905" s="48"/>
+    </row>
+    <row r="906" spans="1:8" s="26" customFormat="1"/>
+    <row r="907" spans="1:8" s="26" customFormat="1"/>
+    <row r="908" spans="1:8" s="26" customFormat="1"/>
+    <row r="909" spans="1:8" s="26" customFormat="1"/>
+    <row r="910" spans="1:8" s="26" customFormat="1">
+      <c r="G910"/>
+      <c r="H910"/>
+    </row>
+    <row r="911" spans="1:8" s="26" customFormat="1">
+      <c r="G911"/>
+      <c r="H911"/>
+    </row>
+    <row r="912" spans="1:8" s="26" customFormat="1">
+      <c r="G912"/>
+      <c r="H912"/>
+    </row>
+    <row r="913" spans="7:8" s="26" customFormat="1">
+      <c r="G913"/>
+      <c r="H913"/>
+    </row>
+    <row r="914" spans="7:8" s="26" customFormat="1">
+      <c r="G914"/>
+      <c r="H914"/>
+    </row>
+    <row r="915" spans="7:8" s="26" customFormat="1">
+      <c r="G915"/>
+      <c r="H915"/>
+    </row>
+    <row r="916" spans="7:8" s="26" customFormat="1">
+      <c r="G916"/>
+      <c r="H916"/>
+    </row>
+    <row r="917" spans="7:8" s="26" customFormat="1">
+      <c r="G917"/>
+      <c r="H917"/>
+    </row>
+    <row r="918" spans="7:8" s="26" customFormat="1">
+      <c r="G918"/>
+      <c r="H918"/>
+    </row>
+    <row r="919" spans="7:8" s="26" customFormat="1">
+      <c r="G919"/>
+      <c r="H919"/>
+    </row>
+    <row r="920" spans="7:8" s="26" customFormat="1">
+      <c r="G920"/>
+      <c r="H920"/>
+    </row>
+    <row r="921" spans="7:8" s="26" customFormat="1">
+      <c r="G921"/>
+      <c r="H921"/>
+    </row>
+    <row r="922" spans="7:8" s="26" customFormat="1">
+      <c r="G922"/>
+      <c r="H922"/>
+    </row>
+    <row r="923" spans="7:8" s="26" customFormat="1">
+      <c r="G923"/>
+      <c r="H923"/>
+    </row>
+    <row r="924" spans="7:8" s="26" customFormat="1">
+      <c r="G924"/>
+      <c r="H924"/>
+    </row>
+    <row r="925" spans="7:8" s="26" customFormat="1">
+      <c r="G925"/>
+      <c r="H925"/>
+    </row>
+    <row r="926" spans="7:8" s="26" customFormat="1">
+      <c r="G926"/>
+      <c r="H926"/>
+    </row>
+    <row r="927" spans="7:8" s="26" customFormat="1">
+      <c r="G927"/>
+      <c r="H927"/>
+    </row>
+    <row r="928" spans="7:8" s="26" customFormat="1">
+      <c r="G928"/>
+      <c r="H928"/>
+    </row>
+    <row r="929" spans="6:8" s="26" customFormat="1">
+      <c r="G929"/>
+      <c r="H929"/>
+    </row>
+    <row r="930" spans="6:8" s="26" customFormat="1">
+      <c r="G930"/>
+      <c r="H930"/>
+    </row>
+    <row r="931" spans="6:8" s="26" customFormat="1">
+      <c r="G931"/>
+      <c r="H931"/>
+    </row>
+    <row r="932" spans="6:8" s="26" customFormat="1">
+      <c r="G932"/>
+      <c r="H932"/>
+    </row>
+    <row r="933" spans="6:8">
+      <c r="F933" s="26"/>
+    </row>
+    <row r="934" spans="6:8">
+      <c r="F934" s="26"/>
+    </row>
+    <row r="935" spans="6:8">
+      <c r="F935" s="26"/>
+    </row>
+    <row r="936" spans="6:8">
+      <c r="F936" s="26"/>
+    </row>
+    <row r="937" spans="6:8">
+      <c r="F937" s="26"/>
+    </row>
+    <row r="938" spans="6:8">
+      <c r="F938" s="26"/>
+    </row>
+    <row r="939" spans="6:8">
+      <c r="F939" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="7">
-    <mergeCell ref="D848:E848"/>
-    <mergeCell ref="D849:E849"/>
+    <mergeCell ref="D886:E886"/>
+    <mergeCell ref="D887:E887"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A840:F840"/>
-    <mergeCell ref="G840:H840"/>
-    <mergeCell ref="D845:E845"/>
-    <mergeCell ref="D846:E846"/>
+    <mergeCell ref="A878:F878"/>
+    <mergeCell ref="G878:H878"/>
+    <mergeCell ref="D883:E883"/>
+    <mergeCell ref="D884:E884"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
+++ b/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4153" uniqueCount="1798">
   <si>
     <t>JOSEPH BLUE METAL</t>
   </si>
@@ -5356,6 +5356,60 @@
   </si>
   <si>
     <t>TSPS02577090</t>
+  </si>
+  <si>
+    <t>TSPS02577109</t>
+  </si>
+  <si>
+    <t>KKM000000157431/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577106</t>
+  </si>
+  <si>
+    <t>KKM000000157412/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577104</t>
+  </si>
+  <si>
+    <t>KKM000000157403/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577102</t>
+  </si>
+  <si>
+    <t>KKM000000157392/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577100</t>
+  </si>
+  <si>
+    <t>KKM000000157381/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577098</t>
+  </si>
+  <si>
+    <t>KKM000000157369/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577097</t>
+  </si>
+  <si>
+    <t>KKM000000157361/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577094</t>
+  </si>
+  <si>
+    <t>KKM000000157341/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577093</t>
+  </si>
+  <si>
+    <t>KKM000000157338/2025</t>
   </si>
 </sst>
 </file>
@@ -6037,10 +6091,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I939"/>
+  <dimension ref="A1:I992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A869" workbookViewId="0">
-      <selection activeCell="K838" sqref="K838"/>
+    <sheetView tabSelected="1" topLeftCell="A884" workbookViewId="0">
+      <selection activeCell="C887" sqref="C887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28740,7 +28794,7 @@
         <v>32</v>
       </c>
       <c r="H839" s="11">
-        <f t="shared" ref="H839:H877" si="13">G839+H838</f>
+        <f t="shared" ref="H839:H886" si="13">G839+H838</f>
         <v>26705</v>
       </c>
     </row>
@@ -29770,450 +29824,1133 @@
         <v>27921</v>
       </c>
     </row>
-    <row r="878" spans="1:8" s="26" customFormat="1">
-      <c r="A878" s="55" t="s">
-        <v>488</v>
-      </c>
-      <c r="B878" s="56"/>
-      <c r="C878" s="56"/>
-      <c r="D878" s="56"/>
-      <c r="E878" s="56"/>
-      <c r="F878" s="57"/>
-      <c r="G878" s="58">
-        <f>150*H877</f>
-        <v>4188150</v>
-      </c>
-      <c r="H878" s="59"/>
-    </row>
-    <row r="879" spans="1:8" s="26" customFormat="1">
-      <c r="A879" s="37"/>
-      <c r="B879" s="37"/>
-      <c r="C879" s="37"/>
-      <c r="D879" s="37"/>
-      <c r="E879" s="37"/>
-      <c r="F879" s="37"/>
-      <c r="G879" s="38"/>
-      <c r="H879" s="38"/>
-    </row>
-    <row r="880" spans="1:8" s="26" customFormat="1">
-      <c r="A880" s="37"/>
-      <c r="B880" s="37"/>
-      <c r="C880" s="37"/>
-      <c r="D880" s="37"/>
-      <c r="E880" s="37"/>
-      <c r="F880" s="37"/>
-      <c r="G880" s="38"/>
-      <c r="H880" s="38"/>
-    </row>
-    <row r="881" spans="1:8" s="26" customFormat="1">
-      <c r="A881" s="40"/>
-      <c r="B881" s="41"/>
-      <c r="C881" s="41"/>
-      <c r="D881" s="41"/>
-      <c r="E881" s="41"/>
-      <c r="F881" s="42"/>
-      <c r="G881"/>
-      <c r="H881"/>
-    </row>
-    <row r="882" spans="1:8" s="26" customFormat="1">
-      <c r="A882" s="43"/>
-      <c r="B882" s="44"/>
-      <c r="C882" s="44"/>
-      <c r="D882" s="44"/>
-      <c r="E882" s="44"/>
-      <c r="F882" s="45"/>
-    </row>
-    <row r="883" spans="1:8" s="26" customFormat="1">
-      <c r="A883" s="43"/>
-      <c r="B883" s="44"/>
-      <c r="C883" s="44"/>
-      <c r="D883" s="49" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E883" s="49"/>
-      <c r="F883" s="45"/>
-    </row>
-    <row r="884" spans="1:8" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="A884" s="43"/>
-      <c r="B884" s="44"/>
-      <c r="C884" s="44"/>
-      <c r="D884" s="50">
-        <f>G878-D887</f>
-        <v>3271350</v>
-      </c>
-      <c r="E884" s="51"/>
-      <c r="F884" s="45"/>
-    </row>
-    <row r="885" spans="1:8" s="26" customFormat="1">
-      <c r="A885" s="43"/>
-      <c r="B885" s="44"/>
-      <c r="C885" s="44"/>
-      <c r="D885" s="44"/>
-      <c r="E885" s="44"/>
-      <c r="F885" s="45"/>
-    </row>
-    <row r="886" spans="1:8" s="26" customFormat="1">
-      <c r="A886" s="43"/>
-      <c r="B886" s="44"/>
-      <c r="C886" s="44"/>
-      <c r="D886" s="49" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E886" s="49"/>
-      <c r="F886" s="45"/>
-    </row>
-    <row r="887" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A887" s="43"/>
-      <c r="B887" s="44"/>
-      <c r="C887" s="44"/>
-      <c r="D887" s="50">
-        <f>SUM(D890:D903)</f>
-        <v>916800</v>
-      </c>
-      <c r="E887" s="51"/>
-      <c r="F887" s="45"/>
-    </row>
-    <row r="888" spans="1:8" s="26" customFormat="1">
-      <c r="A888" s="43"/>
-      <c r="B888" s="44"/>
-      <c r="C888" s="44"/>
-      <c r="D888" s="39"/>
-      <c r="E888" s="39"/>
-      <c r="F888" s="45"/>
-    </row>
-    <row r="889" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1">
-      <c r="A889" s="43"/>
-      <c r="B889" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C889" s="36" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D889" s="36" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E889" s="36" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F889" s="45"/>
-    </row>
-    <row r="890" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A890" s="43"/>
-      <c r="B890" s="27"/>
-      <c r="C890" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="D890" s="27"/>
-      <c r="E890" s="35">
-        <f>G878</f>
-        <v>4188150</v>
-      </c>
-      <c r="F890" s="45"/>
-      <c r="G890"/>
-      <c r="H890"/>
-    </row>
-    <row r="891" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A891" s="43"/>
-      <c r="B891" s="32" t="s">
-        <v>918</v>
-      </c>
-      <c r="C891" s="29" t="s">
-        <v>917</v>
-      </c>
-      <c r="D891" s="34">
-        <v>466800</v>
-      </c>
-      <c r="E891" s="7">
-        <f>ABS(D891-E890)</f>
-        <v>3721350</v>
-      </c>
-      <c r="F891" s="45"/>
-      <c r="G891"/>
-    </row>
-    <row r="892" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A892" s="43"/>
-      <c r="B892" s="27" t="s">
-        <v>942</v>
-      </c>
-      <c r="C892" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D892" s="28">
-        <v>150000</v>
-      </c>
-      <c r="E892" s="7">
-        <f>ABS(D892-E891)</f>
-        <v>3571350</v>
-      </c>
-      <c r="F892" s="45"/>
-      <c r="G892"/>
-      <c r="H892"/>
-    </row>
-    <row r="893" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A893" s="43"/>
-      <c r="B893" s="7" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C893" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D893" s="7">
-        <v>150000</v>
-      </c>
-      <c r="E893" s="7">
-        <f>ABS(D893-E892)</f>
-        <v>3421350</v>
-      </c>
-      <c r="F893" s="45"/>
-      <c r="G893"/>
-      <c r="H893"/>
-    </row>
-    <row r="894" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A894" s="43"/>
-      <c r="B894" s="7" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C894" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D894" s="7">
-        <v>150000</v>
-      </c>
-      <c r="E894" s="7">
-        <f>ABS(D894-E893)</f>
-        <v>3271350</v>
-      </c>
-      <c r="F894" s="45"/>
-      <c r="G894"/>
-      <c r="H894"/>
-    </row>
-    <row r="895" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A895" s="43"/>
-      <c r="B895" s="7"/>
+    <row r="878" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A878" s="7">
+        <v>873</v>
+      </c>
+      <c r="B878" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C878" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D878" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E878" s="7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F878" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G878" s="7">
+        <v>32</v>
+      </c>
+      <c r="H878" s="11">
+        <f t="shared" si="13"/>
+        <v>27953</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A879" s="7">
+        <v>874</v>
+      </c>
+      <c r="B879" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C879" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D879" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E879" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F879" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G879" s="7">
+        <v>32</v>
+      </c>
+      <c r="H879" s="11">
+        <f t="shared" si="13"/>
+        <v>27985</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A880" s="7">
+        <v>875</v>
+      </c>
+      <c r="B880" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C880" s="7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D880" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E880" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F880" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G880" s="7">
+        <v>32</v>
+      </c>
+      <c r="H880" s="11">
+        <f t="shared" si="13"/>
+        <v>28017</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A881" s="7">
+        <v>876</v>
+      </c>
+      <c r="B881" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C881" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D881" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E881" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F881" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G881" s="7">
+        <v>32</v>
+      </c>
+      <c r="H881" s="11">
+        <f t="shared" si="13"/>
+        <v>28049</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A882" s="7">
+        <v>877</v>
+      </c>
+      <c r="B882" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C882" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D882" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E882" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F882" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G882" s="7">
+        <v>32</v>
+      </c>
+      <c r="H882" s="11">
+        <f t="shared" si="13"/>
+        <v>28081</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A883" s="7">
+        <v>878</v>
+      </c>
+      <c r="B883" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C883" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D883" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E883" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F883" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G883" s="7">
+        <v>32</v>
+      </c>
+      <c r="H883" s="11">
+        <f t="shared" si="13"/>
+        <v>28113</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A884" s="7">
+        <v>879</v>
+      </c>
+      <c r="B884" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C884" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D884" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E884" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F884" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G884" s="7">
+        <v>32</v>
+      </c>
+      <c r="H884" s="11">
+        <f t="shared" si="13"/>
+        <v>28145</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A885" s="7">
+        <v>880</v>
+      </c>
+      <c r="B885" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C885" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D885" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E885" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F885" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G885" s="7">
+        <v>32</v>
+      </c>
+      <c r="H885" s="11">
+        <f t="shared" si="13"/>
+        <v>28177</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A886" s="7">
+        <v>881</v>
+      </c>
+      <c r="B886" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C886" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D886" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E886" s="7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F886" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G886" s="7">
+        <v>32</v>
+      </c>
+      <c r="H886" s="11">
+        <f t="shared" si="13"/>
+        <v>28209</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A887" s="7"/>
+      <c r="B887" s="24"/>
+      <c r="C887" s="7"/>
+      <c r="D887" s="7"/>
+      <c r="E887" s="7"/>
+      <c r="F887" s="7"/>
+      <c r="G887" s="7"/>
+      <c r="H887" s="11"/>
+    </row>
+    <row r="888" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A888" s="7"/>
+      <c r="B888" s="24"/>
+      <c r="C888" s="7"/>
+      <c r="D888" s="7"/>
+      <c r="E888" s="7"/>
+      <c r="F888" s="7"/>
+      <c r="G888" s="7"/>
+      <c r="H888" s="11"/>
+    </row>
+    <row r="889" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A889" s="7"/>
+      <c r="B889" s="24"/>
+      <c r="C889" s="7"/>
+      <c r="D889" s="7"/>
+      <c r="E889" s="7"/>
+      <c r="F889" s="7"/>
+      <c r="G889" s="7"/>
+      <c r="H889" s="11"/>
+    </row>
+    <row r="890" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A890" s="7"/>
+      <c r="B890" s="24"/>
+      <c r="C890" s="7"/>
+      <c r="D890" s="7"/>
+      <c r="E890" s="7"/>
+      <c r="F890" s="7"/>
+      <c r="G890" s="7"/>
+      <c r="H890" s="11"/>
+    </row>
+    <row r="891" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A891" s="7"/>
+      <c r="B891" s="24"/>
+      <c r="C891" s="7"/>
+      <c r="D891" s="7"/>
+      <c r="E891" s="7"/>
+      <c r="F891" s="7"/>
+      <c r="G891" s="7"/>
+      <c r="H891" s="11"/>
+    </row>
+    <row r="892" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A892" s="7"/>
+      <c r="B892" s="24"/>
+      <c r="C892" s="7"/>
+      <c r="D892" s="7"/>
+      <c r="E892" s="7"/>
+      <c r="F892" s="7"/>
+      <c r="G892" s="7"/>
+      <c r="H892" s="11"/>
+    </row>
+    <row r="893" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A893" s="7"/>
+      <c r="B893" s="24"/>
+      <c r="C893" s="7"/>
+      <c r="D893" s="7"/>
+      <c r="E893" s="7"/>
+      <c r="F893" s="7"/>
+      <c r="G893" s="7"/>
+      <c r="H893" s="11"/>
+    </row>
+    <row r="894" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A894" s="7"/>
+      <c r="B894" s="24"/>
+      <c r="C894" s="7"/>
+      <c r="D894" s="7"/>
+      <c r="E894" s="7"/>
+      <c r="F894" s="7"/>
+      <c r="G894" s="7"/>
+      <c r="H894" s="11"/>
+    </row>
+    <row r="895" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A895" s="7"/>
+      <c r="B895" s="24"/>
       <c r="C895" s="7"/>
       <c r="D895" s="7"/>
       <c r="E895" s="7"/>
-      <c r="F895" s="45"/>
-    </row>
-    <row r="896" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A896" s="43"/>
-      <c r="B896" s="7"/>
+      <c r="F895" s="7"/>
+      <c r="G895" s="7"/>
+      <c r="H895" s="11"/>
+    </row>
+    <row r="896" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A896" s="7"/>
+      <c r="B896" s="24"/>
       <c r="C896" s="7"/>
       <c r="D896" s="7"/>
       <c r="E896" s="7"/>
-      <c r="F896" s="45"/>
-    </row>
-    <row r="897" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A897" s="43"/>
-      <c r="B897" s="7"/>
+      <c r="F896" s="7"/>
+      <c r="G896" s="7"/>
+      <c r="H896" s="11"/>
+    </row>
+    <row r="897" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A897" s="7"/>
+      <c r="B897" s="24"/>
       <c r="C897" s="7"/>
       <c r="D897" s="7"/>
       <c r="E897" s="7"/>
-      <c r="F897" s="45"/>
-    </row>
-    <row r="898" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A898" s="43"/>
-      <c r="B898" s="7"/>
+      <c r="F897" s="7"/>
+      <c r="G897" s="7"/>
+      <c r="H897" s="11"/>
+    </row>
+    <row r="898" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A898" s="7"/>
+      <c r="B898" s="24"/>
       <c r="C898" s="7"/>
       <c r="D898" s="7"/>
       <c r="E898" s="7"/>
-      <c r="F898" s="45"/>
-    </row>
-    <row r="899" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A899" s="43"/>
-      <c r="B899" s="7"/>
+      <c r="F898" s="7"/>
+      <c r="G898" s="7"/>
+      <c r="H898" s="11"/>
+    </row>
+    <row r="899" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A899" s="7"/>
+      <c r="B899" s="24"/>
       <c r="C899" s="7"/>
       <c r="D899" s="7"/>
       <c r="E899" s="7"/>
-      <c r="F899" s="45"/>
-      <c r="G899"/>
-      <c r="H899"/>
-    </row>
-    <row r="900" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A900" s="43"/>
-      <c r="B900" s="7"/>
+      <c r="F899" s="7"/>
+      <c r="G899" s="7"/>
+      <c r="H899" s="11"/>
+    </row>
+    <row r="900" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A900" s="7"/>
+      <c r="B900" s="24"/>
       <c r="C900" s="7"/>
       <c r="D900" s="7"/>
       <c r="E900" s="7"/>
-      <c r="F900" s="45"/>
-      <c r="G900"/>
-      <c r="H900"/>
-    </row>
-    <row r="901" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A901" s="43"/>
-      <c r="B901" s="7"/>
+      <c r="F900" s="7"/>
+      <c r="G900" s="7"/>
+      <c r="H900" s="11"/>
+    </row>
+    <row r="901" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A901" s="7"/>
+      <c r="B901" s="24"/>
       <c r="C901" s="7"/>
       <c r="D901" s="7"/>
       <c r="E901" s="7"/>
-      <c r="F901" s="45"/>
-      <c r="G901"/>
-      <c r="H901"/>
-    </row>
-    <row r="902" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A902" s="43"/>
-      <c r="B902" s="7"/>
+      <c r="F901" s="7"/>
+      <c r="G901" s="7"/>
+      <c r="H901" s="11"/>
+    </row>
+    <row r="902" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A902" s="7"/>
+      <c r="B902" s="24"/>
       <c r="C902" s="7"/>
       <c r="D902" s="7"/>
       <c r="E902" s="7"/>
-      <c r="F902" s="45"/>
-      <c r="G902"/>
-      <c r="H902"/>
-    </row>
-    <row r="903" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A903" s="43"/>
-      <c r="B903" s="7"/>
+      <c r="F902" s="7"/>
+      <c r="G902" s="7"/>
+      <c r="H902" s="11"/>
+    </row>
+    <row r="903" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A903" s="7"/>
+      <c r="B903" s="24"/>
       <c r="C903" s="7"/>
       <c r="D903" s="7"/>
       <c r="E903" s="7"/>
-      <c r="F903" s="45"/>
-      <c r="G903"/>
-      <c r="H903"/>
-    </row>
-    <row r="904" spans="1:8" s="26" customFormat="1">
-      <c r="A904" s="43"/>
-      <c r="B904" s="44"/>
-      <c r="C904" s="44"/>
-      <c r="D904" s="44"/>
-      <c r="E904" s="44"/>
-      <c r="F904" s="45"/>
-      <c r="G904"/>
-      <c r="H904"/>
-    </row>
-    <row r="905" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A905" s="46"/>
-      <c r="B905" s="47"/>
-      <c r="C905" s="47"/>
-      <c r="D905" s="47"/>
-      <c r="E905" s="47"/>
-      <c r="F905" s="48"/>
-    </row>
-    <row r="906" spans="1:8" s="26" customFormat="1"/>
-    <row r="907" spans="1:8" s="26" customFormat="1"/>
-    <row r="908" spans="1:8" s="26" customFormat="1"/>
-    <row r="909" spans="1:8" s="26" customFormat="1"/>
-    <row r="910" spans="1:8" s="26" customFormat="1">
-      <c r="G910"/>
-      <c r="H910"/>
-    </row>
-    <row r="911" spans="1:8" s="26" customFormat="1">
-      <c r="G911"/>
-      <c r="H911"/>
-    </row>
-    <row r="912" spans="1:8" s="26" customFormat="1">
-      <c r="G912"/>
-      <c r="H912"/>
-    </row>
-    <row r="913" spans="7:8" s="26" customFormat="1">
-      <c r="G913"/>
-      <c r="H913"/>
-    </row>
-    <row r="914" spans="7:8" s="26" customFormat="1">
-      <c r="G914"/>
-      <c r="H914"/>
-    </row>
-    <row r="915" spans="7:8" s="26" customFormat="1">
-      <c r="G915"/>
-      <c r="H915"/>
-    </row>
-    <row r="916" spans="7:8" s="26" customFormat="1">
-      <c r="G916"/>
-      <c r="H916"/>
-    </row>
-    <row r="917" spans="7:8" s="26" customFormat="1">
-      <c r="G917"/>
-      <c r="H917"/>
-    </row>
-    <row r="918" spans="7:8" s="26" customFormat="1">
-      <c r="G918"/>
-      <c r="H918"/>
-    </row>
-    <row r="919" spans="7:8" s="26" customFormat="1">
-      <c r="G919"/>
-      <c r="H919"/>
-    </row>
-    <row r="920" spans="7:8" s="26" customFormat="1">
-      <c r="G920"/>
-      <c r="H920"/>
-    </row>
-    <row r="921" spans="7:8" s="26" customFormat="1">
-      <c r="G921"/>
-      <c r="H921"/>
-    </row>
-    <row r="922" spans="7:8" s="26" customFormat="1">
-      <c r="G922"/>
-      <c r="H922"/>
-    </row>
-    <row r="923" spans="7:8" s="26" customFormat="1">
-      <c r="G923"/>
-      <c r="H923"/>
-    </row>
-    <row r="924" spans="7:8" s="26" customFormat="1">
-      <c r="G924"/>
-      <c r="H924"/>
-    </row>
-    <row r="925" spans="7:8" s="26" customFormat="1">
-      <c r="G925"/>
-      <c r="H925"/>
-    </row>
-    <row r="926" spans="7:8" s="26" customFormat="1">
-      <c r="G926"/>
-      <c r="H926"/>
-    </row>
-    <row r="927" spans="7:8" s="26" customFormat="1">
-      <c r="G927"/>
-      <c r="H927"/>
-    </row>
-    <row r="928" spans="7:8" s="26" customFormat="1">
-      <c r="G928"/>
-      <c r="H928"/>
-    </row>
-    <row r="929" spans="6:8" s="26" customFormat="1">
-      <c r="G929"/>
-      <c r="H929"/>
-    </row>
-    <row r="930" spans="6:8" s="26" customFormat="1">
-      <c r="G930"/>
-      <c r="H930"/>
-    </row>
-    <row r="931" spans="6:8" s="26" customFormat="1">
-      <c r="G931"/>
-      <c r="H931"/>
-    </row>
-    <row r="932" spans="6:8" s="26" customFormat="1">
-      <c r="G932"/>
-      <c r="H932"/>
-    </row>
-    <row r="933" spans="6:8">
-      <c r="F933" s="26"/>
-    </row>
-    <row r="934" spans="6:8">
-      <c r="F934" s="26"/>
-    </row>
-    <row r="935" spans="6:8">
-      <c r="F935" s="26"/>
-    </row>
-    <row r="936" spans="6:8">
-      <c r="F936" s="26"/>
-    </row>
-    <row r="937" spans="6:8">
-      <c r="F937" s="26"/>
-    </row>
-    <row r="938" spans="6:8">
-      <c r="F938" s="26"/>
-    </row>
-    <row r="939" spans="6:8">
-      <c r="F939" s="26"/>
+      <c r="F903" s="7"/>
+      <c r="G903" s="7"/>
+      <c r="H903" s="11"/>
+    </row>
+    <row r="904" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A904" s="7"/>
+      <c r="B904" s="24"/>
+      <c r="C904" s="7"/>
+      <c r="D904" s="7"/>
+      <c r="E904" s="7"/>
+      <c r="F904" s="7"/>
+      <c r="G904" s="7"/>
+      <c r="H904" s="11"/>
+    </row>
+    <row r="905" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A905" s="7"/>
+      <c r="B905" s="24"/>
+      <c r="C905" s="7"/>
+      <c r="D905" s="7"/>
+      <c r="E905" s="7"/>
+      <c r="F905" s="7"/>
+      <c r="G905" s="7"/>
+      <c r="H905" s="11"/>
+    </row>
+    <row r="906" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A906" s="7"/>
+      <c r="B906" s="24"/>
+      <c r="C906" s="7"/>
+      <c r="D906" s="7"/>
+      <c r="E906" s="7"/>
+      <c r="F906" s="7"/>
+      <c r="G906" s="7"/>
+      <c r="H906" s="11"/>
+    </row>
+    <row r="907" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A907" s="7"/>
+      <c r="B907" s="24"/>
+      <c r="C907" s="7"/>
+      <c r="D907" s="7"/>
+      <c r="E907" s="7"/>
+      <c r="F907" s="7"/>
+      <c r="G907" s="7"/>
+      <c r="H907" s="11"/>
+    </row>
+    <row r="908" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A908" s="7"/>
+      <c r="B908" s="24"/>
+      <c r="C908" s="7"/>
+      <c r="D908" s="7"/>
+      <c r="E908" s="7"/>
+      <c r="F908" s="7"/>
+      <c r="G908" s="7"/>
+      <c r="H908" s="11"/>
+    </row>
+    <row r="909" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A909" s="7"/>
+      <c r="B909" s="24"/>
+      <c r="C909" s="7"/>
+      <c r="D909" s="7"/>
+      <c r="E909" s="7"/>
+      <c r="F909" s="7"/>
+      <c r="G909" s="7"/>
+      <c r="H909" s="11"/>
+    </row>
+    <row r="910" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A910" s="7"/>
+      <c r="B910" s="24"/>
+      <c r="C910" s="7"/>
+      <c r="D910" s="7"/>
+      <c r="E910" s="7"/>
+      <c r="F910" s="7"/>
+      <c r="G910" s="7"/>
+      <c r="H910" s="11"/>
+    </row>
+    <row r="911" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A911" s="7"/>
+      <c r="B911" s="24"/>
+      <c r="C911" s="7"/>
+      <c r="D911" s="7"/>
+      <c r="E911" s="7"/>
+      <c r="F911" s="7"/>
+      <c r="G911" s="7"/>
+      <c r="H911" s="11"/>
+    </row>
+    <row r="912" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A912" s="7"/>
+      <c r="B912" s="24"/>
+      <c r="C912" s="7"/>
+      <c r="D912" s="7"/>
+      <c r="E912" s="7"/>
+      <c r="F912" s="7"/>
+      <c r="G912" s="7"/>
+      <c r="H912" s="11"/>
+    </row>
+    <row r="913" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A913" s="7"/>
+      <c r="B913" s="24"/>
+      <c r="C913" s="7"/>
+      <c r="D913" s="7"/>
+      <c r="E913" s="7"/>
+      <c r="F913" s="7"/>
+      <c r="G913" s="7"/>
+      <c r="H913" s="11"/>
+    </row>
+    <row r="914" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A914" s="7"/>
+      <c r="B914" s="24"/>
+      <c r="C914" s="7"/>
+      <c r="D914" s="7"/>
+      <c r="E914" s="7"/>
+      <c r="F914" s="7"/>
+      <c r="G914" s="7"/>
+      <c r="H914" s="11"/>
+    </row>
+    <row r="915" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A915" s="7"/>
+      <c r="B915" s="24"/>
+      <c r="C915" s="7"/>
+      <c r="D915" s="7"/>
+      <c r="E915" s="7"/>
+      <c r="F915" s="7"/>
+      <c r="G915" s="7"/>
+      <c r="H915" s="11"/>
+    </row>
+    <row r="916" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A916" s="7"/>
+      <c r="B916" s="24"/>
+      <c r="C916" s="7"/>
+      <c r="D916" s="7"/>
+      <c r="E916" s="7"/>
+      <c r="F916" s="7"/>
+      <c r="G916" s="7"/>
+      <c r="H916" s="11"/>
+    </row>
+    <row r="917" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A917" s="7"/>
+      <c r="B917" s="24"/>
+      <c r="C917" s="7"/>
+      <c r="D917" s="7"/>
+      <c r="E917" s="7"/>
+      <c r="F917" s="7"/>
+      <c r="G917" s="7"/>
+      <c r="H917" s="11"/>
+    </row>
+    <row r="918" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A918" s="7"/>
+      <c r="B918" s="24"/>
+      <c r="C918" s="7"/>
+      <c r="D918" s="7"/>
+      <c r="E918" s="7"/>
+      <c r="F918" s="7"/>
+      <c r="G918" s="7"/>
+      <c r="H918" s="11"/>
+    </row>
+    <row r="919" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A919" s="7"/>
+      <c r="B919" s="24"/>
+      <c r="C919" s="7"/>
+      <c r="D919" s="7"/>
+      <c r="E919" s="7"/>
+      <c r="F919" s="7"/>
+      <c r="G919" s="7"/>
+      <c r="H919" s="11"/>
+    </row>
+    <row r="920" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A920" s="7"/>
+      <c r="B920" s="24"/>
+      <c r="C920" s="7"/>
+      <c r="D920" s="7"/>
+      <c r="E920" s="7"/>
+      <c r="F920" s="7"/>
+      <c r="G920" s="7"/>
+      <c r="H920" s="11"/>
+    </row>
+    <row r="921" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A921" s="7"/>
+      <c r="B921" s="24"/>
+      <c r="C921" s="7"/>
+      <c r="D921" s="7"/>
+      <c r="E921" s="7"/>
+      <c r="F921" s="7"/>
+      <c r="G921" s="7"/>
+      <c r="H921" s="11"/>
+    </row>
+    <row r="922" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A922" s="7"/>
+      <c r="B922" s="24"/>
+      <c r="C922" s="7"/>
+      <c r="D922" s="7"/>
+      <c r="E922" s="7"/>
+      <c r="F922" s="7"/>
+      <c r="G922" s="7"/>
+      <c r="H922" s="11"/>
+    </row>
+    <row r="923" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A923" s="7"/>
+      <c r="B923" s="24"/>
+      <c r="C923" s="7"/>
+      <c r="D923" s="7"/>
+      <c r="E923" s="7"/>
+      <c r="F923" s="7"/>
+      <c r="G923" s="7"/>
+      <c r="H923" s="11"/>
+    </row>
+    <row r="924" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A924" s="7"/>
+      <c r="B924" s="24"/>
+      <c r="C924" s="7"/>
+      <c r="D924" s="7"/>
+      <c r="E924" s="7"/>
+      <c r="F924" s="7"/>
+      <c r="G924" s="7"/>
+      <c r="H924" s="11"/>
+    </row>
+    <row r="925" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A925" s="7"/>
+      <c r="B925" s="24"/>
+      <c r="C925" s="7"/>
+      <c r="D925" s="7"/>
+      <c r="E925" s="7"/>
+      <c r="F925" s="7"/>
+      <c r="G925" s="7"/>
+      <c r="H925" s="11"/>
+    </row>
+    <row r="926" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A926" s="7"/>
+      <c r="B926" s="24"/>
+      <c r="C926" s="7"/>
+      <c r="D926" s="7"/>
+      <c r="E926" s="7"/>
+      <c r="F926" s="7"/>
+      <c r="G926" s="7"/>
+      <c r="H926" s="11"/>
+    </row>
+    <row r="927" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A927" s="7"/>
+      <c r="B927" s="24"/>
+      <c r="C927" s="7"/>
+      <c r="D927" s="7"/>
+      <c r="E927" s="7"/>
+      <c r="F927" s="7"/>
+      <c r="G927" s="7"/>
+      <c r="H927" s="11"/>
+    </row>
+    <row r="928" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A928" s="7"/>
+      <c r="B928" s="24"/>
+      <c r="C928" s="7"/>
+      <c r="D928" s="7"/>
+      <c r="E928" s="7"/>
+      <c r="F928" s="7"/>
+      <c r="G928" s="7"/>
+      <c r="H928" s="11"/>
+    </row>
+    <row r="929" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A929" s="7"/>
+      <c r="B929" s="24"/>
+      <c r="C929" s="7"/>
+      <c r="D929" s="7"/>
+      <c r="E929" s="7"/>
+      <c r="F929" s="7"/>
+      <c r="G929" s="7"/>
+      <c r="H929" s="11"/>
+    </row>
+    <row r="930" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A930" s="7"/>
+      <c r="B930" s="24"/>
+      <c r="C930" s="7"/>
+      <c r="D930" s="7"/>
+      <c r="E930" s="7"/>
+      <c r="F930" s="7"/>
+      <c r="G930" s="7"/>
+      <c r="H930" s="11"/>
+    </row>
+    <row r="931" spans="1:8" s="26" customFormat="1">
+      <c r="A931" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="B931" s="56"/>
+      <c r="C931" s="56"/>
+      <c r="D931" s="56"/>
+      <c r="E931" s="56"/>
+      <c r="F931" s="57"/>
+      <c r="G931" s="58">
+        <f>150*H877</f>
+        <v>4188150</v>
+      </c>
+      <c r="H931" s="59"/>
+    </row>
+    <row r="932" spans="1:8" s="26" customFormat="1">
+      <c r="A932" s="37"/>
+      <c r="B932" s="37"/>
+      <c r="C932" s="37"/>
+      <c r="D932" s="37"/>
+      <c r="E932" s="37"/>
+      <c r="F932" s="37"/>
+      <c r="G932" s="38"/>
+      <c r="H932" s="38"/>
+    </row>
+    <row r="933" spans="1:8" s="26" customFormat="1">
+      <c r="A933" s="37"/>
+      <c r="B933" s="37"/>
+      <c r="C933" s="37"/>
+      <c r="D933" s="37"/>
+      <c r="E933" s="37"/>
+      <c r="F933" s="37"/>
+      <c r="G933" s="38"/>
+      <c r="H933" s="38"/>
+    </row>
+    <row r="934" spans="1:8" s="26" customFormat="1">
+      <c r="A934" s="40"/>
+      <c r="B934" s="41"/>
+      <c r="C934" s="41"/>
+      <c r="D934" s="41"/>
+      <c r="E934" s="41"/>
+      <c r="F934" s="42"/>
+      <c r="G934"/>
+      <c r="H934"/>
+    </row>
+    <row r="935" spans="1:8" s="26" customFormat="1">
+      <c r="A935" s="43"/>
+      <c r="B935" s="44"/>
+      <c r="C935" s="44"/>
+      <c r="D935" s="44"/>
+      <c r="E935" s="44"/>
+      <c r="F935" s="45"/>
+    </row>
+    <row r="936" spans="1:8" s="26" customFormat="1">
+      <c r="A936" s="43"/>
+      <c r="B936" s="44"/>
+      <c r="C936" s="44"/>
+      <c r="D936" s="49" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E936" s="49"/>
+      <c r="F936" s="45"/>
+    </row>
+    <row r="937" spans="1:8" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A937" s="43"/>
+      <c r="B937" s="44"/>
+      <c r="C937" s="44"/>
+      <c r="D937" s="50">
+        <f>G931-D940</f>
+        <v>3271350</v>
+      </c>
+      <c r="E937" s="51"/>
+      <c r="F937" s="45"/>
+    </row>
+    <row r="938" spans="1:8" s="26" customFormat="1">
+      <c r="A938" s="43"/>
+      <c r="B938" s="44"/>
+      <c r="C938" s="44"/>
+      <c r="D938" s="44"/>
+      <c r="E938" s="44"/>
+      <c r="F938" s="45"/>
+    </row>
+    <row r="939" spans="1:8" s="26" customFormat="1">
+      <c r="A939" s="43"/>
+      <c r="B939" s="44"/>
+      <c r="C939" s="44"/>
+      <c r="D939" s="49" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E939" s="49"/>
+      <c r="F939" s="45"/>
+    </row>
+    <row r="940" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A940" s="43"/>
+      <c r="B940" s="44"/>
+      <c r="C940" s="44"/>
+      <c r="D940" s="50">
+        <f>SUM(D943:D956)</f>
+        <v>916800</v>
+      </c>
+      <c r="E940" s="51"/>
+      <c r="F940" s="45"/>
+    </row>
+    <row r="941" spans="1:8" s="26" customFormat="1">
+      <c r="A941" s="43"/>
+      <c r="B941" s="44"/>
+      <c r="C941" s="44"/>
+      <c r="D941" s="39"/>
+      <c r="E941" s="39"/>
+      <c r="F941" s="45"/>
+    </row>
+    <row r="942" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1">
+      <c r="A942" s="43"/>
+      <c r="B942" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C942" s="36" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D942" s="36" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E942" s="36" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F942" s="45"/>
+    </row>
+    <row r="943" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A943" s="43"/>
+      <c r="B943" s="27"/>
+      <c r="C943" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="D943" s="27"/>
+      <c r="E943" s="35">
+        <f>G931</f>
+        <v>4188150</v>
+      </c>
+      <c r="F943" s="45"/>
+      <c r="G943"/>
+      <c r="H943"/>
+    </row>
+    <row r="944" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A944" s="43"/>
+      <c r="B944" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="C944" s="29" t="s">
+        <v>917</v>
+      </c>
+      <c r="D944" s="34">
+        <v>466800</v>
+      </c>
+      <c r="E944" s="7">
+        <f>ABS(D944-E943)</f>
+        <v>3721350</v>
+      </c>
+      <c r="F944" s="45"/>
+      <c r="G944"/>
+    </row>
+    <row r="945" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A945" s="43"/>
+      <c r="B945" s="27" t="s">
+        <v>942</v>
+      </c>
+      <c r="C945" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D945" s="28">
+        <v>150000</v>
+      </c>
+      <c r="E945" s="7">
+        <f>ABS(D945-E944)</f>
+        <v>3571350</v>
+      </c>
+      <c r="F945" s="45"/>
+      <c r="G945"/>
+      <c r="H945"/>
+    </row>
+    <row r="946" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A946" s="43"/>
+      <c r="B946" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C946" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D946" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E946" s="7">
+        <f>ABS(D946-E945)</f>
+        <v>3421350</v>
+      </c>
+      <c r="F946" s="45"/>
+      <c r="G946"/>
+      <c r="H946"/>
+    </row>
+    <row r="947" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A947" s="43"/>
+      <c r="B947" s="7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C947" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D947" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E947" s="7">
+        <f>ABS(D947-E946)</f>
+        <v>3271350</v>
+      </c>
+      <c r="F947" s="45"/>
+      <c r="G947"/>
+      <c r="H947"/>
+    </row>
+    <row r="948" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A948" s="43"/>
+      <c r="B948" s="7"/>
+      <c r="C948" s="7"/>
+      <c r="D948" s="7"/>
+      <c r="E948" s="7"/>
+      <c r="F948" s="45"/>
+    </row>
+    <row r="949" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A949" s="43"/>
+      <c r="B949" s="7"/>
+      <c r="C949" s="7"/>
+      <c r="D949" s="7"/>
+      <c r="E949" s="7"/>
+      <c r="F949" s="45"/>
+    </row>
+    <row r="950" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A950" s="43"/>
+      <c r="B950" s="7"/>
+      <c r="C950" s="7"/>
+      <c r="D950" s="7"/>
+      <c r="E950" s="7"/>
+      <c r="F950" s="45"/>
+    </row>
+    <row r="951" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A951" s="43"/>
+      <c r="B951" s="7"/>
+      <c r="C951" s="7"/>
+      <c r="D951" s="7"/>
+      <c r="E951" s="7"/>
+      <c r="F951" s="45"/>
+    </row>
+    <row r="952" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A952" s="43"/>
+      <c r="B952" s="7"/>
+      <c r="C952" s="7"/>
+      <c r="D952" s="7"/>
+      <c r="E952" s="7"/>
+      <c r="F952" s="45"/>
+      <c r="G952"/>
+      <c r="H952"/>
+    </row>
+    <row r="953" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A953" s="43"/>
+      <c r="B953" s="7"/>
+      <c r="C953" s="7"/>
+      <c r="D953" s="7"/>
+      <c r="E953" s="7"/>
+      <c r="F953" s="45"/>
+      <c r="G953"/>
+      <c r="H953"/>
+    </row>
+    <row r="954" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A954" s="43"/>
+      <c r="B954" s="7"/>
+      <c r="C954" s="7"/>
+      <c r="D954" s="7"/>
+      <c r="E954" s="7"/>
+      <c r="F954" s="45"/>
+      <c r="G954"/>
+      <c r="H954"/>
+    </row>
+    <row r="955" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A955" s="43"/>
+      <c r="B955" s="7"/>
+      <c r="C955" s="7"/>
+      <c r="D955" s="7"/>
+      <c r="E955" s="7"/>
+      <c r="F955" s="45"/>
+      <c r="G955"/>
+      <c r="H955"/>
+    </row>
+    <row r="956" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A956" s="43"/>
+      <c r="B956" s="7"/>
+      <c r="C956" s="7"/>
+      <c r="D956" s="7"/>
+      <c r="E956" s="7"/>
+      <c r="F956" s="45"/>
+      <c r="G956"/>
+      <c r="H956"/>
+    </row>
+    <row r="957" spans="1:8" s="26" customFormat="1">
+      <c r="A957" s="43"/>
+      <c r="B957" s="44"/>
+      <c r="C957" s="44"/>
+      <c r="D957" s="44"/>
+      <c r="E957" s="44"/>
+      <c r="F957" s="45"/>
+      <c r="G957"/>
+      <c r="H957"/>
+    </row>
+    <row r="958" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A958" s="46"/>
+      <c r="B958" s="47"/>
+      <c r="C958" s="47"/>
+      <c r="D958" s="47"/>
+      <c r="E958" s="47"/>
+      <c r="F958" s="48"/>
+    </row>
+    <row r="959" spans="1:8" s="26" customFormat="1"/>
+    <row r="960" spans="1:8" s="26" customFormat="1"/>
+    <row r="961" spans="7:8" s="26" customFormat="1"/>
+    <row r="962" spans="7:8" s="26" customFormat="1"/>
+    <row r="963" spans="7:8" s="26" customFormat="1">
+      <c r="G963"/>
+      <c r="H963"/>
+    </row>
+    <row r="964" spans="7:8" s="26" customFormat="1">
+      <c r="G964"/>
+      <c r="H964"/>
+    </row>
+    <row r="965" spans="7:8" s="26" customFormat="1">
+      <c r="G965"/>
+      <c r="H965"/>
+    </row>
+    <row r="966" spans="7:8" s="26" customFormat="1">
+      <c r="G966"/>
+      <c r="H966"/>
+    </row>
+    <row r="967" spans="7:8" s="26" customFormat="1">
+      <c r="G967"/>
+      <c r="H967"/>
+    </row>
+    <row r="968" spans="7:8" s="26" customFormat="1">
+      <c r="G968"/>
+      <c r="H968"/>
+    </row>
+    <row r="969" spans="7:8" s="26" customFormat="1">
+      <c r="G969"/>
+      <c r="H969"/>
+    </row>
+    <row r="970" spans="7:8" s="26" customFormat="1">
+      <c r="G970"/>
+      <c r="H970"/>
+    </row>
+    <row r="971" spans="7:8" s="26" customFormat="1">
+      <c r="G971"/>
+      <c r="H971"/>
+    </row>
+    <row r="972" spans="7:8" s="26" customFormat="1">
+      <c r="G972"/>
+      <c r="H972"/>
+    </row>
+    <row r="973" spans="7:8" s="26" customFormat="1">
+      <c r="G973"/>
+      <c r="H973"/>
+    </row>
+    <row r="974" spans="7:8" s="26" customFormat="1">
+      <c r="G974"/>
+      <c r="H974"/>
+    </row>
+    <row r="975" spans="7:8" s="26" customFormat="1">
+      <c r="G975"/>
+      <c r="H975"/>
+    </row>
+    <row r="976" spans="7:8" s="26" customFormat="1">
+      <c r="G976"/>
+      <c r="H976"/>
+    </row>
+    <row r="977" spans="6:8" s="26" customFormat="1">
+      <c r="G977"/>
+      <c r="H977"/>
+    </row>
+    <row r="978" spans="6:8" s="26" customFormat="1">
+      <c r="G978"/>
+      <c r="H978"/>
+    </row>
+    <row r="979" spans="6:8" s="26" customFormat="1">
+      <c r="G979"/>
+      <c r="H979"/>
+    </row>
+    <row r="980" spans="6:8" s="26" customFormat="1">
+      <c r="G980"/>
+      <c r="H980"/>
+    </row>
+    <row r="981" spans="6:8" s="26" customFormat="1">
+      <c r="G981"/>
+      <c r="H981"/>
+    </row>
+    <row r="982" spans="6:8" s="26" customFormat="1">
+      <c r="G982"/>
+      <c r="H982"/>
+    </row>
+    <row r="983" spans="6:8" s="26" customFormat="1">
+      <c r="G983"/>
+      <c r="H983"/>
+    </row>
+    <row r="984" spans="6:8" s="26" customFormat="1">
+      <c r="G984"/>
+      <c r="H984"/>
+    </row>
+    <row r="985" spans="6:8" s="26" customFormat="1">
+      <c r="G985"/>
+      <c r="H985"/>
+    </row>
+    <row r="986" spans="6:8">
+      <c r="F986" s="26"/>
+    </row>
+    <row r="987" spans="6:8">
+      <c r="F987" s="26"/>
+    </row>
+    <row r="988" spans="6:8">
+      <c r="F988" s="26"/>
+    </row>
+    <row r="989" spans="6:8">
+      <c r="F989" s="26"/>
+    </row>
+    <row r="990" spans="6:8">
+      <c r="F990" s="26"/>
+    </row>
+    <row r="991" spans="6:8">
+      <c r="F991" s="26"/>
+    </row>
+    <row r="992" spans="6:8">
+      <c r="F992" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="7">
-    <mergeCell ref="D886:E886"/>
-    <mergeCell ref="D887:E887"/>
+    <mergeCell ref="D939:E939"/>
+    <mergeCell ref="D940:E940"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A878:F878"/>
-    <mergeCell ref="G878:H878"/>
-    <mergeCell ref="D883:E883"/>
-    <mergeCell ref="D884:E884"/>
+    <mergeCell ref="A931:F931"/>
+    <mergeCell ref="G931:H931"/>
+    <mergeCell ref="D936:E936"/>
+    <mergeCell ref="D937:E937"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
+++ b/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4153" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4177" uniqueCount="1810">
   <si>
     <t>JOSEPH BLUE METAL</t>
   </si>
@@ -5410,6 +5410,42 @@
   </si>
   <si>
     <t>KKM000000157338/2025</t>
+  </si>
+  <si>
+    <t>KKM000000157480/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577112</t>
+  </si>
+  <si>
+    <t>KKM000000157484/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577113</t>
+  </si>
+  <si>
+    <t>KKM000000157496/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577115</t>
+  </si>
+  <si>
+    <t>KKM000000157504/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577116</t>
+  </si>
+  <si>
+    <t>KKM000000157526/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577119</t>
+  </si>
+  <si>
+    <t>KKM000000157527/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577120</t>
   </si>
 </sst>
 </file>
@@ -6091,14 +6127,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I992"/>
+  <dimension ref="A1:J992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A884" workbookViewId="0">
-      <selection activeCell="C887" sqref="C887"/>
+    <sheetView tabSelected="1" topLeftCell="A921" workbookViewId="0">
+      <selection activeCell="J939" sqref="J939"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -28794,7 +28831,7 @@
         <v>32</v>
       </c>
       <c r="H839" s="11">
-        <f t="shared" ref="H839:H886" si="13">G839+H838</f>
+        <f t="shared" ref="H839:H892" si="13">G839+H838</f>
         <v>26705</v>
       </c>
     </row>
@@ -30068,64 +30105,166 @@
       </c>
     </row>
     <row r="887" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A887" s="7"/>
-      <c r="B887" s="24"/>
-      <c r="C887" s="7"/>
-      <c r="D887" s="7"/>
-      <c r="E887" s="7"/>
-      <c r="F887" s="7"/>
-      <c r="G887" s="7"/>
-      <c r="H887" s="11"/>
+      <c r="A887" s="7">
+        <v>882</v>
+      </c>
+      <c r="B887" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C887" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D887" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E887" s="7" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F887" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G887" s="7">
+        <v>32</v>
+      </c>
+      <c r="H887" s="11">
+        <f t="shared" si="13"/>
+        <v>28241</v>
+      </c>
     </row>
     <row r="888" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A888" s="7"/>
-      <c r="B888" s="24"/>
-      <c r="C888" s="7"/>
-      <c r="D888" s="7"/>
-      <c r="E888" s="7"/>
-      <c r="F888" s="7"/>
-      <c r="G888" s="7"/>
-      <c r="H888" s="11"/>
+      <c r="A888" s="7">
+        <v>883</v>
+      </c>
+      <c r="B888" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C888" s="7" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D888" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E888" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F888" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G888" s="7">
+        <v>32</v>
+      </c>
+      <c r="H888" s="11">
+        <f t="shared" si="13"/>
+        <v>28273</v>
+      </c>
     </row>
     <row r="889" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A889" s="7"/>
-      <c r="B889" s="24"/>
-      <c r="C889" s="7"/>
-      <c r="D889" s="7"/>
-      <c r="E889" s="7"/>
-      <c r="F889" s="7"/>
-      <c r="G889" s="7"/>
-      <c r="H889" s="11"/>
+      <c r="A889" s="7">
+        <v>884</v>
+      </c>
+      <c r="B889" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C889" s="7" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D889" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E889" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F889" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G889" s="7">
+        <v>32</v>
+      </c>
+      <c r="H889" s="11">
+        <f t="shared" si="13"/>
+        <v>28305</v>
+      </c>
     </row>
     <row r="890" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A890" s="7"/>
-      <c r="B890" s="24"/>
-      <c r="C890" s="7"/>
-      <c r="D890" s="7"/>
-      <c r="E890" s="7"/>
-      <c r="F890" s="7"/>
-      <c r="G890" s="7"/>
-      <c r="H890" s="11"/>
+      <c r="A890" s="7">
+        <v>885</v>
+      </c>
+      <c r="B890" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C890" s="7" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D890" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E890" s="7" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F890" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G890" s="7">
+        <v>32</v>
+      </c>
+      <c r="H890" s="11">
+        <f t="shared" si="13"/>
+        <v>28337</v>
+      </c>
     </row>
     <row r="891" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A891" s="7"/>
-      <c r="B891" s="24"/>
-      <c r="C891" s="7"/>
-      <c r="D891" s="7"/>
-      <c r="E891" s="7"/>
-      <c r="F891" s="7"/>
-      <c r="G891" s="7"/>
-      <c r="H891" s="11"/>
+      <c r="A891" s="7">
+        <v>886</v>
+      </c>
+      <c r="B891" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C891" s="7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D891" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E891" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F891" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G891" s="7">
+        <v>32</v>
+      </c>
+      <c r="H891" s="11">
+        <f t="shared" si="13"/>
+        <v>28369</v>
+      </c>
     </row>
     <row r="892" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A892" s="7"/>
-      <c r="B892" s="24"/>
-      <c r="C892" s="7"/>
-      <c r="D892" s="7"/>
-      <c r="E892" s="7"/>
-      <c r="F892" s="7"/>
-      <c r="G892" s="7"/>
-      <c r="H892" s="11"/>
+      <c r="A892" s="7">
+        <v>887</v>
+      </c>
+      <c r="B892" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C892" s="7" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D892" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E892" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F892" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G892" s="7">
+        <v>32</v>
+      </c>
+      <c r="H892" s="11">
+        <f t="shared" si="13"/>
+        <v>28401</v>
+      </c>
     </row>
     <row r="893" spans="1:8" s="26" customFormat="1" ht="15.75">
       <c r="A893" s="7"/>
@@ -30550,7 +30689,7 @@
       <c r="E934" s="41"/>
       <c r="F934" s="42"/>
       <c r="G934"/>
-      <c r="H934"/>
+      <c r="H934" s="38"/>
     </row>
     <row r="935" spans="1:8" s="26" customFormat="1">
       <c r="A935" s="43"/>
@@ -30559,6 +30698,7 @@
       <c r="D935" s="44"/>
       <c r="E935" s="44"/>
       <c r="F935" s="45"/>
+      <c r="H935" s="38"/>
     </row>
     <row r="936" spans="1:8" s="26" customFormat="1">
       <c r="A936" s="43"/>
@@ -30647,7 +30787,6 @@
       </c>
       <c r="F943" s="45"/>
       <c r="G943"/>
-      <c r="H943"/>
     </row>
     <row r="944" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A944" s="43"/>
@@ -30703,7 +30842,6 @@
       </c>
       <c r="F946" s="45"/>
       <c r="G946"/>
-      <c r="H946"/>
     </row>
     <row r="947" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A947" s="43"/>
@@ -30731,6 +30869,7 @@
       <c r="D948" s="7"/>
       <c r="E948" s="7"/>
       <c r="F948" s="45"/>
+      <c r="H948"/>
     </row>
     <row r="949" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A949" s="43"/>
@@ -30739,6 +30878,7 @@
       <c r="D949" s="7"/>
       <c r="E949" s="7"/>
       <c r="F949" s="45"/>
+      <c r="H949"/>
     </row>
     <row r="950" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A950" s="43"/>
@@ -30764,7 +30904,6 @@
       <c r="E952" s="7"/>
       <c r="F952" s="45"/>
       <c r="G952"/>
-      <c r="H952"/>
     </row>
     <row r="953" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A953" s="43"/>
@@ -30774,7 +30913,6 @@
       <c r="E953" s="7"/>
       <c r="F953" s="45"/>
       <c r="G953"/>
-      <c r="H953"/>
     </row>
     <row r="954" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A954" s="43"/>
@@ -30823,18 +30961,19 @@
       <c r="D958" s="47"/>
       <c r="E958" s="47"/>
       <c r="F958" s="48"/>
-    </row>
-    <row r="959" spans="1:8" s="26" customFormat="1"/>
+      <c r="H958"/>
+    </row>
+    <row r="959" spans="1:8" s="26" customFormat="1">
+      <c r="H959"/>
+    </row>
     <row r="960" spans="1:8" s="26" customFormat="1"/>
     <row r="961" spans="7:8" s="26" customFormat="1"/>
     <row r="962" spans="7:8" s="26" customFormat="1"/>
     <row r="963" spans="7:8" s="26" customFormat="1">
       <c r="G963"/>
-      <c r="H963"/>
     </row>
     <row r="964" spans="7:8" s="26" customFormat="1">
       <c r="G964"/>
-      <c r="H964"/>
     </row>
     <row r="965" spans="7:8" s="26" customFormat="1">
       <c r="G965"/>
@@ -30884,61 +31023,64 @@
       <c r="G976"/>
       <c r="H976"/>
     </row>
-    <row r="977" spans="6:8" s="26" customFormat="1">
+    <row r="977" spans="6:10" s="26" customFormat="1">
       <c r="G977"/>
       <c r="H977"/>
     </row>
-    <row r="978" spans="6:8" s="26" customFormat="1">
+    <row r="978" spans="6:10" s="26" customFormat="1">
       <c r="G978"/>
       <c r="H978"/>
     </row>
-    <row r="979" spans="6:8" s="26" customFormat="1">
+    <row r="979" spans="6:10" s="26" customFormat="1">
       <c r="G979"/>
       <c r="H979"/>
     </row>
-    <row r="980" spans="6:8" s="26" customFormat="1">
+    <row r="980" spans="6:10" s="26" customFormat="1">
       <c r="G980"/>
       <c r="H980"/>
     </row>
-    <row r="981" spans="6:8" s="26" customFormat="1">
+    <row r="981" spans="6:10" s="26" customFormat="1">
       <c r="G981"/>
       <c r="H981"/>
     </row>
-    <row r="982" spans="6:8" s="26" customFormat="1">
+    <row r="982" spans="6:10" s="26" customFormat="1">
       <c r="G982"/>
       <c r="H982"/>
     </row>
-    <row r="983" spans="6:8" s="26" customFormat="1">
+    <row r="983" spans="6:10" s="26" customFormat="1">
       <c r="G983"/>
       <c r="H983"/>
     </row>
-    <row r="984" spans="6:8" s="26" customFormat="1">
+    <row r="984" spans="6:10" s="26" customFormat="1">
       <c r="G984"/>
       <c r="H984"/>
     </row>
-    <row r="985" spans="6:8" s="26" customFormat="1">
+    <row r="985" spans="6:10" s="26" customFormat="1">
       <c r="G985"/>
       <c r="H985"/>
     </row>
-    <row r="986" spans="6:8">
+    <row r="986" spans="6:10">
       <c r="F986" s="26"/>
-    </row>
-    <row r="987" spans="6:8">
+      <c r="J986" s="26"/>
+    </row>
+    <row r="987" spans="6:10">
       <c r="F987" s="26"/>
-    </row>
-    <row r="988" spans="6:8">
+      <c r="J987" s="26"/>
+    </row>
+    <row r="988" spans="6:10">
       <c r="F988" s="26"/>
-    </row>
-    <row r="989" spans="6:8">
+      <c r="J988" s="26"/>
+    </row>
+    <row r="989" spans="6:10">
       <c r="F989" s="26"/>
     </row>
-    <row r="990" spans="6:8">
+    <row r="990" spans="6:10">
       <c r="F990" s="26"/>
     </row>
-    <row r="991" spans="6:8">
+    <row r="991" spans="6:10">
       <c r="F991" s="26"/>
     </row>
-    <row r="992" spans="6:8">
+    <row r="992" spans="6:10">
       <c r="F992" s="26"/>
     </row>
   </sheetData>

--- a/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
+++ b/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4177" uniqueCount="1810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4197" uniqueCount="1820">
   <si>
     <t>JOSEPH BLUE METAL</t>
   </si>
@@ -5446,6 +5446,36 @@
   </si>
   <si>
     <t>TSPS02577120</t>
+  </si>
+  <si>
+    <t>TSPS02577143</t>
+  </si>
+  <si>
+    <t>KKM000000158215/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577142</t>
+  </si>
+  <si>
+    <t>KKM000000158214/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577141</t>
+  </si>
+  <si>
+    <t>KKM000000158212/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577140</t>
+  </si>
+  <si>
+    <t>KKM000000158211/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577139</t>
+  </si>
+  <si>
+    <t>KKM000000158210/2025</t>
   </si>
 </sst>
 </file>
@@ -6127,10 +6157,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J992"/>
+  <dimension ref="A1:J962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A921" workbookViewId="0">
-      <selection activeCell="J939" sqref="J939"/>
+    <sheetView tabSelected="1" topLeftCell="A887" workbookViewId="0">
+      <selection activeCell="G902" sqref="G902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30262,59 +30292,144 @@
         <v>32</v>
       </c>
       <c r="H892" s="11">
-        <f t="shared" si="13"/>
+        <f>G892+H891</f>
         <v>28401</v>
       </c>
     </row>
     <row r="893" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A893" s="7"/>
-      <c r="B893" s="24"/>
-      <c r="C893" s="7"/>
-      <c r="D893" s="7"/>
-      <c r="E893" s="7"/>
-      <c r="F893" s="7"/>
-      <c r="G893" s="7"/>
-      <c r="H893" s="11"/>
+      <c r="A893" s="7">
+        <v>888</v>
+      </c>
+      <c r="B893" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C893" s="7" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D893" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E893" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F893" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G893" s="7">
+        <v>32</v>
+      </c>
+      <c r="H893" s="11">
+        <f t="shared" ref="H893:H897" si="14">G893+H892</f>
+        <v>28433</v>
+      </c>
     </row>
     <row r="894" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A894" s="7"/>
-      <c r="B894" s="24"/>
-      <c r="C894" s="7"/>
-      <c r="D894" s="7"/>
-      <c r="E894" s="7"/>
-      <c r="F894" s="7"/>
-      <c r="G894" s="7"/>
-      <c r="H894" s="11"/>
+      <c r="A894" s="7">
+        <v>889</v>
+      </c>
+      <c r="B894" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C894" s="7" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D894" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E894" s="7" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F894" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G894" s="7">
+        <v>32</v>
+      </c>
+      <c r="H894" s="11">
+        <f t="shared" si="14"/>
+        <v>28465</v>
+      </c>
     </row>
     <row r="895" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A895" s="7"/>
-      <c r="B895" s="24"/>
-      <c r="C895" s="7"/>
-      <c r="D895" s="7"/>
-      <c r="E895" s="7"/>
-      <c r="F895" s="7"/>
-      <c r="G895" s="7"/>
-      <c r="H895" s="11"/>
+      <c r="A895" s="7">
+        <v>890</v>
+      </c>
+      <c r="B895" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C895" s="7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D895" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E895" s="7" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F895" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G895" s="7">
+        <v>32</v>
+      </c>
+      <c r="H895" s="11">
+        <f t="shared" si="14"/>
+        <v>28497</v>
+      </c>
     </row>
     <row r="896" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A896" s="7"/>
-      <c r="B896" s="24"/>
-      <c r="C896" s="7"/>
-      <c r="D896" s="7"/>
-      <c r="E896" s="7"/>
-      <c r="F896" s="7"/>
-      <c r="G896" s="7"/>
-      <c r="H896" s="11"/>
+      <c r="A896" s="7">
+        <v>891</v>
+      </c>
+      <c r="B896" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C896" s="7" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D896" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E896" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F896" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G896" s="7">
+        <v>32</v>
+      </c>
+      <c r="H896" s="11">
+        <f t="shared" si="14"/>
+        <v>28529</v>
+      </c>
     </row>
     <row r="897" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A897" s="7"/>
-      <c r="B897" s="24"/>
-      <c r="C897" s="7"/>
-      <c r="D897" s="7"/>
-      <c r="E897" s="7"/>
-      <c r="F897" s="7"/>
-      <c r="G897" s="7"/>
-      <c r="H897" s="11"/>
+      <c r="A897" s="7">
+        <v>892</v>
+      </c>
+      <c r="B897" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C897" s="7" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D897" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E897" s="7" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F897" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G897" s="7">
+        <v>32</v>
+      </c>
+      <c r="H897" s="11">
+        <f t="shared" si="14"/>
+        <v>28561</v>
+      </c>
     </row>
     <row r="898" spans="1:8" s="26" customFormat="1" ht="15.75">
       <c r="A898" s="7"/>
@@ -30346,753 +30461,453 @@
       <c r="G900" s="7"/>
       <c r="H900" s="11"/>
     </row>
-    <row r="901" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A901" s="7"/>
-      <c r="B901" s="24"/>
-      <c r="C901" s="7"/>
-      <c r="D901" s="7"/>
-      <c r="E901" s="7"/>
-      <c r="F901" s="7"/>
-      <c r="G901" s="7"/>
-      <c r="H901" s="11"/>
-    </row>
-    <row r="902" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A902" s="7"/>
-      <c r="B902" s="24"/>
-      <c r="C902" s="7"/>
-      <c r="D902" s="7"/>
-      <c r="E902" s="7"/>
-      <c r="F902" s="7"/>
-      <c r="G902" s="7"/>
-      <c r="H902" s="11"/>
-    </row>
-    <row r="903" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A903" s="7"/>
-      <c r="B903" s="24"/>
-      <c r="C903" s="7"/>
-      <c r="D903" s="7"/>
-      <c r="E903" s="7"/>
-      <c r="F903" s="7"/>
-      <c r="G903" s="7"/>
-      <c r="H903" s="11"/>
-    </row>
-    <row r="904" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A904" s="7"/>
-      <c r="B904" s="24"/>
-      <c r="C904" s="7"/>
-      <c r="D904" s="7"/>
-      <c r="E904" s="7"/>
-      <c r="F904" s="7"/>
-      <c r="G904" s="7"/>
-      <c r="H904" s="11"/>
-    </row>
-    <row r="905" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A905" s="7"/>
-      <c r="B905" s="24"/>
-      <c r="C905" s="7"/>
-      <c r="D905" s="7"/>
-      <c r="E905" s="7"/>
-      <c r="F905" s="7"/>
-      <c r="G905" s="7"/>
-      <c r="H905" s="11"/>
-    </row>
-    <row r="906" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A906" s="7"/>
-      <c r="B906" s="24"/>
-      <c r="C906" s="7"/>
-      <c r="D906" s="7"/>
-      <c r="E906" s="7"/>
-      <c r="F906" s="7"/>
-      <c r="G906" s="7"/>
-      <c r="H906" s="11"/>
-    </row>
-    <row r="907" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A907" s="7"/>
-      <c r="B907" s="24"/>
-      <c r="C907" s="7"/>
-      <c r="D907" s="7"/>
-      <c r="E907" s="7"/>
-      <c r="F907" s="7"/>
-      <c r="G907" s="7"/>
-      <c r="H907" s="11"/>
-    </row>
-    <row r="908" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A908" s="7"/>
-      <c r="B908" s="24"/>
-      <c r="C908" s="7"/>
-      <c r="D908" s="7"/>
-      <c r="E908" s="7"/>
-      <c r="F908" s="7"/>
-      <c r="G908" s="7"/>
-      <c r="H908" s="11"/>
-    </row>
-    <row r="909" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A909" s="7"/>
-      <c r="B909" s="24"/>
-      <c r="C909" s="7"/>
-      <c r="D909" s="7"/>
-      <c r="E909" s="7"/>
-      <c r="F909" s="7"/>
-      <c r="G909" s="7"/>
-      <c r="H909" s="11"/>
-    </row>
-    <row r="910" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A910" s="7"/>
-      <c r="B910" s="24"/>
-      <c r="C910" s="7"/>
-      <c r="D910" s="7"/>
-      <c r="E910" s="7"/>
-      <c r="F910" s="7"/>
-      <c r="G910" s="7"/>
-      <c r="H910" s="11"/>
-    </row>
-    <row r="911" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A911" s="7"/>
-      <c r="B911" s="24"/>
-      <c r="C911" s="7"/>
-      <c r="D911" s="7"/>
-      <c r="E911" s="7"/>
-      <c r="F911" s="7"/>
-      <c r="G911" s="7"/>
-      <c r="H911" s="11"/>
-    </row>
-    <row r="912" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A912" s="7"/>
-      <c r="B912" s="24"/>
-      <c r="C912" s="7"/>
-      <c r="D912" s="7"/>
-      <c r="E912" s="7"/>
-      <c r="F912" s="7"/>
-      <c r="G912" s="7"/>
-      <c r="H912" s="11"/>
-    </row>
-    <row r="913" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A913" s="7"/>
-      <c r="B913" s="24"/>
-      <c r="C913" s="7"/>
-      <c r="D913" s="7"/>
-      <c r="E913" s="7"/>
-      <c r="F913" s="7"/>
-      <c r="G913" s="7"/>
-      <c r="H913" s="11"/>
-    </row>
-    <row r="914" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A914" s="7"/>
-      <c r="B914" s="24"/>
-      <c r="C914" s="7"/>
-      <c r="D914" s="7"/>
-      <c r="E914" s="7"/>
-      <c r="F914" s="7"/>
-      <c r="G914" s="7"/>
-      <c r="H914" s="11"/>
-    </row>
-    <row r="915" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A915" s="7"/>
-      <c r="B915" s="24"/>
-      <c r="C915" s="7"/>
-      <c r="D915" s="7"/>
-      <c r="E915" s="7"/>
-      <c r="F915" s="7"/>
-      <c r="G915" s="7"/>
-      <c r="H915" s="11"/>
-    </row>
-    <row r="916" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A916" s="7"/>
-      <c r="B916" s="24"/>
-      <c r="C916" s="7"/>
-      <c r="D916" s="7"/>
-      <c r="E916" s="7"/>
-      <c r="F916" s="7"/>
-      <c r="G916" s="7"/>
-      <c r="H916" s="11"/>
-    </row>
-    <row r="917" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A917" s="7"/>
-      <c r="B917" s="24"/>
-      <c r="C917" s="7"/>
-      <c r="D917" s="7"/>
-      <c r="E917" s="7"/>
-      <c r="F917" s="7"/>
-      <c r="G917" s="7"/>
-      <c r="H917" s="11"/>
-    </row>
-    <row r="918" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A918" s="7"/>
-      <c r="B918" s="24"/>
+    <row r="901" spans="1:8" s="26" customFormat="1">
+      <c r="A901" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="B901" s="56"/>
+      <c r="C901" s="56"/>
+      <c r="D901" s="56"/>
+      <c r="E901" s="56"/>
+      <c r="F901" s="57"/>
+      <c r="G901" s="58">
+        <f>150*H897</f>
+        <v>4284150</v>
+      </c>
+      <c r="H901" s="59"/>
+    </row>
+    <row r="902" spans="1:8" s="26" customFormat="1">
+      <c r="A902" s="37"/>
+      <c r="B902" s="37"/>
+      <c r="C902" s="37"/>
+      <c r="D902" s="37"/>
+      <c r="E902" s="37"/>
+      <c r="F902" s="37"/>
+      <c r="G902" s="38"/>
+      <c r="H902" s="38"/>
+    </row>
+    <row r="903" spans="1:8" s="26" customFormat="1">
+      <c r="A903" s="37"/>
+      <c r="B903" s="37"/>
+      <c r="C903" s="37"/>
+      <c r="D903" s="37"/>
+      <c r="E903" s="37"/>
+      <c r="F903" s="37"/>
+      <c r="G903" s="38"/>
+      <c r="H903" s="38"/>
+    </row>
+    <row r="904" spans="1:8" s="26" customFormat="1">
+      <c r="A904" s="40"/>
+      <c r="B904" s="41"/>
+      <c r="C904" s="41"/>
+      <c r="D904" s="41"/>
+      <c r="E904" s="41"/>
+      <c r="F904" s="42"/>
+      <c r="G904"/>
+      <c r="H904" s="38"/>
+    </row>
+    <row r="905" spans="1:8" s="26" customFormat="1">
+      <c r="A905" s="43"/>
+      <c r="B905" s="44"/>
+      <c r="C905" s="44"/>
+      <c r="D905" s="44"/>
+      <c r="E905" s="44"/>
+      <c r="F905" s="45"/>
+      <c r="H905" s="38"/>
+    </row>
+    <row r="906" spans="1:8" s="26" customFormat="1">
+      <c r="A906" s="43"/>
+      <c r="B906" s="44"/>
+      <c r="C906" s="44"/>
+      <c r="D906" s="49" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E906" s="49"/>
+      <c r="F906" s="45"/>
+    </row>
+    <row r="907" spans="1:8" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A907" s="43"/>
+      <c r="B907" s="44"/>
+      <c r="C907" s="44"/>
+      <c r="D907" s="50">
+        <f>G901-D910</f>
+        <v>3367350</v>
+      </c>
+      <c r="E907" s="51"/>
+      <c r="F907" s="45"/>
+    </row>
+    <row r="908" spans="1:8" s="26" customFormat="1">
+      <c r="A908" s="43"/>
+      <c r="B908" s="44"/>
+      <c r="C908" s="44"/>
+      <c r="D908" s="44"/>
+      <c r="E908" s="44"/>
+      <c r="F908" s="45"/>
+    </row>
+    <row r="909" spans="1:8" s="26" customFormat="1">
+      <c r="A909" s="43"/>
+      <c r="B909" s="44"/>
+      <c r="C909" s="44"/>
+      <c r="D909" s="49" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E909" s="49"/>
+      <c r="F909" s="45"/>
+    </row>
+    <row r="910" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A910" s="43"/>
+      <c r="B910" s="44"/>
+      <c r="C910" s="44"/>
+      <c r="D910" s="50">
+        <f>SUM(D913:D926)</f>
+        <v>916800</v>
+      </c>
+      <c r="E910" s="51"/>
+      <c r="F910" s="45"/>
+    </row>
+    <row r="911" spans="1:8" s="26" customFormat="1">
+      <c r="A911" s="43"/>
+      <c r="B911" s="44"/>
+      <c r="C911" s="44"/>
+      <c r="D911" s="39"/>
+      <c r="E911" s="39"/>
+      <c r="F911" s="45"/>
+    </row>
+    <row r="912" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1">
+      <c r="A912" s="43"/>
+      <c r="B912" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C912" s="36" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D912" s="36" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E912" s="36" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F912" s="45"/>
+    </row>
+    <row r="913" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A913" s="43"/>
+      <c r="B913" s="27"/>
+      <c r="C913" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="D913" s="27"/>
+      <c r="E913" s="35">
+        <f>G901</f>
+        <v>4284150</v>
+      </c>
+      <c r="F913" s="45"/>
+      <c r="G913"/>
+    </row>
+    <row r="914" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A914" s="43"/>
+      <c r="B914" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="C914" s="29" t="s">
+        <v>917</v>
+      </c>
+      <c r="D914" s="34">
+        <v>466800</v>
+      </c>
+      <c r="E914" s="7">
+        <f>ABS(D914-E913)</f>
+        <v>3817350</v>
+      </c>
+      <c r="F914" s="45"/>
+      <c r="G914"/>
+    </row>
+    <row r="915" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A915" s="43"/>
+      <c r="B915" s="27" t="s">
+        <v>942</v>
+      </c>
+      <c r="C915" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D915" s="28">
+        <v>150000</v>
+      </c>
+      <c r="E915" s="7">
+        <f>ABS(D915-E914)</f>
+        <v>3667350</v>
+      </c>
+      <c r="F915" s="45"/>
+      <c r="G915"/>
+      <c r="H915"/>
+    </row>
+    <row r="916" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A916" s="43"/>
+      <c r="B916" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C916" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D916" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E916" s="7">
+        <f>ABS(D916-E915)</f>
+        <v>3517350</v>
+      </c>
+      <c r="F916" s="45"/>
+      <c r="G916"/>
+    </row>
+    <row r="917" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A917" s="43"/>
+      <c r="B917" s="7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C917" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D917" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E917" s="7">
+        <f>ABS(D917-E916)</f>
+        <v>3367350</v>
+      </c>
+      <c r="F917" s="45"/>
+      <c r="G917"/>
+      <c r="H917"/>
+    </row>
+    <row r="918" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A918" s="43"/>
+      <c r="B918" s="7"/>
       <c r="C918" s="7"/>
       <c r="D918" s="7"/>
       <c r="E918" s="7"/>
-      <c r="F918" s="7"/>
-      <c r="G918" s="7"/>
-      <c r="H918" s="11"/>
-    </row>
-    <row r="919" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A919" s="7"/>
-      <c r="B919" s="24"/>
+      <c r="F918" s="45"/>
+      <c r="H918"/>
+    </row>
+    <row r="919" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A919" s="43"/>
+      <c r="B919" s="7"/>
       <c r="C919" s="7"/>
       <c r="D919" s="7"/>
       <c r="E919" s="7"/>
-      <c r="F919" s="7"/>
-      <c r="G919" s="7"/>
-      <c r="H919" s="11"/>
-    </row>
-    <row r="920" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A920" s="7"/>
-      <c r="B920" s="24"/>
+      <c r="F919" s="45"/>
+      <c r="H919"/>
+    </row>
+    <row r="920" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A920" s="43"/>
+      <c r="B920" s="7"/>
       <c r="C920" s="7"/>
       <c r="D920" s="7"/>
       <c r="E920" s="7"/>
-      <c r="F920" s="7"/>
-      <c r="G920" s="7"/>
-      <c r="H920" s="11"/>
-    </row>
-    <row r="921" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A921" s="7"/>
-      <c r="B921" s="24"/>
+      <c r="F920" s="45"/>
+    </row>
+    <row r="921" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A921" s="43"/>
+      <c r="B921" s="7"/>
       <c r="C921" s="7"/>
       <c r="D921" s="7"/>
       <c r="E921" s="7"/>
-      <c r="F921" s="7"/>
-      <c r="G921" s="7"/>
-      <c r="H921" s="11"/>
-    </row>
-    <row r="922" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A922" s="7"/>
-      <c r="B922" s="24"/>
+      <c r="F921" s="45"/>
+    </row>
+    <row r="922" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A922" s="43"/>
+      <c r="B922" s="7"/>
       <c r="C922" s="7"/>
       <c r="D922" s="7"/>
       <c r="E922" s="7"/>
-      <c r="F922" s="7"/>
-      <c r="G922" s="7"/>
-      <c r="H922" s="11"/>
-    </row>
-    <row r="923" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A923" s="7"/>
-      <c r="B923" s="24"/>
+      <c r="F922" s="45"/>
+      <c r="G922"/>
+    </row>
+    <row r="923" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A923" s="43"/>
+      <c r="B923" s="7"/>
       <c r="C923" s="7"/>
       <c r="D923" s="7"/>
       <c r="E923" s="7"/>
-      <c r="F923" s="7"/>
-      <c r="G923" s="7"/>
-      <c r="H923" s="11"/>
-    </row>
-    <row r="924" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A924" s="7"/>
-      <c r="B924" s="24"/>
+      <c r="F923" s="45"/>
+      <c r="G923"/>
+    </row>
+    <row r="924" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A924" s="43"/>
+      <c r="B924" s="7"/>
       <c r="C924" s="7"/>
       <c r="D924" s="7"/>
       <c r="E924" s="7"/>
-      <c r="F924" s="7"/>
-      <c r="G924" s="7"/>
-      <c r="H924" s="11"/>
-    </row>
-    <row r="925" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A925" s="7"/>
-      <c r="B925" s="24"/>
+      <c r="F924" s="45"/>
+      <c r="G924"/>
+      <c r="H924"/>
+    </row>
+    <row r="925" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A925" s="43"/>
+      <c r="B925" s="7"/>
       <c r="C925" s="7"/>
       <c r="D925" s="7"/>
       <c r="E925" s="7"/>
-      <c r="F925" s="7"/>
-      <c r="G925" s="7"/>
-      <c r="H925" s="11"/>
-    </row>
-    <row r="926" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A926" s="7"/>
-      <c r="B926" s="24"/>
+      <c r="F925" s="45"/>
+      <c r="G925"/>
+      <c r="H925"/>
+    </row>
+    <row r="926" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A926" s="43"/>
+      <c r="B926" s="7"/>
       <c r="C926" s="7"/>
       <c r="D926" s="7"/>
       <c r="E926" s="7"/>
-      <c r="F926" s="7"/>
-      <c r="G926" s="7"/>
-      <c r="H926" s="11"/>
-    </row>
-    <row r="927" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A927" s="7"/>
-      <c r="B927" s="24"/>
-      <c r="C927" s="7"/>
-      <c r="D927" s="7"/>
-      <c r="E927" s="7"/>
-      <c r="F927" s="7"/>
-      <c r="G927" s="7"/>
-      <c r="H927" s="11"/>
-    </row>
-    <row r="928" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A928" s="7"/>
-      <c r="B928" s="24"/>
-      <c r="C928" s="7"/>
-      <c r="D928" s="7"/>
-      <c r="E928" s="7"/>
-      <c r="F928" s="7"/>
-      <c r="G928" s="7"/>
-      <c r="H928" s="11"/>
-    </row>
-    <row r="929" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A929" s="7"/>
-      <c r="B929" s="24"/>
-      <c r="C929" s="7"/>
-      <c r="D929" s="7"/>
-      <c r="E929" s="7"/>
-      <c r="F929" s="7"/>
-      <c r="G929" s="7"/>
-      <c r="H929" s="11"/>
-    </row>
-    <row r="930" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A930" s="7"/>
-      <c r="B930" s="24"/>
-      <c r="C930" s="7"/>
-      <c r="D930" s="7"/>
-      <c r="E930" s="7"/>
-      <c r="F930" s="7"/>
-      <c r="G930" s="7"/>
-      <c r="H930" s="11"/>
-    </row>
-    <row r="931" spans="1:8" s="26" customFormat="1">
-      <c r="A931" s="55" t="s">
-        <v>488</v>
-      </c>
-      <c r="B931" s="56"/>
-      <c r="C931" s="56"/>
-      <c r="D931" s="56"/>
-      <c r="E931" s="56"/>
-      <c r="F931" s="57"/>
-      <c r="G931" s="58">
-        <f>150*H877</f>
-        <v>4188150</v>
-      </c>
-      <c r="H931" s="59"/>
-    </row>
-    <row r="932" spans="1:8" s="26" customFormat="1">
-      <c r="A932" s="37"/>
-      <c r="B932" s="37"/>
-      <c r="C932" s="37"/>
-      <c r="D932" s="37"/>
-      <c r="E932" s="37"/>
-      <c r="F932" s="37"/>
-      <c r="G932" s="38"/>
-      <c r="H932" s="38"/>
-    </row>
-    <row r="933" spans="1:8" s="26" customFormat="1">
-      <c r="A933" s="37"/>
-      <c r="B933" s="37"/>
-      <c r="C933" s="37"/>
-      <c r="D933" s="37"/>
-      <c r="E933" s="37"/>
-      <c r="F933" s="37"/>
-      <c r="G933" s="38"/>
-      <c r="H933" s="38"/>
-    </row>
-    <row r="934" spans="1:8" s="26" customFormat="1">
-      <c r="A934" s="40"/>
-      <c r="B934" s="41"/>
-      <c r="C934" s="41"/>
-      <c r="D934" s="41"/>
-      <c r="E934" s="41"/>
-      <c r="F934" s="42"/>
+      <c r="F926" s="45"/>
+      <c r="G926"/>
+      <c r="H926"/>
+    </row>
+    <row r="927" spans="1:8" s="26" customFormat="1">
+      <c r="A927" s="43"/>
+      <c r="B927" s="44"/>
+      <c r="C927" s="44"/>
+      <c r="D927" s="44"/>
+      <c r="E927" s="44"/>
+      <c r="F927" s="45"/>
+      <c r="G927"/>
+      <c r="H927"/>
+    </row>
+    <row r="928" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A928" s="46"/>
+      <c r="B928" s="47"/>
+      <c r="C928" s="47"/>
+      <c r="D928" s="47"/>
+      <c r="E928" s="47"/>
+      <c r="F928" s="48"/>
+      <c r="H928"/>
+    </row>
+    <row r="929" spans="7:8" s="26" customFormat="1">
+      <c r="H929"/>
+    </row>
+    <row r="930" spans="7:8" s="26" customFormat="1"/>
+    <row r="931" spans="7:8" s="26" customFormat="1"/>
+    <row r="932" spans="7:8" s="26" customFormat="1"/>
+    <row r="933" spans="7:8" s="26" customFormat="1">
+      <c r="G933"/>
+    </row>
+    <row r="934" spans="7:8" s="26" customFormat="1">
       <c r="G934"/>
-      <c r="H934" s="38"/>
-    </row>
-    <row r="935" spans="1:8" s="26" customFormat="1">
-      <c r="A935" s="43"/>
-      <c r="B935" s="44"/>
-      <c r="C935" s="44"/>
-      <c r="D935" s="44"/>
-      <c r="E935" s="44"/>
-      <c r="F935" s="45"/>
-      <c r="H935" s="38"/>
-    </row>
-    <row r="936" spans="1:8" s="26" customFormat="1">
-      <c r="A936" s="43"/>
-      <c r="B936" s="44"/>
-      <c r="C936" s="44"/>
-      <c r="D936" s="49" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E936" s="49"/>
-      <c r="F936" s="45"/>
-    </row>
-    <row r="937" spans="1:8" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="A937" s="43"/>
-      <c r="B937" s="44"/>
-      <c r="C937" s="44"/>
-      <c r="D937" s="50">
-        <f>G931-D940</f>
-        <v>3271350</v>
-      </c>
-      <c r="E937" s="51"/>
-      <c r="F937" s="45"/>
-    </row>
-    <row r="938" spans="1:8" s="26" customFormat="1">
-      <c r="A938" s="43"/>
-      <c r="B938" s="44"/>
-      <c r="C938" s="44"/>
-      <c r="D938" s="44"/>
-      <c r="E938" s="44"/>
-      <c r="F938" s="45"/>
-    </row>
-    <row r="939" spans="1:8" s="26" customFormat="1">
-      <c r="A939" s="43"/>
-      <c r="B939" s="44"/>
-      <c r="C939" s="44"/>
-      <c r="D939" s="49" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E939" s="49"/>
-      <c r="F939" s="45"/>
-    </row>
-    <row r="940" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A940" s="43"/>
-      <c r="B940" s="44"/>
-      <c r="C940" s="44"/>
-      <c r="D940" s="50">
-        <f>SUM(D943:D956)</f>
-        <v>916800</v>
-      </c>
-      <c r="E940" s="51"/>
-      <c r="F940" s="45"/>
-    </row>
-    <row r="941" spans="1:8" s="26" customFormat="1">
-      <c r="A941" s="43"/>
-      <c r="B941" s="44"/>
-      <c r="C941" s="44"/>
-      <c r="D941" s="39"/>
-      <c r="E941" s="39"/>
-      <c r="F941" s="45"/>
-    </row>
-    <row r="942" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1">
-      <c r="A942" s="43"/>
-      <c r="B942" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C942" s="36" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D942" s="36" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E942" s="36" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F942" s="45"/>
-    </row>
-    <row r="943" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A943" s="43"/>
-      <c r="B943" s="27"/>
-      <c r="C943" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="D943" s="27"/>
-      <c r="E943" s="35">
-        <f>G931</f>
-        <v>4188150</v>
-      </c>
-      <c r="F943" s="45"/>
+    </row>
+    <row r="935" spans="7:8" s="26" customFormat="1">
+      <c r="G935"/>
+      <c r="H935"/>
+    </row>
+    <row r="936" spans="7:8" s="26" customFormat="1">
+      <c r="G936"/>
+      <c r="H936"/>
+    </row>
+    <row r="937" spans="7:8" s="26" customFormat="1">
+      <c r="G937"/>
+      <c r="H937"/>
+    </row>
+    <row r="938" spans="7:8" s="26" customFormat="1">
+      <c r="G938"/>
+      <c r="H938"/>
+    </row>
+    <row r="939" spans="7:8" s="26" customFormat="1">
+      <c r="G939"/>
+      <c r="H939"/>
+    </row>
+    <row r="940" spans="7:8" s="26" customFormat="1">
+      <c r="G940"/>
+      <c r="H940"/>
+    </row>
+    <row r="941" spans="7:8" s="26" customFormat="1">
+      <c r="G941"/>
+      <c r="H941"/>
+    </row>
+    <row r="942" spans="7:8" s="26" customFormat="1">
+      <c r="G942"/>
+      <c r="H942"/>
+    </row>
+    <row r="943" spans="7:8" s="26" customFormat="1">
       <c r="G943"/>
-    </row>
-    <row r="944" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A944" s="43"/>
-      <c r="B944" s="32" t="s">
-        <v>918</v>
-      </c>
-      <c r="C944" s="29" t="s">
-        <v>917</v>
-      </c>
-      <c r="D944" s="34">
-        <v>466800</v>
-      </c>
-      <c r="E944" s="7">
-        <f>ABS(D944-E943)</f>
-        <v>3721350</v>
-      </c>
-      <c r="F944" s="45"/>
+      <c r="H943"/>
+    </row>
+    <row r="944" spans="7:8" s="26" customFormat="1">
       <c r="G944"/>
-    </row>
-    <row r="945" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A945" s="43"/>
-      <c r="B945" s="27" t="s">
-        <v>942</v>
-      </c>
-      <c r="C945" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D945" s="28">
-        <v>150000</v>
-      </c>
-      <c r="E945" s="7">
-        <f>ABS(D945-E944)</f>
-        <v>3571350</v>
-      </c>
-      <c r="F945" s="45"/>
+      <c r="H944"/>
+    </row>
+    <row r="945" spans="6:10" s="26" customFormat="1">
       <c r="G945"/>
       <c r="H945"/>
     </row>
-    <row r="946" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A946" s="43"/>
-      <c r="B946" s="7" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C946" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D946" s="7">
-        <v>150000</v>
-      </c>
-      <c r="E946" s="7">
-        <f>ABS(D946-E945)</f>
-        <v>3421350</v>
-      </c>
-      <c r="F946" s="45"/>
+    <row r="946" spans="6:10" s="26" customFormat="1">
       <c r="G946"/>
-    </row>
-    <row r="947" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A947" s="43"/>
-      <c r="B947" s="7" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C947" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D947" s="7">
-        <v>150000</v>
-      </c>
-      <c r="E947" s="7">
-        <f>ABS(D947-E946)</f>
-        <v>3271350</v>
-      </c>
-      <c r="F947" s="45"/>
+      <c r="H946"/>
+    </row>
+    <row r="947" spans="6:10" s="26" customFormat="1">
       <c r="G947"/>
       <c r="H947"/>
     </row>
-    <row r="948" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A948" s="43"/>
-      <c r="B948" s="7"/>
-      <c r="C948" s="7"/>
-      <c r="D948" s="7"/>
-      <c r="E948" s="7"/>
-      <c r="F948" s="45"/>
+    <row r="948" spans="6:10" s="26" customFormat="1">
+      <c r="G948"/>
       <c r="H948"/>
     </row>
-    <row r="949" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A949" s="43"/>
-      <c r="B949" s="7"/>
-      <c r="C949" s="7"/>
-      <c r="D949" s="7"/>
-      <c r="E949" s="7"/>
-      <c r="F949" s="45"/>
+    <row r="949" spans="6:10" s="26" customFormat="1">
+      <c r="G949"/>
       <c r="H949"/>
     </row>
-    <row r="950" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A950" s="43"/>
-      <c r="B950" s="7"/>
-      <c r="C950" s="7"/>
-      <c r="D950" s="7"/>
-      <c r="E950" s="7"/>
-      <c r="F950" s="45"/>
-    </row>
-    <row r="951" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A951" s="43"/>
-      <c r="B951" s="7"/>
-      <c r="C951" s="7"/>
-      <c r="D951" s="7"/>
-      <c r="E951" s="7"/>
-      <c r="F951" s="45"/>
-    </row>
-    <row r="952" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A952" s="43"/>
-      <c r="B952" s="7"/>
-      <c r="C952" s="7"/>
-      <c r="D952" s="7"/>
-      <c r="E952" s="7"/>
-      <c r="F952" s="45"/>
+    <row r="950" spans="6:10" s="26" customFormat="1">
+      <c r="G950"/>
+      <c r="H950"/>
+    </row>
+    <row r="951" spans="6:10" s="26" customFormat="1">
+      <c r="G951"/>
+      <c r="H951"/>
+    </row>
+    <row r="952" spans="6:10" s="26" customFormat="1">
       <c r="G952"/>
-    </row>
-    <row r="953" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A953" s="43"/>
-      <c r="B953" s="7"/>
-      <c r="C953" s="7"/>
-      <c r="D953" s="7"/>
-      <c r="E953" s="7"/>
-      <c r="F953" s="45"/>
+      <c r="H952"/>
+    </row>
+    <row r="953" spans="6:10" s="26" customFormat="1">
       <c r="G953"/>
-    </row>
-    <row r="954" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A954" s="43"/>
-      <c r="B954" s="7"/>
-      <c r="C954" s="7"/>
-      <c r="D954" s="7"/>
-      <c r="E954" s="7"/>
-      <c r="F954" s="45"/>
+      <c r="H953"/>
+    </row>
+    <row r="954" spans="6:10" s="26" customFormat="1">
       <c r="G954"/>
       <c r="H954"/>
     </row>
-    <row r="955" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A955" s="43"/>
-      <c r="B955" s="7"/>
-      <c r="C955" s="7"/>
-      <c r="D955" s="7"/>
-      <c r="E955" s="7"/>
-      <c r="F955" s="45"/>
+    <row r="955" spans="6:10" s="26" customFormat="1">
       <c r="G955"/>
       <c r="H955"/>
     </row>
-    <row r="956" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A956" s="43"/>
-      <c r="B956" s="7"/>
-      <c r="C956" s="7"/>
-      <c r="D956" s="7"/>
-      <c r="E956" s="7"/>
-      <c r="F956" s="45"/>
-      <c r="G956"/>
-      <c r="H956"/>
-    </row>
-    <row r="957" spans="1:8" s="26" customFormat="1">
-      <c r="A957" s="43"/>
-      <c r="B957" s="44"/>
-      <c r="C957" s="44"/>
-      <c r="D957" s="44"/>
-      <c r="E957" s="44"/>
-      <c r="F957" s="45"/>
-      <c r="G957"/>
-      <c r="H957"/>
-    </row>
-    <row r="958" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A958" s="46"/>
-      <c r="B958" s="47"/>
-      <c r="C958" s="47"/>
-      <c r="D958" s="47"/>
-      <c r="E958" s="47"/>
-      <c r="F958" s="48"/>
-      <c r="H958"/>
-    </row>
-    <row r="959" spans="1:8" s="26" customFormat="1">
-      <c r="H959"/>
-    </row>
-    <row r="960" spans="1:8" s="26" customFormat="1"/>
-    <row r="961" spans="7:8" s="26" customFormat="1"/>
-    <row r="962" spans="7:8" s="26" customFormat="1"/>
-    <row r="963" spans="7:8" s="26" customFormat="1">
-      <c r="G963"/>
-    </row>
-    <row r="964" spans="7:8" s="26" customFormat="1">
-      <c r="G964"/>
-    </row>
-    <row r="965" spans="7:8" s="26" customFormat="1">
-      <c r="G965"/>
-      <c r="H965"/>
-    </row>
-    <row r="966" spans="7:8" s="26" customFormat="1">
-      <c r="G966"/>
-      <c r="H966"/>
-    </row>
-    <row r="967" spans="7:8" s="26" customFormat="1">
-      <c r="G967"/>
-      <c r="H967"/>
-    </row>
-    <row r="968" spans="7:8" s="26" customFormat="1">
-      <c r="G968"/>
-      <c r="H968"/>
-    </row>
-    <row r="969" spans="7:8" s="26" customFormat="1">
-      <c r="G969"/>
-      <c r="H969"/>
-    </row>
-    <row r="970" spans="7:8" s="26" customFormat="1">
-      <c r="G970"/>
-      <c r="H970"/>
-    </row>
-    <row r="971" spans="7:8" s="26" customFormat="1">
-      <c r="G971"/>
-      <c r="H971"/>
-    </row>
-    <row r="972" spans="7:8" s="26" customFormat="1">
-      <c r="G972"/>
-      <c r="H972"/>
-    </row>
-    <row r="973" spans="7:8" s="26" customFormat="1">
-      <c r="G973"/>
-      <c r="H973"/>
-    </row>
-    <row r="974" spans="7:8" s="26" customFormat="1">
-      <c r="G974"/>
-      <c r="H974"/>
-    </row>
-    <row r="975" spans="7:8" s="26" customFormat="1">
-      <c r="G975"/>
-      <c r="H975"/>
-    </row>
-    <row r="976" spans="7:8" s="26" customFormat="1">
-      <c r="G976"/>
-      <c r="H976"/>
-    </row>
-    <row r="977" spans="6:10" s="26" customFormat="1">
-      <c r="G977"/>
-      <c r="H977"/>
-    </row>
-    <row r="978" spans="6:10" s="26" customFormat="1">
-      <c r="G978"/>
-      <c r="H978"/>
-    </row>
-    <row r="979" spans="6:10" s="26" customFormat="1">
-      <c r="G979"/>
-      <c r="H979"/>
-    </row>
-    <row r="980" spans="6:10" s="26" customFormat="1">
-      <c r="G980"/>
-      <c r="H980"/>
-    </row>
-    <row r="981" spans="6:10" s="26" customFormat="1">
-      <c r="G981"/>
-      <c r="H981"/>
-    </row>
-    <row r="982" spans="6:10" s="26" customFormat="1">
-      <c r="G982"/>
-      <c r="H982"/>
-    </row>
-    <row r="983" spans="6:10" s="26" customFormat="1">
-      <c r="G983"/>
-      <c r="H983"/>
-    </row>
-    <row r="984" spans="6:10" s="26" customFormat="1">
-      <c r="G984"/>
-      <c r="H984"/>
-    </row>
-    <row r="985" spans="6:10" s="26" customFormat="1">
-      <c r="G985"/>
-      <c r="H985"/>
-    </row>
-    <row r="986" spans="6:10">
-      <c r="F986" s="26"/>
-      <c r="J986" s="26"/>
-    </row>
-    <row r="987" spans="6:10">
-      <c r="F987" s="26"/>
-      <c r="J987" s="26"/>
-    </row>
-    <row r="988" spans="6:10">
-      <c r="F988" s="26"/>
-      <c r="J988" s="26"/>
-    </row>
-    <row r="989" spans="6:10">
-      <c r="F989" s="26"/>
-    </row>
-    <row r="990" spans="6:10">
-      <c r="F990" s="26"/>
-    </row>
-    <row r="991" spans="6:10">
-      <c r="F991" s="26"/>
-    </row>
-    <row r="992" spans="6:10">
-      <c r="F992" s="26"/>
+    <row r="956" spans="6:10">
+      <c r="F956" s="26"/>
+      <c r="J956" s="26"/>
+    </row>
+    <row r="957" spans="6:10">
+      <c r="F957" s="26"/>
+      <c r="J957" s="26"/>
+    </row>
+    <row r="958" spans="6:10">
+      <c r="F958" s="26"/>
+      <c r="J958" s="26"/>
+    </row>
+    <row r="959" spans="6:10">
+      <c r="F959" s="26"/>
+    </row>
+    <row r="960" spans="6:10">
+      <c r="F960" s="26"/>
+    </row>
+    <row r="961" spans="6:6">
+      <c r="F961" s="26"/>
+    </row>
+    <row r="962" spans="6:6">
+      <c r="F962" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="7">
-    <mergeCell ref="D939:E939"/>
-    <mergeCell ref="D940:E940"/>
+    <mergeCell ref="D909:E909"/>
+    <mergeCell ref="D910:E910"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A931:F931"/>
-    <mergeCell ref="G931:H931"/>
-    <mergeCell ref="D936:E936"/>
-    <mergeCell ref="D937:E937"/>
+    <mergeCell ref="A901:F901"/>
+    <mergeCell ref="G901:H901"/>
+    <mergeCell ref="D906:E906"/>
+    <mergeCell ref="D907:E907"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
+++ b/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4197" uniqueCount="1820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="1828">
   <si>
     <t>JOSEPH BLUE METAL</t>
   </si>
@@ -5476,6 +5476,30 @@
   </si>
   <si>
     <t>KKM000000158210/2025</t>
+  </si>
+  <si>
+    <t>KKM000000158217/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577144</t>
+  </si>
+  <si>
+    <t>KKM000000158220/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577145</t>
+  </si>
+  <si>
+    <t>KKM000000158221/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577146</t>
+  </si>
+  <si>
+    <t>KKM000000158222/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577147</t>
   </si>
 </sst>
 </file>
@@ -6157,10 +6181,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J962"/>
+  <dimension ref="A1:J963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A887" workbookViewId="0">
-      <selection activeCell="G902" sqref="G902"/>
+    <sheetView tabSelected="1" topLeftCell="A897" workbookViewId="0">
+      <selection activeCell="G903" sqref="G903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28861,7 +28885,7 @@
         <v>32</v>
       </c>
       <c r="H839" s="11">
-        <f t="shared" ref="H839:H892" si="13">G839+H838</f>
+        <f t="shared" ref="H839:H891" si="13">G839+H838</f>
         <v>26705</v>
       </c>
     </row>
@@ -30319,7 +30343,7 @@
         <v>32</v>
       </c>
       <c r="H893" s="11">
-        <f t="shared" ref="H893:H897" si="14">G893+H892</f>
+        <f t="shared" ref="H893:H901" si="14">G893+H892</f>
         <v>28433</v>
       </c>
     </row>
@@ -30432,59 +30456,127 @@
       </c>
     </row>
     <row r="898" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A898" s="7"/>
-      <c r="B898" s="24"/>
-      <c r="C898" s="7"/>
-      <c r="D898" s="7"/>
-      <c r="E898" s="7"/>
-      <c r="F898" s="7"/>
-      <c r="G898" s="7"/>
-      <c r="H898" s="11"/>
+      <c r="A898" s="7">
+        <v>893</v>
+      </c>
+      <c r="B898" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C898" s="7" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D898" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E898" s="7" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F898" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G898" s="7">
+        <v>32</v>
+      </c>
+      <c r="H898" s="11">
+        <f t="shared" si="14"/>
+        <v>28593</v>
+      </c>
     </row>
     <row r="899" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A899" s="7"/>
-      <c r="B899" s="24"/>
-      <c r="C899" s="7"/>
-      <c r="D899" s="7"/>
-      <c r="E899" s="7"/>
-      <c r="F899" s="7"/>
-      <c r="G899" s="7"/>
-      <c r="H899" s="11"/>
+      <c r="A899" s="7">
+        <v>894</v>
+      </c>
+      <c r="B899" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C899" s="7" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D899" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E899" s="7" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F899" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G899" s="7">
+        <v>9</v>
+      </c>
+      <c r="H899" s="11">
+        <f t="shared" si="14"/>
+        <v>28602</v>
+      </c>
     </row>
     <row r="900" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A900" s="7"/>
-      <c r="B900" s="24"/>
-      <c r="C900" s="7"/>
-      <c r="D900" s="7"/>
-      <c r="E900" s="7"/>
-      <c r="F900" s="7"/>
-      <c r="G900" s="7"/>
-      <c r="H900" s="11"/>
-    </row>
-    <row r="901" spans="1:8" s="26" customFormat="1">
-      <c r="A901" s="55" t="s">
+      <c r="A900" s="7">
+        <v>895</v>
+      </c>
+      <c r="B900" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C900" s="7" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D900" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E900" s="7" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F900" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G900" s="7">
+        <v>9</v>
+      </c>
+      <c r="H900" s="11">
+        <f t="shared" si="14"/>
+        <v>28611</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A901" s="7">
+        <v>896</v>
+      </c>
+      <c r="B901" s="24">
+        <v>45820</v>
+      </c>
+      <c r="C901" s="7" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D901" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E901" s="7" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F901" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G901" s="7">
+        <v>5</v>
+      </c>
+      <c r="H901" s="11">
+        <f t="shared" si="14"/>
+        <v>28616</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" s="26" customFormat="1">
+      <c r="A902" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="B901" s="56"/>
-      <c r="C901" s="56"/>
-      <c r="D901" s="56"/>
-      <c r="E901" s="56"/>
-      <c r="F901" s="57"/>
-      <c r="G901" s="58">
-        <f>150*H897</f>
-        <v>4284150</v>
-      </c>
-      <c r="H901" s="59"/>
-    </row>
-    <row r="902" spans="1:8" s="26" customFormat="1">
-      <c r="A902" s="37"/>
-      <c r="B902" s="37"/>
-      <c r="C902" s="37"/>
-      <c r="D902" s="37"/>
-      <c r="E902" s="37"/>
-      <c r="F902" s="37"/>
-      <c r="G902" s="38"/>
-      <c r="H902" s="38"/>
+      <c r="B902" s="56"/>
+      <c r="C902" s="56"/>
+      <c r="D902" s="56"/>
+      <c r="E902" s="56"/>
+      <c r="F902" s="57"/>
+      <c r="G902" s="58">
+        <f>150*H901</f>
+        <v>4292400</v>
+      </c>
+      <c r="H902" s="59"/>
     </row>
     <row r="903" spans="1:8" s="26" customFormat="1">
       <c r="A903" s="37"/>
@@ -30497,171 +30589,163 @@
       <c r="H903" s="38"/>
     </row>
     <row r="904" spans="1:8" s="26" customFormat="1">
-      <c r="A904" s="40"/>
-      <c r="B904" s="41"/>
-      <c r="C904" s="41"/>
-      <c r="D904" s="41"/>
-      <c r="E904" s="41"/>
-      <c r="F904" s="42"/>
-      <c r="G904"/>
+      <c r="A904" s="37"/>
+      <c r="B904" s="37"/>
+      <c r="C904" s="37"/>
+      <c r="D904" s="37"/>
+      <c r="E904" s="37"/>
+      <c r="F904" s="37"/>
+      <c r="G904" s="38"/>
       <c r="H904" s="38"/>
     </row>
     <row r="905" spans="1:8" s="26" customFormat="1">
-      <c r="A905" s="43"/>
-      <c r="B905" s="44"/>
-      <c r="C905" s="44"/>
-      <c r="D905" s="44"/>
-      <c r="E905" s="44"/>
-      <c r="F905" s="45"/>
+      <c r="A905" s="40"/>
+      <c r="B905" s="41"/>
+      <c r="C905" s="41"/>
+      <c r="D905" s="41"/>
+      <c r="E905" s="41"/>
+      <c r="F905" s="42"/>
+      <c r="G905"/>
       <c r="H905" s="38"/>
     </row>
     <row r="906" spans="1:8" s="26" customFormat="1">
       <c r="A906" s="43"/>
       <c r="B906" s="44"/>
       <c r="C906" s="44"/>
-      <c r="D906" s="49" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E906" s="49"/>
+      <c r="D906" s="44"/>
+      <c r="E906" s="44"/>
       <c r="F906" s="45"/>
-    </row>
-    <row r="907" spans="1:8" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="H906" s="38"/>
+    </row>
+    <row r="907" spans="1:8" s="26" customFormat="1">
       <c r="A907" s="43"/>
       <c r="B907" s="44"/>
       <c r="C907" s="44"/>
-      <c r="D907" s="50">
-        <f>G901-D910</f>
-        <v>3367350</v>
-      </c>
-      <c r="E907" s="51"/>
+      <c r="D907" s="49" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E907" s="49"/>
       <c r="F907" s="45"/>
     </row>
-    <row r="908" spans="1:8" s="26" customFormat="1">
+    <row r="908" spans="1:8" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A908" s="43"/>
       <c r="B908" s="44"/>
       <c r="C908" s="44"/>
-      <c r="D908" s="44"/>
-      <c r="E908" s="44"/>
+      <c r="D908" s="50">
+        <f>G902-D911</f>
+        <v>3375600</v>
+      </c>
+      <c r="E908" s="51"/>
       <c r="F908" s="45"/>
     </row>
     <row r="909" spans="1:8" s="26" customFormat="1">
       <c r="A909" s="43"/>
       <c r="B909" s="44"/>
       <c r="C909" s="44"/>
-      <c r="D909" s="49" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E909" s="49"/>
+      <c r="D909" s="44"/>
+      <c r="E909" s="44"/>
       <c r="F909" s="45"/>
     </row>
-    <row r="910" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+    <row r="910" spans="1:8" s="26" customFormat="1">
       <c r="A910" s="43"/>
       <c r="B910" s="44"/>
       <c r="C910" s="44"/>
-      <c r="D910" s="50">
-        <f>SUM(D913:D926)</f>
-        <v>916800</v>
-      </c>
-      <c r="E910" s="51"/>
+      <c r="D910" s="49" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E910" s="49"/>
       <c r="F910" s="45"/>
     </row>
-    <row r="911" spans="1:8" s="26" customFormat="1">
+    <row r="911" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A911" s="43"/>
       <c r="B911" s="44"/>
       <c r="C911" s="44"/>
-      <c r="D911" s="39"/>
-      <c r="E911" s="39"/>
+      <c r="D911" s="50">
+        <f>SUM(D914:D927)</f>
+        <v>916800</v>
+      </c>
+      <c r="E911" s="51"/>
       <c r="F911" s="45"/>
     </row>
-    <row r="912" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="912" spans="1:8" s="26" customFormat="1">
       <c r="A912" s="43"/>
-      <c r="B912" s="36" t="s">
+      <c r="B912" s="44"/>
+      <c r="C912" s="44"/>
+      <c r="D912" s="39"/>
+      <c r="E912" s="39"/>
+      <c r="F912" s="45"/>
+    </row>
+    <row r="913" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1">
+      <c r="A913" s="43"/>
+      <c r="B913" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C912" s="36" t="s">
+      <c r="C913" s="36" t="s">
         <v>1510</v>
       </c>
-      <c r="D912" s="36" t="s">
+      <c r="D913" s="36" t="s">
         <v>1362</v>
       </c>
-      <c r="E912" s="36" t="s">
+      <c r="E913" s="36" t="s">
         <v>1361</v>
       </c>
-      <c r="F912" s="45"/>
-    </row>
-    <row r="913" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A913" s="43"/>
-      <c r="B913" s="27"/>
-      <c r="C913" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="D913" s="27"/>
-      <c r="E913" s="35">
-        <f>G901</f>
-        <v>4284150</v>
-      </c>
       <c r="F913" s="45"/>
-      <c r="G913"/>
     </row>
     <row r="914" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A914" s="43"/>
-      <c r="B914" s="32" t="s">
-        <v>918</v>
-      </c>
-      <c r="C914" s="29" t="s">
-        <v>917</v>
-      </c>
-      <c r="D914" s="34">
-        <v>466800</v>
-      </c>
-      <c r="E914" s="7">
-        <f>ABS(D914-E913)</f>
-        <v>3817350</v>
+      <c r="B914" s="27"/>
+      <c r="C914" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="D914" s="27"/>
+      <c r="E914" s="35">
+        <f>G902</f>
+        <v>4292400</v>
       </c>
       <c r="F914" s="45"/>
       <c r="G914"/>
     </row>
     <row r="915" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A915" s="43"/>
-      <c r="B915" s="27" t="s">
-        <v>942</v>
-      </c>
-      <c r="C915" s="7" t="s">
+      <c r="B915" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="C915" s="29" t="s">
         <v>917</v>
       </c>
-      <c r="D915" s="28">
-        <v>150000</v>
+      <c r="D915" s="34">
+        <v>466800</v>
       </c>
       <c r="E915" s="7">
         <f>ABS(D915-E914)</f>
-        <v>3667350</v>
+        <v>3825600</v>
       </c>
       <c r="F915" s="45"/>
       <c r="G915"/>
-      <c r="H915"/>
     </row>
     <row r="916" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A916" s="43"/>
-      <c r="B916" s="7" t="s">
-        <v>1512</v>
+      <c r="B916" s="27" t="s">
+        <v>942</v>
       </c>
       <c r="C916" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="D916" s="7">
+      <c r="D916" s="28">
         <v>150000</v>
       </c>
       <c r="E916" s="7">
         <f>ABS(D916-E915)</f>
-        <v>3517350</v>
+        <v>3675600</v>
       </c>
       <c r="F916" s="45"/>
       <c r="G916"/>
+      <c r="H916"/>
     </row>
     <row r="917" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A917" s="43"/>
       <c r="B917" s="7" t="s">
-        <v>1634</v>
+        <v>1512</v>
       </c>
       <c r="C917" s="7" t="s">
         <v>917</v>
@@ -30671,19 +30755,28 @@
       </c>
       <c r="E917" s="7">
         <f>ABS(D917-E916)</f>
-        <v>3367350</v>
+        <v>3525600</v>
       </c>
       <c r="F917" s="45"/>
       <c r="G917"/>
-      <c r="H917"/>
     </row>
     <row r="918" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A918" s="43"/>
-      <c r="B918" s="7"/>
-      <c r="C918" s="7"/>
-      <c r="D918" s="7"/>
-      <c r="E918" s="7"/>
+      <c r="B918" s="7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C918" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D918" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E918" s="7">
+        <f>ABS(D918-E917)</f>
+        <v>3375600</v>
+      </c>
       <c r="F918" s="45"/>
+      <c r="G918"/>
       <c r="H918"/>
     </row>
     <row r="919" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
@@ -30702,6 +30795,7 @@
       <c r="D920" s="7"/>
       <c r="E920" s="7"/>
       <c r="F920" s="45"/>
+      <c r="H920"/>
     </row>
     <row r="921" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A921" s="43"/>
@@ -30718,7 +30812,6 @@
       <c r="D922" s="7"/>
       <c r="E922" s="7"/>
       <c r="F922" s="45"/>
-      <c r="G922"/>
     </row>
     <row r="923" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A923" s="43"/>
@@ -30737,7 +30830,6 @@
       <c r="E924" s="7"/>
       <c r="F924" s="45"/>
       <c r="G924"/>
-      <c r="H924"/>
     </row>
     <row r="925" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A925" s="43"/>
@@ -30759,74 +30851,80 @@
       <c r="G926"/>
       <c r="H926"/>
     </row>
-    <row r="927" spans="1:8" s="26" customFormat="1">
+    <row r="927" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A927" s="43"/>
-      <c r="B927" s="44"/>
-      <c r="C927" s="44"/>
-      <c r="D927" s="44"/>
-      <c r="E927" s="44"/>
+      <c r="B927" s="7"/>
+      <c r="C927" s="7"/>
+      <c r="D927" s="7"/>
+      <c r="E927" s="7"/>
       <c r="F927" s="45"/>
       <c r="G927"/>
       <c r="H927"/>
     </row>
-    <row r="928" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A928" s="46"/>
-      <c r="B928" s="47"/>
-      <c r="C928" s="47"/>
-      <c r="D928" s="47"/>
-      <c r="E928" s="47"/>
-      <c r="F928" s="48"/>
+    <row r="928" spans="1:8" s="26" customFormat="1">
+      <c r="A928" s="43"/>
+      <c r="B928" s="44"/>
+      <c r="C928" s="44"/>
+      <c r="D928" s="44"/>
+      <c r="E928" s="44"/>
+      <c r="F928" s="45"/>
+      <c r="G928"/>
       <c r="H928"/>
     </row>
-    <row r="929" spans="7:8" s="26" customFormat="1">
+    <row r="929" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A929" s="46"/>
+      <c r="B929" s="47"/>
+      <c r="C929" s="47"/>
+      <c r="D929" s="47"/>
+      <c r="E929" s="47"/>
+      <c r="F929" s="48"/>
       <c r="H929"/>
     </row>
-    <row r="930" spans="7:8" s="26" customFormat="1"/>
-    <row r="931" spans="7:8" s="26" customFormat="1"/>
-    <row r="932" spans="7:8" s="26" customFormat="1"/>
-    <row r="933" spans="7:8" s="26" customFormat="1">
-      <c r="G933"/>
-    </row>
-    <row r="934" spans="7:8" s="26" customFormat="1">
+    <row r="930" spans="1:8" s="26" customFormat="1">
+      <c r="H930"/>
+    </row>
+    <row r="931" spans="1:8" s="26" customFormat="1"/>
+    <row r="932" spans="1:8" s="26" customFormat="1"/>
+    <row r="933" spans="1:8" s="26" customFormat="1"/>
+    <row r="934" spans="1:8" s="26" customFormat="1">
       <c r="G934"/>
     </row>
-    <row r="935" spans="7:8" s="26" customFormat="1">
+    <row r="935" spans="1:8" s="26" customFormat="1">
       <c r="G935"/>
-      <c r="H935"/>
-    </row>
-    <row r="936" spans="7:8" s="26" customFormat="1">
+    </row>
+    <row r="936" spans="1:8" s="26" customFormat="1">
       <c r="G936"/>
       <c r="H936"/>
     </row>
-    <row r="937" spans="7:8" s="26" customFormat="1">
+    <row r="937" spans="1:8" s="26" customFormat="1">
       <c r="G937"/>
       <c r="H937"/>
     </row>
-    <row r="938" spans="7:8" s="26" customFormat="1">
+    <row r="938" spans="1:8" s="26" customFormat="1">
       <c r="G938"/>
       <c r="H938"/>
     </row>
-    <row r="939" spans="7:8" s="26" customFormat="1">
+    <row r="939" spans="1:8" s="26" customFormat="1">
       <c r="G939"/>
       <c r="H939"/>
     </row>
-    <row r="940" spans="7:8" s="26" customFormat="1">
+    <row r="940" spans="1:8" s="26" customFormat="1">
       <c r="G940"/>
       <c r="H940"/>
     </row>
-    <row r="941" spans="7:8" s="26" customFormat="1">
+    <row r="941" spans="1:8" s="26" customFormat="1">
       <c r="G941"/>
       <c r="H941"/>
     </row>
-    <row r="942" spans="7:8" s="26" customFormat="1">
+    <row r="942" spans="1:8" s="26" customFormat="1">
       <c r="G942"/>
       <c r="H942"/>
     </row>
-    <row r="943" spans="7:8" s="26" customFormat="1">
+    <row r="943" spans="1:8" s="26" customFormat="1">
       <c r="G943"/>
       <c r="H943"/>
     </row>
-    <row r="944" spans="7:8" s="26" customFormat="1">
+    <row r="944" spans="1:8" s="26" customFormat="1">
       <c r="G944"/>
       <c r="H944"/>
     </row>
@@ -30874,9 +30972,9 @@
       <c r="G955"/>
       <c r="H955"/>
     </row>
-    <row r="956" spans="6:10">
-      <c r="F956" s="26"/>
-      <c r="J956" s="26"/>
+    <row r="956" spans="6:10" s="26" customFormat="1">
+      <c r="G956"/>
+      <c r="H956"/>
     </row>
     <row r="957" spans="6:10">
       <c r="F957" s="26"/>
@@ -30888,6 +30986,7 @@
     </row>
     <row r="959" spans="6:10">
       <c r="F959" s="26"/>
+      <c r="J959" s="26"/>
     </row>
     <row r="960" spans="6:10">
       <c r="F960" s="26"/>
@@ -30897,17 +30996,20 @@
     </row>
     <row r="962" spans="6:6">
       <c r="F962" s="26"/>
+    </row>
+    <row r="963" spans="6:6">
+      <c r="F963" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="7">
-    <mergeCell ref="D909:E909"/>
     <mergeCell ref="D910:E910"/>
+    <mergeCell ref="D911:E911"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A901:F901"/>
-    <mergeCell ref="G901:H901"/>
-    <mergeCell ref="D906:E906"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="G902:H902"/>
     <mergeCell ref="D907:E907"/>
+    <mergeCell ref="D908:E908"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
+++ b/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
@@ -6184,7 +6184,7 @@
   <dimension ref="A1:J963"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A897" workbookViewId="0">
-      <selection activeCell="G903" sqref="G903"/>
+      <selection activeCell="H901" sqref="H901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
+++ b/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="1828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1828">
   <si>
     <t>JOSEPH BLUE METAL</t>
   </si>
@@ -6183,8 +6183,8 @@
   </sheetPr>
   <dimension ref="A1:J963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A897" workbookViewId="0">
-      <selection activeCell="H901" sqref="H901"/>
+    <sheetView tabSelected="1" topLeftCell="A903" workbookViewId="0">
+      <selection activeCell="E917" sqref="E917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30633,7 +30633,7 @@
       <c r="C908" s="44"/>
       <c r="D908" s="50">
         <f>G902-D911</f>
-        <v>3375600</v>
+        <v>3225600</v>
       </c>
       <c r="E908" s="51"/>
       <c r="F908" s="45"/>
@@ -30662,7 +30662,7 @@
       <c r="C911" s="44"/>
       <c r="D911" s="50">
         <f>SUM(D914:D927)</f>
-        <v>916800</v>
+        <v>1066800</v>
       </c>
       <c r="E911" s="51"/>
       <c r="F911" s="45"/>
@@ -30781,10 +30781,19 @@
     </row>
     <row r="919" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A919" s="43"/>
-      <c r="B919" s="7"/>
-      <c r="C919" s="7"/>
-      <c r="D919" s="7"/>
-      <c r="E919" s="7"/>
+      <c r="B919" s="8">
+        <v>45998</v>
+      </c>
+      <c r="C919" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D919" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E919" s="7">
+        <f>ABS(D919-E918)</f>
+        <v>3225600</v>
+      </c>
       <c r="F919" s="45"/>
       <c r="H919"/>
     </row>
@@ -31013,6 +31022,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B915:B918" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
+++ b/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1828">
   <si>
     <t>JOSEPH BLUE METAL</t>
   </si>
@@ -6183,8 +6183,8 @@
   </sheetPr>
   <dimension ref="A1:J963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A903" workbookViewId="0">
-      <selection activeCell="E917" sqref="E917"/>
+    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
+      <selection activeCell="D915" sqref="D915:D920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30633,7 +30633,7 @@
       <c r="C908" s="44"/>
       <c r="D908" s="50">
         <f>G902-D911</f>
-        <v>3225600</v>
+        <v>3075600</v>
       </c>
       <c r="E908" s="51"/>
       <c r="F908" s="45"/>
@@ -30662,7 +30662,7 @@
       <c r="C911" s="44"/>
       <c r="D911" s="50">
         <f>SUM(D914:D927)</f>
-        <v>1066800</v>
+        <v>1216800</v>
       </c>
       <c r="E911" s="51"/>
       <c r="F911" s="45"/>
@@ -30799,10 +30799,19 @@
     </row>
     <row r="920" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A920" s="43"/>
-      <c r="B920" s="7"/>
-      <c r="C920" s="7"/>
-      <c r="D920" s="7"/>
-      <c r="E920" s="7"/>
+      <c r="B920" s="8">
+        <v>46005</v>
+      </c>
+      <c r="C920" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D920" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E920" s="7">
+        <f>ABS(D920-E919)</f>
+        <v>3075600</v>
+      </c>
       <c r="F920" s="45"/>
       <c r="H920"/>
     </row>

--- a/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
+++ b/PASS/JOSEPH/JOSEPH BLUE METALS PASS 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4227" uniqueCount="1834">
   <si>
     <t>JOSEPH BLUE METAL</t>
   </si>
@@ -5500,13 +5500,31 @@
   </si>
   <si>
     <t>TSPS02577147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                KJJ-JOSEPH BLUE METALS</t>
+  </si>
+  <si>
+    <t>TN05022630</t>
+  </si>
+  <si>
+    <t>TN05022631</t>
+  </si>
+  <si>
+    <t>DISP000005233274</t>
+  </si>
+  <si>
+    <t>DISP000005233294</t>
+  </si>
+  <si>
+    <t>TNVN0054 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5591,6 +5609,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5606,7 +5644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5759,6 +5797,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5774,7 +5825,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5815,14 +5866,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5844,11 +5892,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5867,10 +5926,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6181,10 +6246,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J963"/>
+  <dimension ref="A1:J966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
-      <selection activeCell="D915" sqref="D915:D920"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A911" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G921" sqref="G921"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6200,16 +6266,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -17608,7 +17674,7 @@
       <c r="A424" s="7">
         <v>422</v>
       </c>
-      <c r="B424" s="31" t="s">
+      <c r="B424" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C424" s="7" t="s">
@@ -17635,7 +17701,7 @@
       <c r="A425" s="7">
         <v>423</v>
       </c>
-      <c r="B425" s="31" t="s">
+      <c r="B425" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C425" s="7" t="s">
@@ -17662,7 +17728,7 @@
       <c r="A426" s="7">
         <v>424</v>
       </c>
-      <c r="B426" s="31" t="s">
+      <c r="B426" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C426" s="7" t="s">
@@ -17689,7 +17755,7 @@
       <c r="A427" s="7">
         <v>425</v>
       </c>
-      <c r="B427" s="31" t="s">
+      <c r="B427" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C427" s="7" t="s">
@@ -17716,7 +17782,7 @@
       <c r="A428" s="7">
         <v>426</v>
       </c>
-      <c r="B428" s="31" t="s">
+      <c r="B428" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C428" s="7" t="s">
@@ -17743,7 +17809,7 @@
       <c r="A429" s="7">
         <v>427</v>
       </c>
-      <c r="B429" s="31" t="s">
+      <c r="B429" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C429" s="7" t="s">
@@ -17770,7 +17836,7 @@
       <c r="A430" s="7">
         <v>428</v>
       </c>
-      <c r="B430" s="31" t="s">
+      <c r="B430" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C430" s="7" t="s">
@@ -17797,7 +17863,7 @@
       <c r="A431" s="7">
         <v>429</v>
       </c>
-      <c r="B431" s="31" t="s">
+      <c r="B431" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C431" s="7" t="s">
@@ -17824,7 +17890,7 @@
       <c r="A432" s="7">
         <v>430</v>
       </c>
-      <c r="B432" s="31" t="s">
+      <c r="B432" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C432" s="7" t="s">
@@ -17851,7 +17917,7 @@
       <c r="A433" s="7">
         <v>431</v>
       </c>
-      <c r="B433" s="31" t="s">
+      <c r="B433" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C433" s="7" t="s">
@@ -17878,7 +17944,7 @@
       <c r="A434" s="7">
         <v>432</v>
       </c>
-      <c r="B434" s="31" t="s">
+      <c r="B434" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C434" s="7" t="s">
@@ -17905,7 +17971,7 @@
       <c r="A435" s="7">
         <v>433</v>
       </c>
-      <c r="B435" s="31" t="s">
+      <c r="B435" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C435" s="7" t="s">
@@ -17932,7 +17998,7 @@
       <c r="A436" s="7">
         <v>434</v>
       </c>
-      <c r="B436" s="31" t="s">
+      <c r="B436" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C436" s="7" t="s">
@@ -17959,7 +18025,7 @@
       <c r="A437" s="7">
         <v>435</v>
       </c>
-      <c r="B437" s="31" t="s">
+      <c r="B437" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C437" s="7" t="s">
@@ -17986,7 +18052,7 @@
       <c r="A438" s="7">
         <v>436</v>
       </c>
-      <c r="B438" s="31" t="s">
+      <c r="B438" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C438" s="7" t="s">
@@ -18013,7 +18079,7 @@
       <c r="A439" s="7">
         <v>437</v>
       </c>
-      <c r="B439" s="31" t="s">
+      <c r="B439" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C439" s="7" t="s">
@@ -18040,7 +18106,7 @@
       <c r="A440" s="7">
         <v>438</v>
       </c>
-      <c r="B440" s="31" t="s">
+      <c r="B440" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C440" s="7" t="s">
@@ -18067,7 +18133,7 @@
       <c r="A441" s="7">
         <v>439</v>
       </c>
-      <c r="B441" s="31" t="s">
+      <c r="B441" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C441" s="7" t="s">
@@ -18094,7 +18160,7 @@
       <c r="A442" s="7">
         <v>440</v>
       </c>
-      <c r="B442" s="31" t="s">
+      <c r="B442" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C442" s="7" t="s">
@@ -18121,7 +18187,7 @@
       <c r="A443" s="7">
         <v>441</v>
       </c>
-      <c r="B443" s="31" t="s">
+      <c r="B443" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C443" s="7" t="s">
@@ -18148,7 +18214,7 @@
       <c r="A444" s="7">
         <v>442</v>
       </c>
-      <c r="B444" s="31" t="s">
+      <c r="B444" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C444" s="7" t="s">
@@ -18175,7 +18241,7 @@
       <c r="A445" s="7">
         <v>443</v>
       </c>
-      <c r="B445" s="31" t="s">
+      <c r="B445" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C445" s="7" t="s">
@@ -18202,7 +18268,7 @@
       <c r="A446" s="7">
         <v>444</v>
       </c>
-      <c r="B446" s="31" t="s">
+      <c r="B446" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C446" s="7" t="s">
@@ -18229,7 +18295,7 @@
       <c r="A447" s="7">
         <v>445</v>
       </c>
-      <c r="B447" s="31" t="s">
+      <c r="B447" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C447" s="7" t="s">
@@ -18256,7 +18322,7 @@
       <c r="A448" s="7">
         <v>446</v>
       </c>
-      <c r="B448" s="31" t="s">
+      <c r="B448" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C448" s="7" t="s">
@@ -18283,7 +18349,7 @@
       <c r="A449" s="7">
         <v>447</v>
       </c>
-      <c r="B449" s="31" t="s">
+      <c r="B449" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C449" s="7" t="s">
@@ -18310,7 +18376,7 @@
       <c r="A450" s="7">
         <v>448</v>
       </c>
-      <c r="B450" s="31" t="s">
+      <c r="B450" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C450" s="7" t="s">
@@ -18337,7 +18403,7 @@
       <c r="A451" s="7">
         <v>449</v>
       </c>
-      <c r="B451" s="31" t="s">
+      <c r="B451" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C451" s="7" t="s">
@@ -18364,7 +18430,7 @@
       <c r="A452" s="7">
         <v>450</v>
       </c>
-      <c r="B452" s="31" t="s">
+      <c r="B452" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C452" s="7" t="s">
@@ -18391,7 +18457,7 @@
       <c r="A453" s="7">
         <v>451</v>
       </c>
-      <c r="B453" s="31" t="s">
+      <c r="B453" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C453" s="7" t="s">
@@ -18418,7 +18484,7 @@
       <c r="A454" s="7">
         <v>452</v>
       </c>
-      <c r="B454" s="31" t="s">
+      <c r="B454" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C454" s="7" t="s">
@@ -18445,7 +18511,7 @@
       <c r="A455" s="7">
         <v>453</v>
       </c>
-      <c r="B455" s="31" t="s">
+      <c r="B455" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C455" s="7" t="s">
@@ -18472,7 +18538,7 @@
       <c r="A456" s="7">
         <v>454</v>
       </c>
-      <c r="B456" s="31" t="s">
+      <c r="B456" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C456" s="7" t="s">
@@ -18499,7 +18565,7 @@
       <c r="A457" s="7">
         <v>455</v>
       </c>
-      <c r="B457" s="31" t="s">
+      <c r="B457" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C457" s="7" t="s">
@@ -18526,7 +18592,7 @@
       <c r="A458" s="7">
         <v>456</v>
       </c>
-      <c r="B458" s="31" t="s">
+      <c r="B458" s="30" t="s">
         <v>766</v>
       </c>
       <c r="C458" s="7" t="s">
@@ -18553,7 +18619,7 @@
       <c r="A459" s="7">
         <v>457</v>
       </c>
-      <c r="B459" s="31" t="s">
+      <c r="B459" s="30" t="s">
         <v>929</v>
       </c>
       <c r="C459" s="7" t="s">
@@ -18580,7 +18646,7 @@
       <c r="A460" s="7">
         <v>458</v>
       </c>
-      <c r="B460" s="30" t="s">
+      <c r="B460" s="29" t="s">
         <v>942</v>
       </c>
       <c r="C460" s="7" t="s">
@@ -18607,7 +18673,7 @@
       <c r="A461" s="7">
         <v>459</v>
       </c>
-      <c r="B461" s="30" t="s">
+      <c r="B461" s="29" t="s">
         <v>942</v>
       </c>
       <c r="C461" s="7" t="s">
@@ -18634,7 +18700,7 @@
       <c r="A462" s="7">
         <v>460</v>
       </c>
-      <c r="B462" s="30" t="s">
+      <c r="B462" s="29" t="s">
         <v>942</v>
       </c>
       <c r="C462" s="7" t="s">
@@ -18661,7 +18727,7 @@
       <c r="A463" s="7">
         <v>461</v>
       </c>
-      <c r="B463" s="30" t="s">
+      <c r="B463" s="29" t="s">
         <v>942</v>
       </c>
       <c r="C463" s="7" t="s">
@@ -18688,7 +18754,7 @@
       <c r="A464" s="7">
         <v>462</v>
       </c>
-      <c r="B464" s="30" t="s">
+      <c r="B464" s="29" t="s">
         <v>942</v>
       </c>
       <c r="C464" s="7" t="s">
@@ -18715,7 +18781,7 @@
       <c r="A465" s="7">
         <v>463</v>
       </c>
-      <c r="B465" s="30" t="s">
+      <c r="B465" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C465" s="7" t="s">
@@ -18742,7 +18808,7 @@
       <c r="A466" s="7">
         <v>464</v>
       </c>
-      <c r="B466" s="30" t="s">
+      <c r="B466" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C466" s="7" t="s">
@@ -18769,7 +18835,7 @@
       <c r="A467" s="7">
         <v>465</v>
       </c>
-      <c r="B467" s="30" t="s">
+      <c r="B467" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C467" s="7" t="s">
@@ -18796,7 +18862,7 @@
       <c r="A468" s="7">
         <v>466</v>
       </c>
-      <c r="B468" s="30" t="s">
+      <c r="B468" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C468" s="7" t="s">
@@ -18823,7 +18889,7 @@
       <c r="A469" s="7">
         <v>467</v>
       </c>
-      <c r="B469" s="30" t="s">
+      <c r="B469" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C469" s="7" t="s">
@@ -18850,7 +18916,7 @@
       <c r="A470" s="7">
         <v>468</v>
       </c>
-      <c r="B470" s="30" t="s">
+      <c r="B470" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C470" s="7" t="s">
@@ -18877,7 +18943,7 @@
       <c r="A471" s="7">
         <v>469</v>
       </c>
-      <c r="B471" s="30" t="s">
+      <c r="B471" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C471" s="7" t="s">
@@ -18904,7 +18970,7 @@
       <c r="A472" s="7">
         <v>470</v>
       </c>
-      <c r="B472" s="30" t="s">
+      <c r="B472" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C472" s="7" t="s">
@@ -18931,7 +18997,7 @@
       <c r="A473" s="7">
         <v>471</v>
       </c>
-      <c r="B473" s="30" t="s">
+      <c r="B473" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C473" s="7" t="s">
@@ -18958,7 +19024,7 @@
       <c r="A474" s="7">
         <v>472</v>
       </c>
-      <c r="B474" s="30" t="s">
+      <c r="B474" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C474" s="7" t="s">
@@ -18985,7 +19051,7 @@
       <c r="A475" s="7">
         <v>473</v>
       </c>
-      <c r="B475" s="30" t="s">
+      <c r="B475" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C475" s="7" t="s">
@@ -19012,7 +19078,7 @@
       <c r="A476" s="7">
         <v>474</v>
       </c>
-      <c r="B476" s="30" t="s">
+      <c r="B476" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C476" s="7" t="s">
@@ -19039,7 +19105,7 @@
       <c r="A477" s="7">
         <v>475</v>
       </c>
-      <c r="B477" s="30" t="s">
+      <c r="B477" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C477" s="7" t="s">
@@ -19066,7 +19132,7 @@
       <c r="A478" s="7">
         <v>476</v>
       </c>
-      <c r="B478" s="30" t="s">
+      <c r="B478" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C478" s="7" t="s">
@@ -19093,7 +19159,7 @@
       <c r="A479" s="7">
         <v>477</v>
       </c>
-      <c r="B479" s="30" t="s">
+      <c r="B479" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C479" s="7" t="s">
@@ -19120,7 +19186,7 @@
       <c r="A480" s="7">
         <v>478</v>
       </c>
-      <c r="B480" s="30" t="s">
+      <c r="B480" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C480" s="7" t="s">
@@ -19147,7 +19213,7 @@
       <c r="A481" s="7">
         <v>479</v>
       </c>
-      <c r="B481" s="30" t="s">
+      <c r="B481" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C481" s="7" t="s">
@@ -19174,7 +19240,7 @@
       <c r="A482" s="7">
         <v>480</v>
       </c>
-      <c r="B482" s="30" t="s">
+      <c r="B482" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C482" s="7" t="s">
@@ -19201,7 +19267,7 @@
       <c r="A483" s="7">
         <v>481</v>
       </c>
-      <c r="B483" s="30" t="s">
+      <c r="B483" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C483" s="7" t="s">
@@ -19228,7 +19294,7 @@
       <c r="A484" s="7">
         <v>482</v>
       </c>
-      <c r="B484" s="30" t="s">
+      <c r="B484" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C484" s="7" t="s">
@@ -19255,7 +19321,7 @@
       <c r="A485" s="7">
         <v>483</v>
       </c>
-      <c r="B485" s="30" t="s">
+      <c r="B485" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C485" s="7" t="s">
@@ -19282,7 +19348,7 @@
       <c r="A486" s="7">
         <v>484</v>
       </c>
-      <c r="B486" s="30" t="s">
+      <c r="B486" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C486" s="7" t="s">
@@ -19309,7 +19375,7 @@
       <c r="A487" s="7">
         <v>485</v>
       </c>
-      <c r="B487" s="30" t="s">
+      <c r="B487" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C487" s="7" t="s">
@@ -19336,7 +19402,7 @@
       <c r="A488" s="7">
         <v>486</v>
       </c>
-      <c r="B488" s="30" t="s">
+      <c r="B488" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C488" s="7" t="s">
@@ -19363,7 +19429,7 @@
       <c r="A489" s="7">
         <v>487</v>
       </c>
-      <c r="B489" s="30" t="s">
+      <c r="B489" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C489" s="7" t="s">
@@ -19390,7 +19456,7 @@
       <c r="A490" s="7">
         <v>488</v>
       </c>
-      <c r="B490" s="30" t="s">
+      <c r="B490" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C490" s="7" t="s">
@@ -19417,7 +19483,7 @@
       <c r="A491" s="7">
         <v>489</v>
       </c>
-      <c r="B491" s="30" t="s">
+      <c r="B491" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C491" s="7" t="s">
@@ -19444,7 +19510,7 @@
       <c r="A492" s="7">
         <v>490</v>
       </c>
-      <c r="B492" s="30" t="s">
+      <c r="B492" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C492" s="7" t="s">
@@ -19471,7 +19537,7 @@
       <c r="A493" s="7">
         <v>491</v>
       </c>
-      <c r="B493" s="30" t="s">
+      <c r="B493" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C493" s="7" t="s">
@@ -19498,7 +19564,7 @@
       <c r="A494" s="7">
         <v>492</v>
       </c>
-      <c r="B494" s="30" t="s">
+      <c r="B494" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C494" s="7" t="s">
@@ -19525,7 +19591,7 @@
       <c r="A495" s="7">
         <v>493</v>
       </c>
-      <c r="B495" s="30" t="s">
+      <c r="B495" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C495" s="7" t="s">
@@ -19552,7 +19618,7 @@
       <c r="A496" s="7">
         <v>494</v>
       </c>
-      <c r="B496" s="30" t="s">
+      <c r="B496" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C496" s="7" t="s">
@@ -19579,7 +19645,7 @@
       <c r="A497" s="7">
         <v>495</v>
       </c>
-      <c r="B497" s="30" t="s">
+      <c r="B497" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C497" s="7" t="s">
@@ -19606,7 +19672,7 @@
       <c r="A498" s="7">
         <v>496</v>
       </c>
-      <c r="B498" s="30" t="s">
+      <c r="B498" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C498" s="7" t="s">
@@ -19633,7 +19699,7 @@
       <c r="A499" s="7">
         <v>497</v>
       </c>
-      <c r="B499" s="30" t="s">
+      <c r="B499" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C499" s="7" t="s">
@@ -19660,7 +19726,7 @@
       <c r="A500" s="7">
         <v>498</v>
       </c>
-      <c r="B500" s="30" t="s">
+      <c r="B500" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C500" s="7" t="s">
@@ -19687,7 +19753,7 @@
       <c r="A501" s="7">
         <v>499</v>
       </c>
-      <c r="B501" s="30" t="s">
+      <c r="B501" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C501" s="7" t="s">
@@ -19714,7 +19780,7 @@
       <c r="A502" s="7">
         <v>500</v>
       </c>
-      <c r="B502" s="30" t="s">
+      <c r="B502" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C502" s="7" t="s">
@@ -19741,7 +19807,7 @@
       <c r="A503" s="7">
         <v>501</v>
       </c>
-      <c r="B503" s="30" t="s">
+      <c r="B503" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C503" s="7" t="s">
@@ -19768,7 +19834,7 @@
       <c r="A504" s="7">
         <v>502</v>
       </c>
-      <c r="B504" s="30" t="s">
+      <c r="B504" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C504" s="7" t="s">
@@ -19795,7 +19861,7 @@
       <c r="A505" s="7">
         <v>503</v>
       </c>
-      <c r="B505" s="30" t="s">
+      <c r="B505" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C505" s="7" t="s">
@@ -19822,7 +19888,7 @@
       <c r="A506" s="7">
         <v>504</v>
       </c>
-      <c r="B506" s="30" t="s">
+      <c r="B506" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C506" s="7" t="s">
@@ -19849,7 +19915,7 @@
       <c r="A507" s="7">
         <v>505</v>
       </c>
-      <c r="B507" s="30" t="s">
+      <c r="B507" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C507" s="7" t="s">
@@ -19877,7 +19943,7 @@
       <c r="A508" s="7">
         <v>506</v>
       </c>
-      <c r="B508" s="30" t="s">
+      <c r="B508" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C508" s="7" t="s">
@@ -19905,7 +19971,7 @@
       <c r="A509" s="7">
         <v>507</v>
       </c>
-      <c r="B509" s="30" t="s">
+      <c r="B509" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C509" s="7" t="s">
@@ -19933,7 +19999,7 @@
       <c r="A510" s="7">
         <v>508</v>
       </c>
-      <c r="B510" s="30" t="s">
+      <c r="B510" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C510" s="7" t="s">
@@ -19961,7 +20027,7 @@
       <c r="A511" s="7">
         <v>509</v>
       </c>
-      <c r="B511" s="30" t="s">
+      <c r="B511" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C511" s="7" t="s">
@@ -19989,7 +20055,7 @@
       <c r="A512" s="7">
         <v>510</v>
       </c>
-      <c r="B512" s="30" t="s">
+      <c r="B512" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C512" s="7" t="s">
@@ -20017,7 +20083,7 @@
       <c r="A513" s="7">
         <v>511</v>
       </c>
-      <c r="B513" s="30" t="s">
+      <c r="B513" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C513" s="7" t="s">
@@ -20045,7 +20111,7 @@
       <c r="A514" s="7">
         <v>512</v>
       </c>
-      <c r="B514" s="30" t="s">
+      <c r="B514" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C514" s="7" t="s">
@@ -20073,7 +20139,7 @@
       <c r="A515" s="7">
         <v>513</v>
       </c>
-      <c r="B515" s="30" t="s">
+      <c r="B515" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C515" s="7" t="s">
@@ -20101,7 +20167,7 @@
       <c r="A516" s="7">
         <v>514</v>
       </c>
-      <c r="B516" s="30" t="s">
+      <c r="B516" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C516" s="7" t="s">
@@ -20129,7 +20195,7 @@
       <c r="A517" s="7">
         <v>515</v>
       </c>
-      <c r="B517" s="30" t="s">
+      <c r="B517" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C517" s="7" t="s">
@@ -20157,7 +20223,7 @@
       <c r="A518" s="7">
         <v>516</v>
       </c>
-      <c r="B518" s="30" t="s">
+      <c r="B518" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C518" s="7" t="s">
@@ -20185,7 +20251,7 @@
       <c r="A519" s="7">
         <v>517</v>
       </c>
-      <c r="B519" s="30" t="s">
+      <c r="B519" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C519" s="7" t="s">
@@ -20213,7 +20279,7 @@
       <c r="A520" s="7">
         <v>518</v>
       </c>
-      <c r="B520" s="30" t="s">
+      <c r="B520" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C520" s="7" t="s">
@@ -20241,7 +20307,7 @@
       <c r="A521" s="7">
         <v>519</v>
       </c>
-      <c r="B521" s="30" t="s">
+      <c r="B521" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C521" s="7" t="s">
@@ -20269,7 +20335,7 @@
       <c r="A522" s="7">
         <v>520</v>
       </c>
-      <c r="B522" s="30" t="s">
+      <c r="B522" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C522" s="7" t="s">
@@ -20297,7 +20363,7 @@
       <c r="A523" s="7">
         <v>521</v>
       </c>
-      <c r="B523" s="30" t="s">
+      <c r="B523" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C523" s="7" t="s">
@@ -20325,7 +20391,7 @@
       <c r="A524" s="7">
         <v>522</v>
       </c>
-      <c r="B524" s="30" t="s">
+      <c r="B524" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C524" s="7" t="s">
@@ -20353,7 +20419,7 @@
       <c r="A525" s="7">
         <v>523</v>
       </c>
-      <c r="B525" s="30" t="s">
+      <c r="B525" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C525" s="7" t="s">
@@ -20380,7 +20446,7 @@
       <c r="A526" s="7">
         <v>524</v>
       </c>
-      <c r="B526" s="30" t="s">
+      <c r="B526" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C526" s="7" t="s">
@@ -20407,7 +20473,7 @@
       <c r="A527" s="7">
         <v>525</v>
       </c>
-      <c r="B527" s="30" t="s">
+      <c r="B527" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C527" s="7" t="s">
@@ -20434,7 +20500,7 @@
       <c r="A528" s="7">
         <v>526</v>
       </c>
-      <c r="B528" s="30" t="s">
+      <c r="B528" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C528" s="7" t="s">
@@ -20461,7 +20527,7 @@
       <c r="A529" s="7">
         <v>527</v>
       </c>
-      <c r="B529" s="30" t="s">
+      <c r="B529" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C529" s="7" t="s">
@@ -20488,7 +20554,7 @@
       <c r="A530" s="7">
         <v>528</v>
       </c>
-      <c r="B530" s="30" t="s">
+      <c r="B530" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C530" s="7" t="s">
@@ -20515,7 +20581,7 @@
       <c r="A531" s="7">
         <v>529</v>
       </c>
-      <c r="B531" s="30" t="s">
+      <c r="B531" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C531" s="7" t="s">
@@ -20542,7 +20608,7 @@
       <c r="A532" s="7">
         <v>530</v>
       </c>
-      <c r="B532" s="30" t="s">
+      <c r="B532" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C532" s="7" t="s">
@@ -20569,7 +20635,7 @@
       <c r="A533" s="7">
         <v>531</v>
       </c>
-      <c r="B533" s="30" t="s">
+      <c r="B533" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C533" s="7" t="s">
@@ -20596,7 +20662,7 @@
       <c r="A534" s="7">
         <v>532</v>
       </c>
-      <c r="B534" s="30" t="s">
+      <c r="B534" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C534" s="7" t="s">
@@ -20623,7 +20689,7 @@
       <c r="A535" s="7">
         <v>533</v>
       </c>
-      <c r="B535" s="30" t="s">
+      <c r="B535" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C535" s="7" t="s">
@@ -20650,7 +20716,7 @@
       <c r="A536" s="7">
         <v>534</v>
       </c>
-      <c r="B536" s="30" t="s">
+      <c r="B536" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C536" s="7" t="s">
@@ -20677,7 +20743,7 @@
       <c r="A537" s="7">
         <v>535</v>
       </c>
-      <c r="B537" s="30" t="s">
+      <c r="B537" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C537" s="7" t="s">
@@ -20704,7 +20770,7 @@
       <c r="A538" s="7">
         <v>536</v>
       </c>
-      <c r="B538" s="30" t="s">
+      <c r="B538" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C538" s="7" t="s">
@@ -20731,7 +20797,7 @@
       <c r="A539" s="7">
         <v>537</v>
       </c>
-      <c r="B539" s="30" t="s">
+      <c r="B539" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C539" s="7" t="s">
@@ -20758,7 +20824,7 @@
       <c r="A540" s="7">
         <v>538</v>
       </c>
-      <c r="B540" s="30" t="s">
+      <c r="B540" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C540" s="7" t="s">
@@ -20785,7 +20851,7 @@
       <c r="A541" s="7">
         <v>539</v>
       </c>
-      <c r="B541" s="30" t="s">
+      <c r="B541" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C541" s="7" t="s">
@@ -20813,7 +20879,7 @@
       <c r="A542" s="7">
         <v>540</v>
       </c>
-      <c r="B542" s="30" t="s">
+      <c r="B542" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C542" s="7" t="s">
@@ -20841,7 +20907,7 @@
       <c r="A543" s="7">
         <v>541</v>
       </c>
-      <c r="B543" s="30" t="s">
+      <c r="B543" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C543" s="7" t="s">
@@ -20869,7 +20935,7 @@
       <c r="A544" s="7">
         <v>542</v>
       </c>
-      <c r="B544" s="30" t="s">
+      <c r="B544" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C544" s="7" t="s">
@@ -20897,7 +20963,7 @@
       <c r="A545" s="7">
         <v>543</v>
       </c>
-      <c r="B545" s="30" t="s">
+      <c r="B545" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C545" s="7" t="s">
@@ -20925,7 +20991,7 @@
       <c r="A546" s="7">
         <v>544</v>
       </c>
-      <c r="B546" s="30" t="s">
+      <c r="B546" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C546" s="7" t="s">
@@ -20953,7 +21019,7 @@
       <c r="A547" s="7">
         <v>545</v>
       </c>
-      <c r="B547" s="30" t="s">
+      <c r="B547" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C547" s="7" t="s">
@@ -20981,7 +21047,7 @@
       <c r="A548" s="7">
         <v>546</v>
       </c>
-      <c r="B548" s="30" t="s">
+      <c r="B548" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C548" s="7" t="s">
@@ -21009,7 +21075,7 @@
       <c r="A549" s="7">
         <v>547</v>
       </c>
-      <c r="B549" s="30" t="s">
+      <c r="B549" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C549" s="7" t="s">
@@ -21037,7 +21103,7 @@
       <c r="A550" s="7">
         <v>548</v>
       </c>
-      <c r="B550" s="30" t="s">
+      <c r="B550" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C550" s="7" t="s">
@@ -21065,7 +21131,7 @@
       <c r="A551" s="7">
         <v>549</v>
       </c>
-      <c r="B551" s="30" t="s">
+      <c r="B551" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C551" s="7" t="s">
@@ -21093,7 +21159,7 @@
       <c r="A552" s="7">
         <v>550</v>
       </c>
-      <c r="B552" s="30" t="s">
+      <c r="B552" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C552" s="7" t="s">
@@ -21121,7 +21187,7 @@
       <c r="A553" s="7">
         <v>551</v>
       </c>
-      <c r="B553" s="30" t="s">
+      <c r="B553" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C553" s="7" t="s">
@@ -21149,7 +21215,7 @@
       <c r="A554" s="7">
         <v>552</v>
       </c>
-      <c r="B554" s="30" t="s">
+      <c r="B554" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C554" s="7" t="s">
@@ -21177,7 +21243,7 @@
       <c r="A555" s="7">
         <v>553</v>
       </c>
-      <c r="B555" s="30" t="s">
+      <c r="B555" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C555" s="7" t="s">
@@ -21205,7 +21271,7 @@
       <c r="A556" s="7">
         <v>554</v>
       </c>
-      <c r="B556" s="30" t="s">
+      <c r="B556" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C556" s="7" t="s">
@@ -21233,7 +21299,7 @@
       <c r="A557" s="7">
         <v>555</v>
       </c>
-      <c r="B557" s="30" t="s">
+      <c r="B557" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C557" s="7" t="s">
@@ -21261,7 +21327,7 @@
       <c r="A558" s="7">
         <v>556</v>
       </c>
-      <c r="B558" s="30" t="s">
+      <c r="B558" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C558" s="7" t="s">
@@ -21289,7 +21355,7 @@
       <c r="A559" s="7">
         <v>557</v>
       </c>
-      <c r="B559" s="30" t="s">
+      <c r="B559" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C559" s="7" t="s">
@@ -21317,7 +21383,7 @@
       <c r="A560" s="7">
         <v>558</v>
       </c>
-      <c r="B560" s="30" t="s">
+      <c r="B560" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C560" s="7" t="s">
@@ -21345,7 +21411,7 @@
       <c r="A561" s="7">
         <v>559</v>
       </c>
-      <c r="B561" s="30" t="s">
+      <c r="B561" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C561" s="7" t="s">
@@ -21373,7 +21439,7 @@
       <c r="A562" s="7">
         <v>560</v>
       </c>
-      <c r="B562" s="30" t="s">
+      <c r="B562" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C562" s="7" t="s">
@@ -21401,7 +21467,7 @@
       <c r="A563" s="7">
         <v>561</v>
       </c>
-      <c r="B563" s="30" t="s">
+      <c r="B563" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C563" s="7" t="s">
@@ -21429,7 +21495,7 @@
       <c r="A564" s="7">
         <v>562</v>
       </c>
-      <c r="B564" s="30" t="s">
+      <c r="B564" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C564" s="7" t="s">
@@ -21457,7 +21523,7 @@
       <c r="A565" s="7">
         <v>563</v>
       </c>
-      <c r="B565" s="30" t="s">
+      <c r="B565" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C565" s="7" t="s">
@@ -21485,7 +21551,7 @@
       <c r="A566" s="7">
         <v>564</v>
       </c>
-      <c r="B566" s="30" t="s">
+      <c r="B566" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C566" s="7" t="s">
@@ -21513,7 +21579,7 @@
       <c r="A567" s="7">
         <v>565</v>
       </c>
-      <c r="B567" s="30" t="s">
+      <c r="B567" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C567" s="7" t="s">
@@ -21541,7 +21607,7 @@
       <c r="A568" s="7">
         <v>566</v>
       </c>
-      <c r="B568" s="30" t="s">
+      <c r="B568" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C568" s="7" t="s">
@@ -21569,7 +21635,7 @@
       <c r="A569" s="7">
         <v>567</v>
       </c>
-      <c r="B569" s="30" t="s">
+      <c r="B569" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C569" s="7" t="s">
@@ -21597,7 +21663,7 @@
       <c r="A570" s="7">
         <v>568</v>
       </c>
-      <c r="B570" s="30" t="s">
+      <c r="B570" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C570" s="7" t="s">
@@ -21625,7 +21691,7 @@
       <c r="A571" s="7">
         <v>569</v>
       </c>
-      <c r="B571" s="30" t="s">
+      <c r="B571" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C571" s="7" t="s">
@@ -21653,7 +21719,7 @@
       <c r="A572" s="7">
         <v>570</v>
       </c>
-      <c r="B572" s="30" t="s">
+      <c r="B572" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C572" s="7" t="s">
@@ -21680,7 +21746,7 @@
       <c r="A573" s="7">
         <v>571</v>
       </c>
-      <c r="B573" s="30" t="s">
+      <c r="B573" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C573" s="7" t="s">
@@ -21707,7 +21773,7 @@
       <c r="A574" s="7">
         <v>572</v>
       </c>
-      <c r="B574" s="30" t="s">
+      <c r="B574" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C574" s="7" t="s">
@@ -21734,7 +21800,7 @@
       <c r="A575" s="7">
         <v>573</v>
       </c>
-      <c r="B575" s="30" t="s">
+      <c r="B575" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C575" s="7" t="s">
@@ -21761,7 +21827,7 @@
       <c r="A576" s="7">
         <v>574</v>
       </c>
-      <c r="B576" s="30" t="s">
+      <c r="B576" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C576" s="7" t="s">
@@ -21788,7 +21854,7 @@
       <c r="A577" s="7">
         <v>575</v>
       </c>
-      <c r="B577" s="30" t="s">
+      <c r="B577" s="29" t="s">
         <v>983</v>
       </c>
       <c r="C577" s="7" t="s">
@@ -23816,7 +23882,7 @@
       <c r="B652" s="24" t="s">
         <v>1222</v>
       </c>
-      <c r="C652" s="33" t="s">
+      <c r="C652" s="32" t="s">
         <v>1273</v>
       </c>
       <c r="D652" s="7" t="s">
@@ -24383,7 +24449,7 @@
       <c r="B673" s="24" t="s">
         <v>1222</v>
       </c>
-      <c r="C673" s="33" t="s">
+      <c r="C673" s="32" t="s">
         <v>1363</v>
       </c>
       <c r="D673" s="7" t="s">
@@ -30343,7 +30409,7 @@
         <v>32</v>
       </c>
       <c r="H893" s="11">
-        <f t="shared" ref="H893:H901" si="14">G893+H892</f>
+        <f t="shared" ref="H893:H904" si="14">G893+H892</f>
         <v>28433</v>
       </c>
     </row>
@@ -30555,372 +30621,458 @@
       <c r="F901" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G901" s="7">
+      <c r="G901" s="28">
         <v>5</v>
       </c>
-      <c r="H901" s="11">
+      <c r="H901" s="47">
         <f t="shared" si="14"/>
         <v>28616</v>
       </c>
     </row>
-    <row r="902" spans="1:8" s="26" customFormat="1">
-      <c r="A902" s="55" t="s">
+    <row r="902" spans="1:8" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A902" s="68" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B902" s="69"/>
+      <c r="C902" s="69"/>
+      <c r="D902" s="69"/>
+      <c r="E902" s="69"/>
+      <c r="F902" s="69"/>
+      <c r="G902" s="50">
+        <v>0</v>
+      </c>
+      <c r="H902" s="51">
+        <f t="shared" si="14"/>
+        <v>28616</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A903" s="7">
+        <v>897</v>
+      </c>
+      <c r="B903" s="24">
+        <v>46003</v>
+      </c>
+      <c r="C903" s="7" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D903" s="46" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E903" s="7" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F903" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G903" s="48">
+        <v>9</v>
+      </c>
+      <c r="H903" s="49">
+        <f t="shared" si="14"/>
+        <v>28625</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" s="26" customFormat="1" ht="15.75">
+      <c r="A904" s="7">
+        <v>898</v>
+      </c>
+      <c r="B904" s="24">
+        <v>46003</v>
+      </c>
+      <c r="C904" s="7" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D904" s="46" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E904" s="7" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F904" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G904" s="7">
+        <v>9</v>
+      </c>
+      <c r="H904" s="11">
+        <f t="shared" si="14"/>
+        <v>28634</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" s="26" customFormat="1">
+      <c r="A905" s="63" t="s">
         <v>488</v>
       </c>
-      <c r="B902" s="56"/>
-      <c r="C902" s="56"/>
-      <c r="D902" s="56"/>
-      <c r="E902" s="56"/>
-      <c r="F902" s="57"/>
-      <c r="G902" s="58">
-        <f>150*H901</f>
-        <v>4292400</v>
-      </c>
-      <c r="H902" s="59"/>
-    </row>
-    <row r="903" spans="1:8" s="26" customFormat="1">
-      <c r="A903" s="37"/>
-      <c r="B903" s="37"/>
-      <c r="C903" s="37"/>
-      <c r="D903" s="37"/>
-      <c r="E903" s="37"/>
-      <c r="F903" s="37"/>
-      <c r="G903" s="38"/>
-      <c r="H903" s="38"/>
-    </row>
-    <row r="904" spans="1:8" s="26" customFormat="1">
-      <c r="A904" s="37"/>
-      <c r="B904" s="37"/>
-      <c r="C904" s="37"/>
-      <c r="D904" s="37"/>
-      <c r="E904" s="37"/>
-      <c r="F904" s="37"/>
-      <c r="G904" s="38"/>
-      <c r="H904" s="38"/>
-    </row>
-    <row r="905" spans="1:8" s="26" customFormat="1">
-      <c r="A905" s="40"/>
-      <c r="B905" s="41"/>
-      <c r="C905" s="41"/>
-      <c r="D905" s="41"/>
-      <c r="E905" s="41"/>
-      <c r="F905" s="42"/>
-      <c r="G905"/>
-      <c r="H905" s="38"/>
+      <c r="B905" s="64"/>
+      <c r="C905" s="64"/>
+      <c r="D905" s="64"/>
+      <c r="E905" s="64"/>
+      <c r="F905" s="65"/>
+      <c r="G905" s="66">
+        <f>150*H904</f>
+        <v>4295100</v>
+      </c>
+      <c r="H905" s="67"/>
     </row>
     <row r="906" spans="1:8" s="26" customFormat="1">
-      <c r="A906" s="43"/>
-      <c r="B906" s="44"/>
-      <c r="C906" s="44"/>
-      <c r="D906" s="44"/>
-      <c r="E906" s="44"/>
-      <c r="F906" s="45"/>
-      <c r="H906" s="38"/>
+      <c r="A906" s="34"/>
+      <c r="B906" s="34"/>
+      <c r="C906" s="34"/>
+      <c r="D906" s="34"/>
+      <c r="E906" s="34"/>
+      <c r="F906" s="34"/>
+      <c r="G906" s="35"/>
+      <c r="H906" s="35"/>
     </row>
     <row r="907" spans="1:8" s="26" customFormat="1">
-      <c r="A907" s="43"/>
-      <c r="B907" s="44"/>
-      <c r="C907" s="44"/>
-      <c r="D907" s="49" t="s">
+      <c r="A907" s="34"/>
+      <c r="B907" s="34"/>
+      <c r="C907" s="34"/>
+      <c r="D907" s="34"/>
+      <c r="E907" s="34"/>
+      <c r="F907" s="34"/>
+      <c r="G907" s="35"/>
+      <c r="H907" s="35"/>
+    </row>
+    <row r="908" spans="1:8" s="26" customFormat="1">
+      <c r="A908" s="37"/>
+      <c r="B908" s="38"/>
+      <c r="C908" s="38"/>
+      <c r="D908" s="38"/>
+      <c r="E908" s="38"/>
+      <c r="F908" s="39"/>
+      <c r="G908"/>
+      <c r="H908" s="35"/>
+    </row>
+    <row r="909" spans="1:8" s="26" customFormat="1">
+      <c r="A909" s="40"/>
+      <c r="B909" s="41"/>
+      <c r="C909" s="41"/>
+      <c r="D909" s="41"/>
+      <c r="E909" s="41"/>
+      <c r="F909" s="42"/>
+      <c r="H909" s="35"/>
+    </row>
+    <row r="910" spans="1:8" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A910" s="40"/>
+      <c r="B910" s="41"/>
+      <c r="C910" s="41"/>
+      <c r="D910" s="57" t="s">
         <v>1511</v>
       </c>
-      <c r="E907" s="49"/>
-      <c r="F907" s="45"/>
-    </row>
-    <row r="908" spans="1:8" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="A908" s="43"/>
-      <c r="B908" s="44"/>
-      <c r="C908" s="44"/>
-      <c r="D908" s="50">
-        <f>G902-D911</f>
-        <v>3075600</v>
-      </c>
-      <c r="E908" s="51"/>
-      <c r="F908" s="45"/>
-    </row>
-    <row r="909" spans="1:8" s="26" customFormat="1">
-      <c r="A909" s="43"/>
-      <c r="B909" s="44"/>
-      <c r="C909" s="44"/>
-      <c r="D909" s="44"/>
-      <c r="E909" s="44"/>
-      <c r="F909" s="45"/>
-    </row>
-    <row r="910" spans="1:8" s="26" customFormat="1">
-      <c r="A910" s="43"/>
-      <c r="B910" s="44"/>
-      <c r="C910" s="44"/>
-      <c r="D910" s="49" t="s">
+      <c r="E910" s="57"/>
+      <c r="F910" s="42"/>
+    </row>
+    <row r="911" spans="1:8" s="26" customFormat="1">
+      <c r="A911" s="40"/>
+      <c r="B911" s="41"/>
+      <c r="C911" s="41"/>
+      <c r="D911" s="58">
+        <f>G905-D914</f>
+        <v>2608300</v>
+      </c>
+      <c r="E911" s="59"/>
+      <c r="F911" s="42"/>
+    </row>
+    <row r="912" spans="1:8" s="26" customFormat="1">
+      <c r="A912" s="40"/>
+      <c r="B912" s="41"/>
+      <c r="C912" s="41"/>
+      <c r="D912" s="41"/>
+      <c r="E912" s="41"/>
+      <c r="F912" s="42"/>
+    </row>
+    <row r="913" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A913" s="40"/>
+      <c r="B913" s="41"/>
+      <c r="C913" s="41"/>
+      <c r="D913" s="57" t="s">
         <v>1673</v>
       </c>
-      <c r="E910" s="49"/>
-      <c r="F910" s="45"/>
-    </row>
-    <row r="911" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A911" s="43"/>
-      <c r="B911" s="44"/>
-      <c r="C911" s="44"/>
-      <c r="D911" s="50">
-        <f>SUM(D914:D927)</f>
-        <v>1216800</v>
-      </c>
-      <c r="E911" s="51"/>
-      <c r="F911" s="45"/>
-    </row>
-    <row r="912" spans="1:8" s="26" customFormat="1">
-      <c r="A912" s="43"/>
-      <c r="B912" s="44"/>
-      <c r="C912" s="44"/>
-      <c r="D912" s="39"/>
-      <c r="E912" s="39"/>
-      <c r="F912" s="45"/>
-    </row>
-    <row r="913" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1">
-      <c r="A913" s="43"/>
-      <c r="B913" s="36" t="s">
+      <c r="E913" s="57"/>
+      <c r="F913" s="42"/>
+    </row>
+    <row r="914" spans="1:8" s="26" customFormat="1">
+      <c r="A914" s="40"/>
+      <c r="B914" s="41"/>
+      <c r="C914" s="41"/>
+      <c r="D914" s="58">
+        <f>SUM(D917:D930)</f>
+        <v>1686800</v>
+      </c>
+      <c r="E914" s="59"/>
+      <c r="F914" s="42"/>
+    </row>
+    <row r="915" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1">
+      <c r="A915" s="40"/>
+      <c r="B915" s="41"/>
+      <c r="C915" s="41"/>
+      <c r="D915" s="36"/>
+      <c r="E915" s="36"/>
+      <c r="F915" s="42"/>
+    </row>
+    <row r="916" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A916" s="40"/>
+      <c r="B916" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C913" s="36" t="s">
+      <c r="C916" s="33" t="s">
         <v>1510</v>
       </c>
-      <c r="D913" s="36" t="s">
+      <c r="D916" s="33" t="s">
         <v>1362</v>
       </c>
-      <c r="E913" s="36" t="s">
+      <c r="E916" s="33" t="s">
         <v>1361</v>
       </c>
-      <c r="F913" s="45"/>
-    </row>
-    <row r="914" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A914" s="43"/>
-      <c r="B914" s="27"/>
-      <c r="C914" s="27" t="s">
+      <c r="F916" s="42"/>
+    </row>
+    <row r="917" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A917" s="40"/>
+      <c r="B917" s="27"/>
+      <c r="C917" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="D914" s="27"/>
-      <c r="E914" s="35">
-        <f>G902</f>
-        <v>4292400</v>
-      </c>
-      <c r="F914" s="45"/>
-      <c r="G914"/>
-    </row>
-    <row r="915" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A915" s="43"/>
-      <c r="B915" s="32" t="s">
+      <c r="D917" s="52"/>
+      <c r="E917" s="53">
+        <f>G905</f>
+        <v>4295100</v>
+      </c>
+      <c r="F917" s="42"/>
+      <c r="G917"/>
+    </row>
+    <row r="918" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A918" s="40"/>
+      <c r="B918" s="31" t="s">
         <v>918</v>
       </c>
-      <c r="C915" s="29" t="s">
+      <c r="C918" s="28" t="s">
         <v>917</v>
       </c>
-      <c r="D915" s="34">
+      <c r="D918" s="54">
         <v>466800</v>
       </c>
-      <c r="E915" s="7">
-        <f>ABS(D915-E914)</f>
-        <v>3825600</v>
-      </c>
-      <c r="F915" s="45"/>
-      <c r="G915"/>
-    </row>
-    <row r="916" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A916" s="43"/>
-      <c r="B916" s="27" t="s">
+      <c r="E918" s="55">
+        <f t="shared" ref="E918:E923" si="15">ABS(D918-E917)</f>
+        <v>3828300</v>
+      </c>
+      <c r="F918" s="42"/>
+      <c r="G918"/>
+    </row>
+    <row r="919" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A919" s="40"/>
+      <c r="B919" s="27" t="s">
         <v>942</v>
-      </c>
-      <c r="C916" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D916" s="28">
-        <v>150000</v>
-      </c>
-      <c r="E916" s="7">
-        <f>ABS(D916-E915)</f>
-        <v>3675600</v>
-      </c>
-      <c r="F916" s="45"/>
-      <c r="G916"/>
-      <c r="H916"/>
-    </row>
-    <row r="917" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A917" s="43"/>
-      <c r="B917" s="7" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C917" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D917" s="7">
-        <v>150000</v>
-      </c>
-      <c r="E917" s="7">
-        <f>ABS(D917-E916)</f>
-        <v>3525600</v>
-      </c>
-      <c r="F917" s="45"/>
-      <c r="G917"/>
-    </row>
-    <row r="918" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A918" s="43"/>
-      <c r="B918" s="7" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C918" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="D918" s="7">
-        <v>150000</v>
-      </c>
-      <c r="E918" s="7">
-        <f>ABS(D918-E917)</f>
-        <v>3375600</v>
-      </c>
-      <c r="F918" s="45"/>
-      <c r="G918"/>
-      <c r="H918"/>
-    </row>
-    <row r="919" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A919" s="43"/>
-      <c r="B919" s="8">
-        <v>45998</v>
       </c>
       <c r="C919" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="D919" s="7">
+      <c r="D919" s="56">
         <v>150000</v>
       </c>
-      <c r="E919" s="7">
-        <f>ABS(D919-E918)</f>
-        <v>3225600</v>
-      </c>
-      <c r="F919" s="45"/>
+      <c r="E919" s="55">
+        <f t="shared" si="15"/>
+        <v>3678300</v>
+      </c>
+      <c r="F919" s="42"/>
+      <c r="G919"/>
       <c r="H919"/>
     </row>
     <row r="920" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A920" s="43"/>
-      <c r="B920" s="8">
-        <v>46005</v>
+      <c r="A920" s="40"/>
+      <c r="B920" s="7" t="s">
+        <v>1512</v>
       </c>
       <c r="C920" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="D920" s="7">
+      <c r="D920" s="55">
         <v>150000</v>
       </c>
-      <c r="E920" s="7">
-        <f>ABS(D920-E919)</f>
-        <v>3075600</v>
-      </c>
-      <c r="F920" s="45"/>
-      <c r="H920"/>
+      <c r="E920" s="55">
+        <f t="shared" si="15"/>
+        <v>3528300</v>
+      </c>
+      <c r="F920" s="42"/>
+      <c r="G920"/>
     </row>
     <row r="921" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A921" s="43"/>
-      <c r="B921" s="7"/>
-      <c r="C921" s="7"/>
-      <c r="D921" s="7"/>
-      <c r="E921" s="7"/>
-      <c r="F921" s="45"/>
+      <c r="A921" s="40"/>
+      <c r="B921" s="7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C921" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D921" s="55">
+        <v>150000</v>
+      </c>
+      <c r="E921" s="55">
+        <f t="shared" si="15"/>
+        <v>3378300</v>
+      </c>
+      <c r="F921" s="42"/>
+      <c r="G921"/>
+      <c r="H921"/>
     </row>
     <row r="922" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A922" s="43"/>
-      <c r="B922" s="7"/>
-      <c r="C922" s="7"/>
-      <c r="D922" s="7"/>
-      <c r="E922" s="7"/>
-      <c r="F922" s="45"/>
+      <c r="A922" s="40"/>
+      <c r="B922" s="8">
+        <v>45997</v>
+      </c>
+      <c r="C922" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D922" s="55">
+        <v>150000</v>
+      </c>
+      <c r="E922" s="55">
+        <f t="shared" si="15"/>
+        <v>3228300</v>
+      </c>
+      <c r="F922" s="42"/>
+      <c r="H922"/>
     </row>
     <row r="923" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A923" s="43"/>
-      <c r="B923" s="7"/>
-      <c r="C923" s="7"/>
-      <c r="D923" s="7"/>
-      <c r="E923" s="7"/>
-      <c r="F923" s="45"/>
-      <c r="G923"/>
+      <c r="A923" s="40"/>
+      <c r="B923" s="8">
+        <v>46004</v>
+      </c>
+      <c r="C923" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D923" s="55">
+        <v>150000</v>
+      </c>
+      <c r="E923" s="55">
+        <f t="shared" si="15"/>
+        <v>3078300</v>
+      </c>
+      <c r="F923" s="42"/>
+      <c r="H923"/>
     </row>
     <row r="924" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A924" s="43"/>
-      <c r="B924" s="7"/>
-      <c r="C924" s="7"/>
-      <c r="D924" s="7"/>
-      <c r="E924" s="7"/>
-      <c r="F924" s="45"/>
-      <c r="G924"/>
+      <c r="A924" s="40"/>
+      <c r="B924" s="8">
+        <v>46011</v>
+      </c>
+      <c r="C924" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D924" s="55">
+        <v>150000</v>
+      </c>
+      <c r="E924" s="55">
+        <f t="shared" ref="E924" si="16">ABS(D924-E923)</f>
+        <v>2928300</v>
+      </c>
+      <c r="F924" s="42"/>
     </row>
     <row r="925" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A925" s="43"/>
-      <c r="B925" s="7"/>
-      <c r="C925" s="7"/>
-      <c r="D925" s="7"/>
-      <c r="E925" s="7"/>
-      <c r="F925" s="45"/>
-      <c r="G925"/>
-      <c r="H925"/>
+      <c r="A925" s="40"/>
+      <c r="B925" s="8">
+        <v>46025</v>
+      </c>
+      <c r="C925" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D925" s="55">
+        <v>150000</v>
+      </c>
+      <c r="E925" s="55">
+        <f t="shared" ref="E925:E926" si="17">ABS(D925-E924)</f>
+        <v>2778300</v>
+      </c>
+      <c r="F925" s="42"/>
     </row>
     <row r="926" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A926" s="43"/>
-      <c r="B926" s="7"/>
-      <c r="C926" s="7"/>
-      <c r="D926" s="7"/>
-      <c r="E926" s="7"/>
-      <c r="F926" s="45"/>
+      <c r="A926" s="40"/>
+      <c r="B926" s="8">
+        <v>46032</v>
+      </c>
+      <c r="C926" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D926" s="55">
+        <v>170000</v>
+      </c>
+      <c r="E926" s="55">
+        <f t="shared" si="17"/>
+        <v>2608300</v>
+      </c>
+      <c r="F926" s="42"/>
       <c r="G926"/>
-      <c r="H926"/>
     </row>
     <row r="927" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A927" s="43"/>
+      <c r="A927" s="40"/>
       <c r="B927" s="7"/>
       <c r="C927" s="7"/>
-      <c r="D927" s="7"/>
-      <c r="E927" s="7"/>
-      <c r="F927" s="45"/>
+      <c r="D927" s="55"/>
+      <c r="E927" s="55"/>
+      <c r="F927" s="42"/>
       <c r="G927"/>
-      <c r="H927"/>
-    </row>
-    <row r="928" spans="1:8" s="26" customFormat="1">
-      <c r="A928" s="43"/>
-      <c r="B928" s="44"/>
-      <c r="C928" s="44"/>
-      <c r="D928" s="44"/>
-      <c r="E928" s="44"/>
-      <c r="F928" s="45"/>
+    </row>
+    <row r="928" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A928" s="40"/>
+      <c r="B928" s="7"/>
+      <c r="C928" s="7"/>
+      <c r="D928" s="55"/>
+      <c r="E928" s="55"/>
+      <c r="F928" s="42"/>
       <c r="G928"/>
       <c r="H928"/>
     </row>
     <row r="929" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A929" s="46"/>
-      <c r="B929" s="47"/>
-      <c r="C929" s="47"/>
-      <c r="D929" s="47"/>
-      <c r="E929" s="47"/>
-      <c r="F929" s="48"/>
+      <c r="A929" s="40"/>
+      <c r="B929" s="7"/>
+      <c r="C929" s="7"/>
+      <c r="D929" s="55"/>
+      <c r="E929" s="55"/>
+      <c r="F929" s="42"/>
+      <c r="G929"/>
       <c r="H929"/>
     </row>
     <row r="930" spans="1:8" s="26" customFormat="1">
+      <c r="A930" s="40"/>
+      <c r="B930" s="7"/>
+      <c r="C930" s="7"/>
+      <c r="D930" s="55"/>
+      <c r="E930" s="55"/>
+      <c r="F930" s="42"/>
+      <c r="G930"/>
       <c r="H930"/>
     </row>
-    <row r="931" spans="1:8" s="26" customFormat="1"/>
-    <row r="932" spans="1:8" s="26" customFormat="1"/>
-    <row r="933" spans="1:8" s="26" customFormat="1"/>
-    <row r="934" spans="1:8" s="26" customFormat="1">
-      <c r="G934"/>
-    </row>
-    <row r="935" spans="1:8" s="26" customFormat="1">
-      <c r="G935"/>
-    </row>
-    <row r="936" spans="1:8" s="26" customFormat="1">
-      <c r="G936"/>
-      <c r="H936"/>
-    </row>
+    <row r="931" spans="1:8" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A931" s="40"/>
+      <c r="B931" s="41"/>
+      <c r="C931" s="41"/>
+      <c r="D931" s="41"/>
+      <c r="E931" s="41"/>
+      <c r="F931" s="42"/>
+      <c r="G931"/>
+      <c r="H931"/>
+    </row>
+    <row r="932" spans="1:8" s="26" customFormat="1">
+      <c r="A932" s="43"/>
+      <c r="B932" s="44"/>
+      <c r="C932" s="44"/>
+      <c r="D932" s="44"/>
+      <c r="E932" s="44"/>
+      <c r="F932" s="45"/>
+      <c r="H932"/>
+    </row>
+    <row r="933" spans="1:8" s="26" customFormat="1">
+      <c r="H933"/>
+    </row>
+    <row r="934" spans="1:8" s="26" customFormat="1"/>
+    <row r="935" spans="1:8" s="26" customFormat="1"/>
+    <row r="936" spans="1:8" s="26" customFormat="1"/>
     <row r="937" spans="1:8" s="26" customFormat="1">
       <c r="G937"/>
-      <c r="H937"/>
     </row>
     <row r="938" spans="1:8" s="26" customFormat="1">
       <c r="G938"/>
-      <c r="H938"/>
     </row>
     <row r="939" spans="1:8" s="26" customFormat="1">
       <c r="G939"/>
@@ -30946,93 +31098,110 @@
       <c r="G944"/>
       <c r="H944"/>
     </row>
-    <row r="945" spans="6:10" s="26" customFormat="1">
+    <row r="945" spans="1:10" s="26" customFormat="1">
       <c r="G945"/>
       <c r="H945"/>
     </row>
-    <row r="946" spans="6:10" s="26" customFormat="1">
+    <row r="946" spans="1:10" s="26" customFormat="1">
       <c r="G946"/>
       <c r="H946"/>
     </row>
-    <row r="947" spans="6:10" s="26" customFormat="1">
+    <row r="947" spans="1:10" s="26" customFormat="1">
       <c r="G947"/>
       <c r="H947"/>
     </row>
-    <row r="948" spans="6:10" s="26" customFormat="1">
+    <row r="948" spans="1:10" s="26" customFormat="1">
       <c r="G948"/>
       <c r="H948"/>
     </row>
-    <row r="949" spans="6:10" s="26" customFormat="1">
+    <row r="949" spans="1:10" s="26" customFormat="1">
       <c r="G949"/>
       <c r="H949"/>
     </row>
-    <row r="950" spans="6:10" s="26" customFormat="1">
+    <row r="950" spans="1:10" s="26" customFormat="1">
       <c r="G950"/>
       <c r="H950"/>
     </row>
-    <row r="951" spans="6:10" s="26" customFormat="1">
+    <row r="951" spans="1:10" s="26" customFormat="1">
       <c r="G951"/>
       <c r="H951"/>
     </row>
-    <row r="952" spans="6:10" s="26" customFormat="1">
+    <row r="952" spans="1:10" s="26" customFormat="1">
       <c r="G952"/>
       <c r="H952"/>
     </row>
-    <row r="953" spans="6:10" s="26" customFormat="1">
+    <row r="953" spans="1:10" s="26" customFormat="1">
       <c r="G953"/>
       <c r="H953"/>
     </row>
-    <row r="954" spans="6:10" s="26" customFormat="1">
+    <row r="954" spans="1:10" s="26" customFormat="1">
       <c r="G954"/>
       <c r="H954"/>
     </row>
-    <row r="955" spans="6:10" s="26" customFormat="1">
+    <row r="955" spans="1:10" s="26" customFormat="1">
       <c r="G955"/>
       <c r="H955"/>
     </row>
-    <row r="956" spans="6:10" s="26" customFormat="1">
+    <row r="956" spans="1:10" s="26" customFormat="1">
       <c r="G956"/>
       <c r="H956"/>
     </row>
-    <row r="957" spans="6:10">
-      <c r="F957" s="26"/>
-      <c r="J957" s="26"/>
-    </row>
-    <row r="958" spans="6:10">
-      <c r="F958" s="26"/>
-      <c r="J958" s="26"/>
-    </row>
-    <row r="959" spans="6:10">
+    <row r="957" spans="1:10" s="26" customFormat="1">
+      <c r="G957"/>
+      <c r="H957"/>
+    </row>
+    <row r="958" spans="1:10" s="26" customFormat="1">
+      <c r="G958"/>
+      <c r="H958"/>
+    </row>
+    <row r="959" spans="1:10">
+      <c r="A959" s="26"/>
+      <c r="B959" s="26"/>
+      <c r="C959" s="26"/>
+      <c r="D959" s="26"/>
+      <c r="E959" s="26"/>
       <c r="F959" s="26"/>
       <c r="J959" s="26"/>
     </row>
-    <row r="960" spans="6:10">
+    <row r="960" spans="1:10">
       <c r="F960" s="26"/>
-    </row>
-    <row r="961" spans="6:6">
+      <c r="J960" s="26"/>
+    </row>
+    <row r="961" spans="6:10">
       <c r="F961" s="26"/>
-    </row>
-    <row r="962" spans="6:6">
+      <c r="J961" s="26"/>
+    </row>
+    <row r="962" spans="6:10">
       <c r="F962" s="26"/>
     </row>
-    <row r="963" spans="6:6">
+    <row r="963" spans="6:10">
       <c r="F963" s="26"/>
     </row>
+    <row r="964" spans="6:10">
+      <c r="F964" s="26"/>
+    </row>
+    <row r="965" spans="6:10">
+      <c r="F965" s="26"/>
+    </row>
+    <row r="966" spans="6:10">
+      <c r="F966" s="26"/>
+    </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="7">
+  <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="D913:E913"/>
+    <mergeCell ref="D914:E914"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A905:F905"/>
+    <mergeCell ref="G905:H905"/>
     <mergeCell ref="D910:E910"/>
     <mergeCell ref="D911:E911"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A902:F902"/>
-    <mergeCell ref="G902:H902"/>
-    <mergeCell ref="D907:E907"/>
-    <mergeCell ref="D908:E908"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B915:B918" twoDigitTextYear="1"/>
+    <ignoredError sqref="B918:B921" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
